--- a/5/9/Índice de stress local 2008 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2008 - Diaria.xlsx
@@ -1161,10 +1161,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.2811</v>
+        <v>0.2901</v>
       </c>
       <c r="C2">
-        <v>0.2811</v>
+        <v>0.2901</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1172,10 +1172,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.2816</v>
+        <v>0.2906</v>
       </c>
       <c r="C3">
-        <v>0.2816</v>
+        <v>0.2906</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1183,10 +1183,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.2708</v>
+        <v>0.2791</v>
       </c>
       <c r="C4">
-        <v>0.2708</v>
+        <v>0.2791</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1194,10 +1194,10 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2695</v>
+        <v>0.2777</v>
       </c>
       <c r="C5">
-        <v>0.2695</v>
+        <v>0.2777</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1205,10 +1205,10 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.2643</v>
+        <v>0.2721</v>
       </c>
       <c r="C6">
-        <v>0.2643</v>
+        <v>0.2721</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1216,10 +1216,10 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.2634</v>
+        <v>0.2712</v>
       </c>
       <c r="C7">
-        <v>0.2634</v>
+        <v>0.2712</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1227,10 +1227,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.2608</v>
+        <v>0.2684</v>
       </c>
       <c r="C8">
-        <v>0.2608</v>
+        <v>0.2684</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1238,10 +1238,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.2595</v>
+        <v>0.267</v>
       </c>
       <c r="C9">
-        <v>0.2595</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1249,10 +1249,10 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.2525</v>
+        <v>0.2595</v>
       </c>
       <c r="C10">
-        <v>0.2525</v>
+        <v>0.2595</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1260,10 +1260,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.257</v>
+        <v>0.2644</v>
       </c>
       <c r="C11">
-        <v>0.257</v>
+        <v>0.2644</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1271,10 +1271,10 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.2591</v>
+        <v>0.2667</v>
       </c>
       <c r="C12">
-        <v>0.2591</v>
+        <v>0.2667</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1282,10 +1282,10 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.2622</v>
+        <v>0.27</v>
       </c>
       <c r="C13">
-        <v>0.2622</v>
+        <v>0.27</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1293,10 +1293,10 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.2562</v>
+        <v>0.2636</v>
       </c>
       <c r="C14">
-        <v>0.2562</v>
+        <v>0.2636</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1304,10 +1304,10 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.2562</v>
+        <v>0.2636</v>
       </c>
       <c r="C15">
-        <v>0.2562</v>
+        <v>0.2636</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1315,10 +1315,10 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.2594</v>
+        <v>0.267</v>
       </c>
       <c r="C16">
-        <v>0.2594</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1326,10 +1326,10 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.2608</v>
+        <v>0.2685</v>
       </c>
       <c r="C17">
-        <v>0.2608</v>
+        <v>0.2685</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1337,10 +1337,10 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.2567</v>
+        <v>0.2642</v>
       </c>
       <c r="C18">
-        <v>0.2567</v>
+        <v>0.2642</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1348,10 +1348,10 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.2594</v>
+        <v>0.2671</v>
       </c>
       <c r="C19">
-        <v>0.2594</v>
+        <v>0.2671</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1359,10 +1359,10 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.2729</v>
+        <v>0.2815</v>
       </c>
       <c r="C20">
-        <v>0.2729</v>
+        <v>0.2815</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1370,10 +1370,10 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.2748</v>
+        <v>0.2836</v>
       </c>
       <c r="C21">
-        <v>0.2748</v>
+        <v>0.2836</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1381,10 +1381,10 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.2734</v>
+        <v>0.2821</v>
       </c>
       <c r="C22">
-        <v>0.2734</v>
+        <v>0.2821</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1392,10 +1392,10 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.2698</v>
+        <v>0.2782</v>
       </c>
       <c r="C23">
-        <v>0.2698</v>
+        <v>0.2782</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1403,10 +1403,10 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.2712</v>
+        <v>0.2797</v>
       </c>
       <c r="C24">
-        <v>0.2712</v>
+        <v>0.2797</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1414,10 +1414,10 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.2726</v>
+        <v>0.2812</v>
       </c>
       <c r="C25">
-        <v>0.2726</v>
+        <v>0.2812</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1425,10 +1425,10 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.2836</v>
+        <v>0.293</v>
       </c>
       <c r="C26">
-        <v>0.2836</v>
+        <v>0.293</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1436,10 +1436,10 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.2818</v>
+        <v>0.291</v>
       </c>
       <c r="C27">
-        <v>0.2818</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1447,10 +1447,10 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.2816</v>
+        <v>0.2908</v>
       </c>
       <c r="C28">
-        <v>0.2816</v>
+        <v>0.2908</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1458,10 +1458,10 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.2813</v>
+        <v>0.2905</v>
       </c>
       <c r="C29">
-        <v>0.2813</v>
+        <v>0.2905</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1469,10 +1469,10 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.287</v>
+        <v>0.2965</v>
       </c>
       <c r="C30">
-        <v>0.287</v>
+        <v>0.2965</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1480,10 +1480,10 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.2817</v>
+        <v>0.2908</v>
       </c>
       <c r="C31">
-        <v>0.2817</v>
+        <v>0.2908</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1491,10 +1491,10 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.2852</v>
+        <v>0.2946</v>
       </c>
       <c r="C32">
-        <v>0.2852</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1502,10 +1502,10 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.2884</v>
+        <v>0.2979</v>
       </c>
       <c r="C33">
-        <v>0.2884</v>
+        <v>0.2979</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1513,10 +1513,10 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.2917</v>
+        <v>0.3014</v>
       </c>
       <c r="C34">
-        <v>0.2917</v>
+        <v>0.3014</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1524,10 +1524,10 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.2866</v>
+        <v>0.296</v>
       </c>
       <c r="C35">
-        <v>0.2866</v>
+        <v>0.296</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1535,10 +1535,10 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.2876</v>
+        <v>0.2971</v>
       </c>
       <c r="C36">
-        <v>0.2876</v>
+        <v>0.2971</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1546,10 +1546,10 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.2826</v>
+        <v>0.2916</v>
       </c>
       <c r="C37">
-        <v>0.2826</v>
+        <v>0.2916</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1557,10 +1557,10 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.2912</v>
+        <v>0.3008</v>
       </c>
       <c r="C38">
-        <v>0.2912</v>
+        <v>0.3008</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1568,10 +1568,10 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.283</v>
+        <v>0.292</v>
       </c>
       <c r="C39">
-        <v>0.283</v>
+        <v>0.292</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1579,10 +1579,10 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.2682</v>
+        <v>0.2762</v>
       </c>
       <c r="C40">
-        <v>0.2682</v>
+        <v>0.2762</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1590,10 +1590,10 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.2656</v>
+        <v>0.2734</v>
       </c>
       <c r="C41">
-        <v>0.2656</v>
+        <v>0.2734</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1601,10 +1601,10 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.2616</v>
+        <v>0.2691</v>
       </c>
       <c r="C42">
-        <v>0.2616</v>
+        <v>0.2691</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1612,10 +1612,10 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.2581</v>
+        <v>0.2654</v>
       </c>
       <c r="C43">
-        <v>0.2581</v>
+        <v>0.2654</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1623,10 +1623,10 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.2532</v>
+        <v>0.2601</v>
       </c>
       <c r="C44">
-        <v>0.2532</v>
+        <v>0.2601</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1634,10 +1634,10 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.2525</v>
+        <v>0.2594</v>
       </c>
       <c r="C45">
-        <v>0.2525</v>
+        <v>0.2594</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1645,10 +1645,10 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.2394</v>
+        <v>0.2453</v>
       </c>
       <c r="C46">
-        <v>0.2394</v>
+        <v>0.2453</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1656,10 +1656,10 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.2375</v>
+        <v>0.2434</v>
       </c>
       <c r="C47">
-        <v>0.2375</v>
+        <v>0.2434</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1667,10 +1667,10 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.2339</v>
+        <v>0.2395</v>
       </c>
       <c r="C48">
-        <v>0.2339</v>
+        <v>0.2395</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1678,10 +1678,10 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.2441</v>
+        <v>0.2505</v>
       </c>
       <c r="C49">
-        <v>0.2441</v>
+        <v>0.2505</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1689,10 +1689,10 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.2412</v>
+        <v>0.2473</v>
       </c>
       <c r="C50">
-        <v>0.2412</v>
+        <v>0.2473</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1700,10 +1700,10 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.2444</v>
+        <v>0.2508</v>
       </c>
       <c r="C51">
-        <v>0.2444</v>
+        <v>0.2508</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1711,10 +1711,10 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.2437</v>
+        <v>0.25</v>
       </c>
       <c r="C52">
-        <v>0.2437</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1722,10 +1722,10 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.243</v>
+        <v>0.2493</v>
       </c>
       <c r="C53">
-        <v>0.243</v>
+        <v>0.2493</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1733,10 +1733,10 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.244</v>
+        <v>0.2504</v>
       </c>
       <c r="C54">
-        <v>0.244</v>
+        <v>0.2504</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1744,10 +1744,10 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.2564</v>
+        <v>0.2636</v>
       </c>
       <c r="C55">
-        <v>0.2564</v>
+        <v>0.2636</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1755,10 +1755,10 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.2548</v>
+        <v>0.262</v>
       </c>
       <c r="C56">
-        <v>0.2548</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1766,10 +1766,10 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.2599</v>
+        <v>0.2674</v>
       </c>
       <c r="C57">
-        <v>0.2599</v>
+        <v>0.2674</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1777,10 +1777,10 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.2588</v>
+        <v>0.2663</v>
       </c>
       <c r="C58">
-        <v>0.2588</v>
+        <v>0.2663</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1788,10 +1788,10 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.2693</v>
+        <v>0.2774</v>
       </c>
       <c r="C59">
-        <v>0.2693</v>
+        <v>0.2774</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1799,10 +1799,10 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.2779</v>
+        <v>0.2867</v>
       </c>
       <c r="C60">
-        <v>0.2779</v>
+        <v>0.2867</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1810,10 +1810,10 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.2864</v>
+        <v>0.2958</v>
       </c>
       <c r="C61">
-        <v>0.2864</v>
+        <v>0.2958</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1821,10 +1821,10 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.2993</v>
+        <v>0.3096</v>
       </c>
       <c r="C62">
-        <v>0.2993</v>
+        <v>0.3096</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1832,10 +1832,10 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3275</v>
+        <v>0.3397</v>
       </c>
       <c r="C63">
-        <v>0.3275</v>
+        <v>0.3397</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1843,10 +1843,10 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.3468</v>
+        <v>0.3604</v>
       </c>
       <c r="C64">
-        <v>0.3468</v>
+        <v>0.3604</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1854,10 +1854,10 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.3704</v>
+        <v>0.3857</v>
       </c>
       <c r="C65">
-        <v>0.3704</v>
+        <v>0.3857</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1865,10 +1865,10 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.389</v>
+        <v>0.4055</v>
       </c>
       <c r="C66">
-        <v>0.389</v>
+        <v>0.4055</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1876,10 +1876,10 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.4027</v>
+        <v>0.4202</v>
       </c>
       <c r="C67">
-        <v>0.4027</v>
+        <v>0.4202</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1887,10 +1887,10 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.4242</v>
+        <v>0.4431</v>
       </c>
       <c r="C68">
-        <v>0.4242</v>
+        <v>0.4431</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1898,10 +1898,10 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.4298</v>
+        <v>0.4491</v>
       </c>
       <c r="C69">
-        <v>0.4298</v>
+        <v>0.4491</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1909,10 +1909,10 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.4387</v>
+        <v>0.4586</v>
       </c>
       <c r="C70">
-        <v>0.4387</v>
+        <v>0.4586</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1920,10 +1920,10 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.4466</v>
+        <v>0.4671</v>
       </c>
       <c r="C71">
-        <v>0.4466</v>
+        <v>0.4671</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1931,10 +1931,10 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.4484</v>
+        <v>0.4689</v>
       </c>
       <c r="C72">
-        <v>0.4484</v>
+        <v>0.4689</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1942,10 +1942,10 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.4561</v>
+        <v>0.4771</v>
       </c>
       <c r="C73">
-        <v>0.4561</v>
+        <v>0.4771</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1953,10 +1953,10 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.4719</v>
+        <v>0.4941</v>
       </c>
       <c r="C74">
-        <v>0.4719</v>
+        <v>0.4941</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1964,10 +1964,10 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.4698</v>
+        <v>0.4919</v>
       </c>
       <c r="C75">
-        <v>0.4698</v>
+        <v>0.4919</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1975,10 +1975,10 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.4864</v>
+        <v>0.5096000000000001</v>
       </c>
       <c r="C76">
-        <v>0.4864</v>
+        <v>0.5096000000000001</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1986,10 +1986,10 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.5024</v>
+        <v>0.5266999999999999</v>
       </c>
       <c r="C77">
-        <v>0.5024</v>
+        <v>0.5266999999999999</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1997,10 +1997,10 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.5039</v>
+        <v>0.5283</v>
       </c>
       <c r="C78">
-        <v>0.5039</v>
+        <v>0.5283</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2008,10 +2008,10 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.5032</v>
+        <v>0.5275</v>
       </c>
       <c r="C79">
-        <v>0.5032</v>
+        <v>0.5275</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2019,10 +2019,10 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.5168</v>
+        <v>0.542</v>
       </c>
       <c r="C80">
-        <v>0.5168</v>
+        <v>0.542</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2030,10 +2030,10 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.5229</v>
+        <v>0.5485</v>
       </c>
       <c r="C81">
-        <v>0.5229</v>
+        <v>0.5485</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2041,10 +2041,10 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.5274</v>
+        <v>0.5533</v>
       </c>
       <c r="C82">
-        <v>0.5274</v>
+        <v>0.5533</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2052,10 +2052,10 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.5196</v>
+        <v>0.5449000000000001</v>
       </c>
       <c r="C83">
-        <v>0.5196</v>
+        <v>0.5449000000000001</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2063,10 +2063,10 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.5129</v>
+        <v>0.5377</v>
       </c>
       <c r="C84">
-        <v>0.5129</v>
+        <v>0.5377</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2074,10 +2074,10 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.4928</v>
+        <v>0.5163</v>
       </c>
       <c r="C85">
-        <v>0.4928</v>
+        <v>0.5163</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2085,10 +2085,10 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.4903</v>
+        <v>0.5135999999999999</v>
       </c>
       <c r="C86">
-        <v>0.4903</v>
+        <v>0.5135999999999999</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2096,10 +2096,10 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.4829</v>
+        <v>0.5056</v>
       </c>
       <c r="C87">
-        <v>0.4829</v>
+        <v>0.5056</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2107,10 +2107,10 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.4771</v>
+        <v>0.4994</v>
       </c>
       <c r="C88">
-        <v>0.4771</v>
+        <v>0.4994</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2118,10 +2118,10 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.4707</v>
+        <v>0.4925</v>
       </c>
       <c r="C89">
-        <v>0.4707</v>
+        <v>0.4925</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2129,10 +2129,10 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.4662</v>
+        <v>0.4877</v>
       </c>
       <c r="C90">
-        <v>0.4662</v>
+        <v>0.4877</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2140,10 +2140,10 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.4612</v>
+        <v>0.4823</v>
       </c>
       <c r="C91">
-        <v>0.4612</v>
+        <v>0.4823</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2151,10 +2151,10 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.4779</v>
+        <v>0.5003</v>
       </c>
       <c r="C92">
-        <v>0.4779</v>
+        <v>0.5003</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2162,10 +2162,10 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.4724</v>
+        <v>0.4943</v>
       </c>
       <c r="C93">
-        <v>0.4724</v>
+        <v>0.4943</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2173,10 +2173,10 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.4562</v>
+        <v>0.477</v>
       </c>
       <c r="C94">
-        <v>0.4562</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2184,10 +2184,10 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.4491</v>
+        <v>0.4694</v>
       </c>
       <c r="C95">
-        <v>0.4491</v>
+        <v>0.4694</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2195,10 +2195,10 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.4298</v>
+        <v>0.4488</v>
       </c>
       <c r="C96">
-        <v>0.4298</v>
+        <v>0.4488</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2206,10 +2206,10 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.4142</v>
+        <v>0.4321</v>
       </c>
       <c r="C97">
-        <v>0.4142</v>
+        <v>0.4321</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2217,10 +2217,10 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.4058</v>
+        <v>0.423</v>
       </c>
       <c r="C98">
-        <v>0.4058</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2228,10 +2228,10 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.4038</v>
+        <v>0.4209</v>
       </c>
       <c r="C99">
-        <v>0.4038</v>
+        <v>0.4209</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2239,10 +2239,10 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.3861</v>
+        <v>0.4019</v>
       </c>
       <c r="C100">
-        <v>0.3861</v>
+        <v>0.4019</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2250,10 +2250,10 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.3821</v>
+        <v>0.3977</v>
       </c>
       <c r="C101">
-        <v>0.3821</v>
+        <v>0.3977</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2261,10 +2261,10 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.37</v>
+        <v>0.3847</v>
       </c>
       <c r="C102">
-        <v>0.37</v>
+        <v>0.3847</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2272,10 +2272,10 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.3534</v>
+        <v>0.3669</v>
       </c>
       <c r="C103">
-        <v>0.3534</v>
+        <v>0.3669</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2283,10 +2283,10 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.3461</v>
+        <v>0.3592</v>
       </c>
       <c r="C104">
-        <v>0.3461</v>
+        <v>0.3592</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2294,10 +2294,10 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.344</v>
+        <v>0.3569</v>
       </c>
       <c r="C105">
-        <v>0.344</v>
+        <v>0.3569</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2305,10 +2305,10 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.3331</v>
+        <v>0.3453</v>
       </c>
       <c r="C106">
-        <v>0.3331</v>
+        <v>0.3453</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2316,10 +2316,10 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.3314</v>
+        <v>0.3435</v>
       </c>
       <c r="C107">
-        <v>0.3314</v>
+        <v>0.3435</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2327,10 +2327,10 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.3231</v>
+        <v>0.3346</v>
       </c>
       <c r="C108">
-        <v>0.3231</v>
+        <v>0.3346</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2338,10 +2338,10 @@
         <v>111</v>
       </c>
       <c r="B109">
-        <v>0.3234</v>
+        <v>0.3349</v>
       </c>
       <c r="C109">
-        <v>0.3234</v>
+        <v>0.3349</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -2349,10 +2349,10 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.3228</v>
+        <v>0.3342</v>
       </c>
       <c r="C110">
-        <v>0.3228</v>
+        <v>0.3342</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2360,10 +2360,10 @@
         <v>113</v>
       </c>
       <c r="B111">
-        <v>0.3219</v>
+        <v>0.3333</v>
       </c>
       <c r="C111">
-        <v>0.3219</v>
+        <v>0.3333</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2371,10 +2371,10 @@
         <v>114</v>
       </c>
       <c r="B112">
-        <v>0.3041</v>
+        <v>0.3143</v>
       </c>
       <c r="C112">
-        <v>0.3041</v>
+        <v>0.3143</v>
       </c>
     </row>
     <row r="113" spans="1:3">
@@ -2382,10 +2382,10 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.3012</v>
+        <v>0.3113</v>
       </c>
       <c r="C113">
-        <v>0.3012</v>
+        <v>0.3113</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2393,10 +2393,10 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.3027</v>
+        <v>0.3128</v>
       </c>
       <c r="C114">
-        <v>0.3027</v>
+        <v>0.3128</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2404,10 +2404,10 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.3049</v>
+        <v>0.3152</v>
       </c>
       <c r="C115">
-        <v>0.3049</v>
+        <v>0.3152</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2415,10 +2415,10 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.3196</v>
+        <v>0.3311</v>
       </c>
       <c r="C116">
-        <v>0.3196</v>
+        <v>0.3311</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2426,10 +2426,10 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.3195</v>
+        <v>0.331</v>
       </c>
       <c r="C117">
-        <v>0.3195</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2437,10 +2437,10 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.3206</v>
+        <v>0.3322</v>
       </c>
       <c r="C118">
-        <v>0.3206</v>
+        <v>0.3322</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2448,10 +2448,10 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.3279</v>
+        <v>0.34</v>
       </c>
       <c r="C119">
-        <v>0.3279</v>
+        <v>0.34</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2459,10 +2459,10 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.3325</v>
+        <v>0.3449</v>
       </c>
       <c r="C120">
-        <v>0.3325</v>
+        <v>0.3449</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2470,10 +2470,10 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.3363</v>
+        <v>0.349</v>
       </c>
       <c r="C121">
-        <v>0.3363</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2481,10 +2481,10 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.3405</v>
+        <v>0.3535</v>
       </c>
       <c r="C122">
-        <v>0.3405</v>
+        <v>0.3535</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2492,10 +2492,10 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.3522</v>
+        <v>0.366</v>
       </c>
       <c r="C123">
-        <v>0.3522</v>
+        <v>0.366</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2503,10 +2503,10 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.3545</v>
+        <v>0.3685</v>
       </c>
       <c r="C124">
-        <v>0.3545</v>
+        <v>0.3685</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2514,10 +2514,10 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.3597</v>
+        <v>0.374</v>
       </c>
       <c r="C125">
-        <v>0.3597</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2525,10 +2525,10 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.3665</v>
+        <v>0.3813</v>
       </c>
       <c r="C126">
-        <v>0.3665</v>
+        <v>0.3813</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2536,10 +2536,10 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.3751</v>
+        <v>0.3906</v>
       </c>
       <c r="C127">
-        <v>0.3751</v>
+        <v>0.3906</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2547,10 +2547,10 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.3916</v>
+        <v>0.4082</v>
       </c>
       <c r="C128">
-        <v>0.3916</v>
+        <v>0.4082</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2558,10 +2558,10 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.3947</v>
+        <v>0.4116</v>
       </c>
       <c r="C129">
-        <v>0.3947</v>
+        <v>0.4116</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2569,10 +2569,10 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.3953</v>
+        <v>0.4122</v>
       </c>
       <c r="C130">
-        <v>0.3953</v>
+        <v>0.4122</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2580,10 +2580,10 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.4034</v>
+        <v>0.4208</v>
       </c>
       <c r="C131">
-        <v>0.4034</v>
+        <v>0.4208</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2591,10 +2591,10 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.4147</v>
+        <v>0.4329</v>
       </c>
       <c r="C132">
-        <v>0.4147</v>
+        <v>0.4329</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2602,10 +2602,10 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.4219</v>
+        <v>0.4406</v>
       </c>
       <c r="C133">
-        <v>0.4219</v>
+        <v>0.4406</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2613,10 +2613,10 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.427</v>
+        <v>0.446</v>
       </c>
       <c r="C134">
-        <v>0.427</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2624,10 +2624,10 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.4323</v>
+        <v>0.4517</v>
       </c>
       <c r="C135">
-        <v>0.4323</v>
+        <v>0.4517</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2635,10 +2635,10 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.427</v>
+        <v>0.446</v>
       </c>
       <c r="C136">
-        <v>0.427</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2646,10 +2646,10 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.4345</v>
+        <v>0.454</v>
       </c>
       <c r="C137">
-        <v>0.4345</v>
+        <v>0.454</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2657,10 +2657,10 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.4436</v>
+        <v>0.4637</v>
       </c>
       <c r="C138">
-        <v>0.4436</v>
+        <v>0.4637</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2668,10 +2668,10 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.4381</v>
+        <v>0.4578</v>
       </c>
       <c r="C139">
-        <v>0.4381</v>
+        <v>0.4578</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2679,10 +2679,10 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.4466</v>
+        <v>0.4669</v>
       </c>
       <c r="C140">
-        <v>0.4466</v>
+        <v>0.4669</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2690,10 +2690,10 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.4304</v>
+        <v>0.45</v>
       </c>
       <c r="C141">
-        <v>0.4304</v>
+        <v>0.45</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2701,10 +2701,10 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.421</v>
+        <v>0.4403</v>
       </c>
       <c r="C142">
-        <v>0.421</v>
+        <v>0.4403</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2712,10 +2712,10 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.4062</v>
+        <v>0.4248</v>
       </c>
       <c r="C143">
-        <v>0.4062</v>
+        <v>0.4248</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2723,10 +2723,10 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.4002</v>
+        <v>0.4188</v>
       </c>
       <c r="C144">
-        <v>0.4002</v>
+        <v>0.4188</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2734,10 +2734,10 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.3918</v>
+        <v>0.4101</v>
       </c>
       <c r="C145">
-        <v>0.3918</v>
+        <v>0.4101</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2745,10 +2745,10 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.3818</v>
+        <v>0.3998</v>
       </c>
       <c r="C146">
-        <v>0.3818</v>
+        <v>0.3998</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2756,10 +2756,10 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.3686</v>
+        <v>0.386</v>
       </c>
       <c r="C147">
-        <v>0.3686</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2767,10 +2767,10 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.3465</v>
+        <v>0.3628</v>
       </c>
       <c r="C148">
-        <v>0.3465</v>
+        <v>0.3628</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2778,10 +2778,10 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.3341</v>
+        <v>0.3498</v>
       </c>
       <c r="C149">
-        <v>0.3341</v>
+        <v>0.3498</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2789,10 +2789,10 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.3276</v>
+        <v>0.3432</v>
       </c>
       <c r="C150">
-        <v>0.3276</v>
+        <v>0.3432</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2800,10 +2800,10 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.3136</v>
+        <v>0.3286</v>
       </c>
       <c r="C151">
-        <v>0.3136</v>
+        <v>0.3286</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2811,10 +2811,10 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.2947</v>
+        <v>0.3087</v>
       </c>
       <c r="C152">
-        <v>0.2947</v>
+        <v>0.3087</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2822,10 +2822,10 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.2824</v>
+        <v>0.2959</v>
       </c>
       <c r="C153">
-        <v>0.2824</v>
+        <v>0.2959</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2833,10 +2833,10 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.2746</v>
+        <v>0.2879</v>
       </c>
       <c r="C154">
-        <v>0.2746</v>
+        <v>0.2879</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2844,10 +2844,10 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.2619</v>
+        <v>0.2746</v>
       </c>
       <c r="C155">
-        <v>0.2619</v>
+        <v>0.2746</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2855,10 +2855,10 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.2491</v>
+        <v>0.2612</v>
       </c>
       <c r="C156">
-        <v>0.2491</v>
+        <v>0.2612</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2866,10 +2866,10 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.2353</v>
+        <v>0.2468</v>
       </c>
       <c r="C157">
-        <v>0.2353</v>
+        <v>0.2468</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2877,10 +2877,10 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.2203</v>
+        <v>0.231</v>
       </c>
       <c r="C158">
-        <v>0.2203</v>
+        <v>0.231</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2888,10 +2888,10 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.214</v>
+        <v>0.2246</v>
       </c>
       <c r="C159">
-        <v>0.214</v>
+        <v>0.2246</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2899,13 +2899,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.6181</v>
+        <v>0.6274999999999999</v>
       </c>
       <c r="C160">
-        <v>0.195</v>
+        <v>0.2046</v>
       </c>
       <c r="D160">
-        <v>0.4231</v>
+        <v>0.4229</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2913,13 +2913,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.6115</v>
+        <v>0.6181</v>
       </c>
       <c r="C161">
-        <v>0.1956</v>
+        <v>0.205</v>
       </c>
       <c r="D161">
-        <v>0.4159</v>
+        <v>0.4131</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2927,13 +2927,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.6071</v>
+        <v>0.6114000000000001</v>
       </c>
       <c r="C162">
-        <v>0.1979</v>
+        <v>0.2074</v>
       </c>
       <c r="D162">
-        <v>0.4091</v>
+        <v>0.404</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2941,13 +2941,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.6081</v>
+        <v>0.6104000000000001</v>
       </c>
       <c r="C163">
-        <v>0.204</v>
+        <v>0.2137</v>
       </c>
       <c r="D163">
-        <v>0.4041</v>
+        <v>0.3967</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2955,13 +2955,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.6054</v>
+        <v>0.6057</v>
       </c>
       <c r="C164">
-        <v>0.206</v>
+        <v>0.2157</v>
       </c>
       <c r="D164">
-        <v>0.3994</v>
+        <v>0.3899</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2969,13 +2969,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.5982</v>
+        <v>0.5964</v>
       </c>
       <c r="C165">
-        <v>0.2035</v>
+        <v>0.213</v>
       </c>
       <c r="D165">
-        <v>0.3947</v>
+        <v>0.3834</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2983,13 +2983,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.5958</v>
+        <v>0.5925</v>
       </c>
       <c r="C166">
-        <v>0.205</v>
+        <v>0.2145</v>
       </c>
       <c r="D166">
-        <v>0.3908</v>
+        <v>0.378</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2997,13 +2997,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.5921</v>
+        <v>0.5872000000000001</v>
       </c>
       <c r="C167">
-        <v>0.2047</v>
+        <v>0.2142</v>
       </c>
       <c r="D167">
-        <v>0.3874</v>
+        <v>0.3731</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3011,13 +3011,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.5907</v>
+        <v>0.5844</v>
       </c>
       <c r="C168">
-        <v>0.206</v>
+        <v>0.2155</v>
       </c>
       <c r="D168">
-        <v>0.3847</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3025,13 +3025,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.5888</v>
+        <v>0.5810999999999999</v>
       </c>
       <c r="C169">
-        <v>0.2062</v>
+        <v>0.2156</v>
       </c>
       <c r="D169">
-        <v>0.3826</v>
+        <v>0.3655</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3039,13 +3039,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.5853</v>
+        <v>0.5762</v>
       </c>
       <c r="C170">
-        <v>0.2044</v>
+        <v>0.2136</v>
       </c>
       <c r="D170">
-        <v>0.381</v>
+        <v>0.3626</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3053,13 +3053,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.5872000000000001</v>
+        <v>0.5769</v>
       </c>
       <c r="C171">
-        <v>0.207</v>
+        <v>0.2164</v>
       </c>
       <c r="D171">
-        <v>0.3801</v>
+        <v>0.3606</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3067,13 +3067,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.5925</v>
+        <v>0.581</v>
       </c>
       <c r="C172">
-        <v>0.2108</v>
+        <v>0.2203</v>
       </c>
       <c r="D172">
-        <v>0.3817</v>
+        <v>0.3607</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3081,13 +3081,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.5965</v>
+        <v>0.5843</v>
       </c>
       <c r="C173">
-        <v>0.2147</v>
+        <v>0.2244</v>
       </c>
       <c r="D173">
-        <v>0.3818</v>
+        <v>0.3599</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3095,13 +3095,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.6044</v>
+        <v>0.5913</v>
       </c>
       <c r="C174">
-        <v>0.2198</v>
+        <v>0.2298</v>
       </c>
       <c r="D174">
-        <v>0.3845</v>
+        <v>0.3615</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3109,13 +3109,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.6071</v>
+        <v>0.593</v>
       </c>
       <c r="C175">
-        <v>0.2203</v>
+        <v>0.2303</v>
       </c>
       <c r="D175">
-        <v>0.3868</v>
+        <v>0.3627</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3123,13 +3123,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.6127</v>
+        <v>0.5984</v>
       </c>
       <c r="C176">
-        <v>0.2241</v>
+        <v>0.2343</v>
       </c>
       <c r="D176">
-        <v>0.3886</v>
+        <v>0.3641</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3137,13 +3137,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.6213</v>
+        <v>0.607</v>
       </c>
       <c r="C177">
-        <v>0.2302</v>
+        <v>0.2408</v>
       </c>
       <c r="D177">
-        <v>0.3911</v>
+        <v>0.3662</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3151,13 +3151,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.6312</v>
+        <v>0.6169</v>
       </c>
       <c r="C178">
-        <v>0.2369</v>
+        <v>0.2478</v>
       </c>
       <c r="D178">
-        <v>0.3943</v>
+        <v>0.369</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3165,13 +3165,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.6353</v>
+        <v>0.6205000000000001</v>
       </c>
       <c r="C179">
-        <v>0.2372</v>
+        <v>0.2482</v>
       </c>
       <c r="D179">
-        <v>0.3982</v>
+        <v>0.3723</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3179,13 +3179,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.6429</v>
+        <v>0.6279</v>
       </c>
       <c r="C180">
-        <v>0.2402</v>
+        <v>0.2514</v>
       </c>
       <c r="D180">
-        <v>0.4027</v>
+        <v>0.3765</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3193,13 +3193,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.6497000000000001</v>
+        <v>0.6343</v>
       </c>
       <c r="C181">
-        <v>0.2419</v>
+        <v>0.2532</v>
       </c>
       <c r="D181">
-        <v>0.4078</v>
+        <v>0.3811</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3207,13 +3207,13 @@
         <v>184</v>
       </c>
       <c r="B182">
-        <v>0.6574</v>
+        <v>0.6413</v>
       </c>
       <c r="C182">
-        <v>0.243</v>
+        <v>0.2544</v>
       </c>
       <c r="D182">
-        <v>0.4144</v>
+        <v>0.3868</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3221,13 +3221,13 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.659</v>
+        <v>0.6422</v>
       </c>
       <c r="C183">
-        <v>0.2397</v>
+        <v>0.251</v>
       </c>
       <c r="D183">
-        <v>0.4193</v>
+        <v>0.3912</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3235,13 +3235,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.6655</v>
+        <v>0.6484</v>
       </c>
       <c r="C184">
-        <v>0.2415</v>
+        <v>0.2529</v>
       </c>
       <c r="D184">
-        <v>0.424</v>
+        <v>0.3955</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3249,13 +3249,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.6752</v>
+        <v>0.6581</v>
       </c>
       <c r="C185">
-        <v>0.2466</v>
+        <v>0.2584</v>
       </c>
       <c r="D185">
-        <v>0.4285</v>
+        <v>0.3997</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3263,13 +3263,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.6822</v>
+        <v>0.6651</v>
       </c>
       <c r="C186">
-        <v>0.2498</v>
+        <v>0.2618</v>
       </c>
       <c r="D186">
-        <v>0.4324</v>
+        <v>0.4033</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3277,13 +3277,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.6915</v>
+        <v>0.6746</v>
       </c>
       <c r="C187">
-        <v>0.2552</v>
+        <v>0.2676</v>
       </c>
       <c r="D187">
-        <v>0.4363</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3291,13 +3291,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.6992</v>
+        <v>0.6823</v>
       </c>
       <c r="C188">
-        <v>0.2587</v>
+        <v>0.2713</v>
       </c>
       <c r="D188">
-        <v>0.4405</v>
+        <v>0.4109</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3305,13 +3305,13 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.7111</v>
+        <v>0.6944</v>
       </c>
       <c r="C189">
-        <v>0.2664</v>
+        <v>0.2795</v>
       </c>
       <c r="D189">
-        <v>0.4447</v>
+        <v>0.4149</v>
       </c>
     </row>
     <row r="190" spans="1:4">
@@ -3319,13 +3319,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.7282</v>
+        <v>0.7112000000000001</v>
       </c>
       <c r="C190">
-        <v>0.2765</v>
+        <v>0.2902</v>
       </c>
       <c r="D190">
-        <v>0.4518</v>
+        <v>0.4211</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3333,13 +3333,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.7415</v>
+        <v>0.7241</v>
       </c>
       <c r="C191">
-        <v>0.2834</v>
+        <v>0.2975</v>
       </c>
       <c r="D191">
-        <v>0.4582</v>
+        <v>0.4267</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3347,13 +3347,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.7547</v>
+        <v>0.7376</v>
       </c>
       <c r="C192">
-        <v>0.2924</v>
+        <v>0.3071</v>
       </c>
       <c r="D192">
-        <v>0.4624</v>
+        <v>0.4305</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3361,13 +3361,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.7645</v>
+        <v>0.7474</v>
       </c>
       <c r="C193">
-        <v>0.2984</v>
+        <v>0.3135</v>
       </c>
       <c r="D193">
-        <v>0.4662</v>
+        <v>0.4339</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3375,13 +3375,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.7701</v>
+        <v>0.7533</v>
       </c>
       <c r="C194">
-        <v>0.3022</v>
+        <v>0.3176</v>
       </c>
       <c r="D194">
-        <v>0.4679</v>
+        <v>0.4357</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3389,13 +3389,13 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.786</v>
+        <v>0.7705</v>
       </c>
       <c r="C195">
-        <v>0.3172</v>
+        <v>0.3335</v>
       </c>
       <c r="D195">
-        <v>0.4688</v>
+        <v>0.437</v>
       </c>
     </row>
     <row r="196" spans="1:4">
@@ -3403,13 +3403,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.799</v>
+        <v>0.7838000000000001</v>
       </c>
       <c r="C196">
-        <v>0.3271</v>
+        <v>0.344</v>
       </c>
       <c r="D196">
-        <v>0.4719</v>
+        <v>0.4398</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3417,13 +3417,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.8065</v>
+        <v>0.7912</v>
       </c>
       <c r="C197">
-        <v>0.332</v>
+        <v>0.3491</v>
       </c>
       <c r="D197">
-        <v>0.4745</v>
+        <v>0.4421</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3431,13 +3431,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.8179999999999999</v>
+        <v>0.8031</v>
       </c>
       <c r="C198">
-        <v>0.3409</v>
+        <v>0.3586</v>
       </c>
       <c r="D198">
-        <v>0.4771</v>
+        <v>0.4445</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3445,13 +3445,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.8326</v>
+        <v>0.8186</v>
       </c>
       <c r="C199">
-        <v>0.3541</v>
+        <v>0.3727</v>
       </c>
       <c r="D199">
-        <v>0.4785</v>
+        <v>0.4459</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3459,13 +3459,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.8461</v>
+        <v>0.8329</v>
       </c>
       <c r="C200">
-        <v>0.3664</v>
+        <v>0.3857</v>
       </c>
       <c r="D200">
-        <v>0.4798</v>
+        <v>0.4472</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3473,13 +3473,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.8585</v>
+        <v>0.8462</v>
       </c>
       <c r="C201">
-        <v>0.3782</v>
+        <v>0.3983</v>
       </c>
       <c r="D201">
-        <v>0.4803</v>
+        <v>0.4478</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3487,13 +3487,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.8643999999999999</v>
+        <v>0.853</v>
       </c>
       <c r="C202">
-        <v>0.3856</v>
+        <v>0.4061</v>
       </c>
       <c r="D202">
-        <v>0.4789</v>
+        <v>0.4469</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3501,13 +3501,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.8715000000000001</v>
+        <v>0.8608</v>
       </c>
       <c r="C203">
-        <v>0.3934</v>
+        <v>0.4144</v>
       </c>
       <c r="D203">
-        <v>0.4781</v>
+        <v>0.4465</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3515,13 +3515,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.8777</v>
+        <v>0.8676</v>
       </c>
       <c r="C204">
-        <v>0.4002</v>
+        <v>0.4216</v>
       </c>
       <c r="D204">
-        <v>0.4775</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3529,13 +3529,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.8885999999999999</v>
+        <v>0.8794999999999999</v>
       </c>
       <c r="C205">
-        <v>0.4116</v>
+        <v>0.4337</v>
       </c>
       <c r="D205">
-        <v>0.477</v>
+        <v>0.4458</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3543,13 +3543,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.8966</v>
+        <v>0.8884</v>
       </c>
       <c r="C206">
-        <v>0.4206</v>
+        <v>0.4432</v>
       </c>
       <c r="D206">
-        <v>0.476</v>
+        <v>0.4451</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3557,13 +3557,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.9025</v>
+        <v>0.8948</v>
       </c>
       <c r="C207">
-        <v>0.427</v>
+        <v>0.45</v>
       </c>
       <c r="D207">
-        <v>0.4755</v>
+        <v>0.4448</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3571,13 +3571,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.9095</v>
+        <v>0.9022</v>
       </c>
       <c r="C208">
-        <v>0.4336</v>
+        <v>0.457</v>
       </c>
       <c r="D208">
-        <v>0.4759</v>
+        <v>0.4451</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3585,13 +3585,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.9124</v>
+        <v>0.9054</v>
       </c>
       <c r="C209">
-        <v>0.437</v>
+        <v>0.4606</v>
       </c>
       <c r="D209">
-        <v>0.4754</v>
+        <v>0.4448</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3599,13 +3599,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.9077</v>
+        <v>0.9011</v>
       </c>
       <c r="C210">
-        <v>0.4352</v>
+        <v>0.4587</v>
       </c>
       <c r="D210">
-        <v>0.4725</v>
+        <v>0.4425</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3613,13 +3613,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.9065</v>
+        <v>0.9009</v>
       </c>
       <c r="C211">
-        <v>0.4371</v>
+        <v>0.4607</v>
       </c>
       <c r="D211">
-        <v>0.4694</v>
+        <v>0.4402</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3627,13 +3627,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.9044</v>
+        <v>0.8997000000000001</v>
       </c>
       <c r="C212">
-        <v>0.4382</v>
+        <v>0.4617</v>
       </c>
       <c r="D212">
-        <v>0.4662</v>
+        <v>0.438</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3641,13 +3641,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.9009</v>
+        <v>0.8972</v>
       </c>
       <c r="C213">
-        <v>0.4378</v>
+        <v>0.4613</v>
       </c>
       <c r="D213">
-        <v>0.4631</v>
+        <v>0.4359</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3655,13 +3655,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.8961</v>
+        <v>0.8935999999999999</v>
       </c>
       <c r="C214">
-        <v>0.4367</v>
+        <v>0.4601</v>
       </c>
       <c r="D214">
-        <v>0.4594</v>
+        <v>0.4334</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3669,13 +3669,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.885</v>
+        <v>0.8832</v>
       </c>
       <c r="C215">
-        <v>0.4294</v>
+        <v>0.4523</v>
       </c>
       <c r="D215">
-        <v>0.4556</v>
+        <v>0.4308</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3683,13 +3683,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.874</v>
+        <v>0.8738</v>
       </c>
       <c r="C216">
-        <v>0.4245</v>
+        <v>0.4471</v>
       </c>
       <c r="D216">
-        <v>0.4495</v>
+        <v>0.4266</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3697,13 +3697,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.8652</v>
+        <v>0.8667</v>
       </c>
       <c r="C217">
-        <v>0.4217</v>
+        <v>0.4441</v>
       </c>
       <c r="D217">
-        <v>0.4435</v>
+        <v>0.4226</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3711,13 +3711,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.8496</v>
+        <v>0.8526</v>
       </c>
       <c r="C218">
-        <v>0.4127</v>
+        <v>0.4346</v>
       </c>
       <c r="D218">
-        <v>0.4369</v>
+        <v>0.4181</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3725,13 +3725,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.8421999999999999</v>
+        <v>0.8472</v>
       </c>
       <c r="C219">
-        <v>0.411</v>
+        <v>0.4327</v>
       </c>
       <c r="D219">
-        <v>0.4312</v>
+        <v>0.4145</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3739,13 +3739,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.8290999999999999</v>
+        <v>0.836</v>
       </c>
       <c r="C220">
-        <v>0.4041</v>
+        <v>0.4254</v>
       </c>
       <c r="D220">
-        <v>0.4251</v>
+        <v>0.4106</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3753,13 +3753,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.8169999999999999</v>
+        <v>0.8253</v>
       </c>
       <c r="C221">
-        <v>0.3966</v>
+        <v>0.4175</v>
       </c>
       <c r="D221">
-        <v>0.4204</v>
+        <v>0.4078</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3767,13 +3767,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.8093</v>
+        <v>0.8183</v>
       </c>
       <c r="C222">
-        <v>0.3902</v>
+        <v>0.4106</v>
       </c>
       <c r="D222">
-        <v>0.4191</v>
+        <v>0.4076</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3781,13 +3781,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.8072</v>
+        <v>0.8174</v>
       </c>
       <c r="C223">
-        <v>0.3893</v>
+        <v>0.4097</v>
       </c>
       <c r="D223">
-        <v>0.4179</v>
+        <v>0.4077</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3795,13 +3795,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.7985</v>
+        <v>0.8095</v>
       </c>
       <c r="C224">
-        <v>0.3823</v>
+        <v>0.4023</v>
       </c>
       <c r="D224">
-        <v>0.4162</v>
+        <v>0.4072</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3809,13 +3809,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.791</v>
+        <v>0.8028</v>
       </c>
       <c r="C225">
-        <v>0.3761</v>
+        <v>0.3957</v>
       </c>
       <c r="D225">
-        <v>0.4148</v>
+        <v>0.4071</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3823,13 +3823,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.7796</v>
+        <v>0.7917</v>
       </c>
       <c r="C226">
-        <v>0.3656</v>
+        <v>0.3845</v>
       </c>
       <c r="D226">
-        <v>0.414</v>
+        <v>0.4072</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3837,13 +3837,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.7741</v>
+        <v>0.7871</v>
       </c>
       <c r="C227">
-        <v>0.3614</v>
+        <v>0.3801</v>
       </c>
       <c r="D227">
-        <v>0.4127</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3851,13 +3851,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.7664</v>
+        <v>0.7805</v>
       </c>
       <c r="C228">
-        <v>0.3565</v>
+        <v>0.3749</v>
       </c>
       <c r="D228">
-        <v>0.4099</v>
+        <v>0.4056</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3865,13 +3865,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.7575</v>
+        <v>0.7723</v>
       </c>
       <c r="C229">
-        <v>0.3498</v>
+        <v>0.3678</v>
       </c>
       <c r="D229">
-        <v>0.4077</v>
+        <v>0.4045</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3879,13 +3879,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.7536</v>
+        <v>0.7697000000000001</v>
       </c>
       <c r="C230">
-        <v>0.3486</v>
+        <v>0.3666</v>
       </c>
       <c r="D230">
-        <v>0.405</v>
+        <v>0.4031</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3893,13 +3893,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.7451</v>
+        <v>0.762</v>
       </c>
       <c r="C231">
-        <v>0.3429</v>
+        <v>0.3605</v>
       </c>
       <c r="D231">
-        <v>0.4023</v>
+        <v>0.4015</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3907,13 +3907,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.7372</v>
+        <v>0.7546</v>
       </c>
       <c r="C232">
-        <v>0.3371</v>
+        <v>0.3544</v>
       </c>
       <c r="D232">
-        <v>0.4001</v>
+        <v>0.4002</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3921,13 +3921,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.7311</v>
+        <v>0.7489</v>
       </c>
       <c r="C233">
-        <v>0.3331</v>
+        <v>0.3502</v>
       </c>
       <c r="D233">
-        <v>0.398</v>
+        <v>0.3987</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3935,13 +3935,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.7268</v>
+        <v>0.7451</v>
       </c>
       <c r="C234">
-        <v>0.3308</v>
+        <v>0.3478</v>
       </c>
       <c r="D234">
-        <v>0.3961</v>
+        <v>0.3974</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3949,13 +3949,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.7215</v>
+        <v>0.7398</v>
       </c>
       <c r="C235">
-        <v>0.327</v>
+        <v>0.3438</v>
       </c>
       <c r="D235">
-        <v>0.3944</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3963,13 +3963,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.719</v>
+        <v>0.7374000000000001</v>
       </c>
       <c r="C236">
-        <v>0.3257</v>
+        <v>0.3424</v>
       </c>
       <c r="D236">
-        <v>0.3933</v>
+        <v>0.395</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3977,13 +3977,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.7169</v>
+        <v>0.7351</v>
       </c>
       <c r="C237">
-        <v>0.3241</v>
+        <v>0.3407</v>
       </c>
       <c r="D237">
-        <v>0.3928</v>
+        <v>0.3943</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3991,13 +3991,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.7156</v>
+        <v>0.7333</v>
       </c>
       <c r="C238">
-        <v>0.3231</v>
+        <v>0.3397</v>
       </c>
       <c r="D238">
-        <v>0.3924</v>
+        <v>0.3937</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4005,13 +4005,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.7074</v>
+        <v>0.7241</v>
       </c>
       <c r="C239">
-        <v>0.3153</v>
+        <v>0.3313</v>
       </c>
       <c r="D239">
-        <v>0.3921</v>
+        <v>0.3927</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4019,13 +4019,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.7050999999999999</v>
+        <v>0.721</v>
       </c>
       <c r="C240">
-        <v>0.3132</v>
+        <v>0.3291</v>
       </c>
       <c r="D240">
-        <v>0.3919</v>
+        <v>0.392</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4033,13 +4033,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.7028</v>
+        <v>0.7181999999999999</v>
       </c>
       <c r="C241">
-        <v>0.3121</v>
+        <v>0.3278</v>
       </c>
       <c r="D241">
-        <v>0.3908</v>
+        <v>0.3904</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4047,13 +4047,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.7002</v>
+        <v>0.7159</v>
       </c>
       <c r="C242">
-        <v>0.3133</v>
+        <v>0.3291</v>
       </c>
       <c r="D242">
-        <v>0.3869</v>
+        <v>0.3867</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4061,13 +4061,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.6935</v>
+        <v>0.7083</v>
       </c>
       <c r="C243">
-        <v>0.3083</v>
+        <v>0.3239</v>
       </c>
       <c r="D243">
-        <v>0.3851</v>
+        <v>0.3845</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4075,13 +4075,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.6909</v>
+        <v>0.7043</v>
       </c>
       <c r="C244">
-        <v>0.3049</v>
+        <v>0.3202</v>
       </c>
       <c r="D244">
-        <v>0.386</v>
+        <v>0.3842</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4089,13 +4089,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.6820000000000001</v>
+        <v>0.6938</v>
       </c>
       <c r="C245">
-        <v>0.296</v>
+        <v>0.3107</v>
       </c>
       <c r="D245">
-        <v>0.3861</v>
+        <v>0.3831</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4103,13 +4103,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.6791</v>
+        <v>0.6895</v>
       </c>
       <c r="C246">
-        <v>0.2927</v>
+        <v>0.3073</v>
       </c>
       <c r="D246">
-        <v>0.3864</v>
+        <v>0.3822</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4117,13 +4117,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.674</v>
+        <v>0.6825</v>
       </c>
       <c r="C247">
-        <v>0.2865</v>
+        <v>0.3006</v>
       </c>
       <c r="D247">
-        <v>0.3875</v>
+        <v>0.3819</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4131,13 +4131,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.6689000000000001</v>
+        <v>0.6754</v>
       </c>
       <c r="C248">
-        <v>0.2801</v>
+        <v>0.2938</v>
       </c>
       <c r="D248">
-        <v>0.3888</v>
+        <v>0.3816</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4145,13 +4145,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.6639</v>
+        <v>0.6684</v>
       </c>
       <c r="C249">
-        <v>0.2739</v>
+        <v>0.2872</v>
       </c>
       <c r="D249">
-        <v>0.39</v>
+        <v>0.3812</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4159,13 +4159,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.6586</v>
+        <v>0.661</v>
       </c>
       <c r="C250">
-        <v>0.2674</v>
+        <v>0.2803</v>
       </c>
       <c r="D250">
-        <v>0.3912</v>
+        <v>0.3807</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4173,13 +4173,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.6536</v>
+        <v>0.6536999999999999</v>
       </c>
       <c r="C251">
-        <v>0.2607</v>
+        <v>0.2731</v>
       </c>
       <c r="D251">
-        <v>0.3929</v>
+        <v>0.3806</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4187,13 +4187,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>0.6484</v>
+        <v>0.6459</v>
       </c>
       <c r="C252">
-        <v>0.2531</v>
+        <v>0.265</v>
       </c>
       <c r="D252">
-        <v>0.3953</v>
+        <v>0.3809</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2008 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2008 - Diaria.xlsx
@@ -1216,10 +1216,10 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.2712</v>
+        <v>0.2713</v>
       </c>
       <c r="C7">
-        <v>0.2712</v>
+        <v>0.2713</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1238,10 +1238,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.267</v>
+        <v>0.2671</v>
       </c>
       <c r="C9">
-        <v>0.267</v>
+        <v>0.2671</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1249,10 +1249,10 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.2595</v>
+        <v>0.2596</v>
       </c>
       <c r="C10">
-        <v>0.2595</v>
+        <v>0.2596</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1260,10 +1260,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.2644</v>
+        <v>0.2645</v>
       </c>
       <c r="C11">
-        <v>0.2644</v>
+        <v>0.2645</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1282,10 +1282,10 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.27</v>
+        <v>0.2701</v>
       </c>
       <c r="C13">
-        <v>0.27</v>
+        <v>0.2701</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1293,10 +1293,10 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.2636</v>
+        <v>0.2637</v>
       </c>
       <c r="C14">
-        <v>0.2636</v>
+        <v>0.2637</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1304,10 +1304,10 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.2636</v>
+        <v>0.2637</v>
       </c>
       <c r="C15">
-        <v>0.2636</v>
+        <v>0.2637</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1315,10 +1315,10 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.267</v>
+        <v>0.2671</v>
       </c>
       <c r="C16">
-        <v>0.267</v>
+        <v>0.2671</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1326,10 +1326,10 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.2685</v>
+        <v>0.2686</v>
       </c>
       <c r="C17">
-        <v>0.2685</v>
+        <v>0.2686</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1348,10 +1348,10 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.2671</v>
+        <v>0.2672</v>
       </c>
       <c r="C19">
-        <v>0.2671</v>
+        <v>0.2672</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1359,10 +1359,10 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.2815</v>
+        <v>0.2816</v>
       </c>
       <c r="C20">
-        <v>0.2815</v>
+        <v>0.2816</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1392,10 +1392,10 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.2782</v>
+        <v>0.2783</v>
       </c>
       <c r="C23">
-        <v>0.2782</v>
+        <v>0.2783</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1403,10 +1403,10 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.2797</v>
+        <v>0.2798</v>
       </c>
       <c r="C24">
-        <v>0.2797</v>
+        <v>0.2798</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1436,10 +1436,10 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.291</v>
+        <v>0.2911</v>
       </c>
       <c r="C27">
-        <v>0.291</v>
+        <v>0.2911</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1447,10 +1447,10 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.2908</v>
+        <v>0.2909</v>
       </c>
       <c r="C28">
-        <v>0.2908</v>
+        <v>0.2909</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1480,10 +1480,10 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.2908</v>
+        <v>0.2909</v>
       </c>
       <c r="C31">
-        <v>0.2908</v>
+        <v>0.2909</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1502,10 +1502,10 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.2979</v>
+        <v>0.298</v>
       </c>
       <c r="C33">
-        <v>0.2979</v>
+        <v>0.298</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1513,10 +1513,10 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.3014</v>
+        <v>0.3015</v>
       </c>
       <c r="C34">
-        <v>0.3014</v>
+        <v>0.3015</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1546,10 +1546,10 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.2916</v>
+        <v>0.2917</v>
       </c>
       <c r="C37">
-        <v>0.2916</v>
+        <v>0.2917</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1557,10 +1557,10 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.3008</v>
+        <v>0.3009</v>
       </c>
       <c r="C38">
-        <v>0.3008</v>
+        <v>0.3009</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1568,10 +1568,10 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.292</v>
+        <v>0.2921</v>
       </c>
       <c r="C39">
-        <v>0.292</v>
+        <v>0.2921</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1590,10 +1590,10 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.2734</v>
+        <v>0.2735</v>
       </c>
       <c r="C41">
-        <v>0.2734</v>
+        <v>0.2735</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1601,10 +1601,10 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.2691</v>
+        <v>0.2692</v>
       </c>
       <c r="C42">
-        <v>0.2691</v>
+        <v>0.2692</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1623,10 +1623,10 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.2601</v>
+        <v>0.2602</v>
       </c>
       <c r="C44">
-        <v>0.2601</v>
+        <v>0.2602</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1645,10 +1645,10 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.2453</v>
+        <v>0.2454</v>
       </c>
       <c r="C46">
-        <v>0.2453</v>
+        <v>0.2454</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1656,10 +1656,10 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.2434</v>
+        <v>0.2435</v>
       </c>
       <c r="C47">
-        <v>0.2434</v>
+        <v>0.2435</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1667,10 +1667,10 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.2395</v>
+        <v>0.2396</v>
       </c>
       <c r="C48">
-        <v>0.2395</v>
+        <v>0.2396</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1678,10 +1678,10 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.2505</v>
+        <v>0.2506</v>
       </c>
       <c r="C49">
-        <v>0.2505</v>
+        <v>0.2506</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1689,10 +1689,10 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.2473</v>
+        <v>0.2474</v>
       </c>
       <c r="C50">
-        <v>0.2473</v>
+        <v>0.2474</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1700,10 +1700,10 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.2508</v>
+        <v>0.2509</v>
       </c>
       <c r="C51">
-        <v>0.2508</v>
+        <v>0.2509</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1711,10 +1711,10 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.25</v>
+        <v>0.2501</v>
       </c>
       <c r="C52">
-        <v>0.25</v>
+        <v>0.2501</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1722,10 +1722,10 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.2493</v>
+        <v>0.2494</v>
       </c>
       <c r="C53">
-        <v>0.2493</v>
+        <v>0.2494</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1733,10 +1733,10 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.2504</v>
+        <v>0.2505</v>
       </c>
       <c r="C54">
-        <v>0.2504</v>
+        <v>0.2505</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1744,10 +1744,10 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.2636</v>
+        <v>0.2637</v>
       </c>
       <c r="C55">
-        <v>0.2636</v>
+        <v>0.2637</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1766,10 +1766,10 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.2674</v>
+        <v>0.2675</v>
       </c>
       <c r="C57">
-        <v>0.2674</v>
+        <v>0.2675</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1788,10 +1788,10 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.2774</v>
+        <v>0.2775</v>
       </c>
       <c r="C59">
-        <v>0.2774</v>
+        <v>0.2775</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1832,10 +1832,10 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3397</v>
+        <v>0.3396</v>
       </c>
       <c r="C63">
-        <v>0.3397</v>
+        <v>0.3396</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1843,10 +1843,10 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.3604</v>
+        <v>0.3603</v>
       </c>
       <c r="C64">
-        <v>0.3604</v>
+        <v>0.3603</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1854,10 +1854,10 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.3857</v>
+        <v>0.3856</v>
       </c>
       <c r="C65">
-        <v>0.3857</v>
+        <v>0.3856</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1865,10 +1865,10 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.4055</v>
+        <v>0.4054</v>
       </c>
       <c r="C66">
-        <v>0.4055</v>
+        <v>0.4054</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1876,10 +1876,10 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.4202</v>
+        <v>0.42</v>
       </c>
       <c r="C67">
-        <v>0.4202</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1887,10 +1887,10 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.4431</v>
+        <v>0.4429</v>
       </c>
       <c r="C68">
-        <v>0.4431</v>
+        <v>0.4429</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1898,10 +1898,10 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.4491</v>
+        <v>0.4489</v>
       </c>
       <c r="C69">
-        <v>0.4491</v>
+        <v>0.4489</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1909,10 +1909,10 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.4586</v>
+        <v>0.4584</v>
       </c>
       <c r="C70">
-        <v>0.4586</v>
+        <v>0.4584</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1920,10 +1920,10 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.4671</v>
+        <v>0.4668</v>
       </c>
       <c r="C71">
-        <v>0.4671</v>
+        <v>0.4668</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1931,10 +1931,10 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.4689</v>
+        <v>0.4687</v>
       </c>
       <c r="C72">
-        <v>0.4689</v>
+        <v>0.4687</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1942,10 +1942,10 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.4771</v>
+        <v>0.4769</v>
       </c>
       <c r="C73">
-        <v>0.4771</v>
+        <v>0.4769</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1953,10 +1953,10 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.4941</v>
+        <v>0.4938</v>
       </c>
       <c r="C74">
-        <v>0.4941</v>
+        <v>0.4938</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1964,10 +1964,10 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.4919</v>
+        <v>0.4916</v>
       </c>
       <c r="C75">
-        <v>0.4919</v>
+        <v>0.4916</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1975,10 +1975,10 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.5096000000000001</v>
+        <v>0.5093</v>
       </c>
       <c r="C76">
-        <v>0.5096000000000001</v>
+        <v>0.5093</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1986,10 +1986,10 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.5266999999999999</v>
+        <v>0.5264</v>
       </c>
       <c r="C77">
-        <v>0.5266999999999999</v>
+        <v>0.5264</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1997,10 +1997,10 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.5283</v>
+        <v>0.528</v>
       </c>
       <c r="C78">
-        <v>0.5283</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2008,10 +2008,10 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.5275</v>
+        <v>0.5272</v>
       </c>
       <c r="C79">
-        <v>0.5275</v>
+        <v>0.5272</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2019,10 +2019,10 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.542</v>
+        <v>0.5417</v>
       </c>
       <c r="C80">
-        <v>0.542</v>
+        <v>0.5417</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2030,10 +2030,10 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.5485</v>
+        <v>0.5482</v>
       </c>
       <c r="C81">
-        <v>0.5485</v>
+        <v>0.5482</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2041,10 +2041,10 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.5533</v>
+        <v>0.553</v>
       </c>
       <c r="C82">
-        <v>0.5533</v>
+        <v>0.553</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2052,10 +2052,10 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.5449000000000001</v>
+        <v>0.5446</v>
       </c>
       <c r="C83">
-        <v>0.5449000000000001</v>
+        <v>0.5446</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2063,10 +2063,10 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.5377</v>
+        <v>0.5374</v>
       </c>
       <c r="C84">
-        <v>0.5377</v>
+        <v>0.5374</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2074,10 +2074,10 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.5163</v>
+        <v>0.516</v>
       </c>
       <c r="C85">
-        <v>0.5163</v>
+        <v>0.516</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2085,10 +2085,10 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.5135999999999999</v>
+        <v>0.5133</v>
       </c>
       <c r="C86">
-        <v>0.5135999999999999</v>
+        <v>0.5133</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2096,10 +2096,10 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.5056</v>
+        <v>0.5054</v>
       </c>
       <c r="C87">
-        <v>0.5056</v>
+        <v>0.5054</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2107,10 +2107,10 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.4994</v>
+        <v>0.4992</v>
       </c>
       <c r="C88">
-        <v>0.4994</v>
+        <v>0.4992</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2118,10 +2118,10 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.4925</v>
+        <v>0.4923</v>
       </c>
       <c r="C89">
-        <v>0.4925</v>
+        <v>0.4923</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2129,10 +2129,10 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.4877</v>
+        <v>0.4875</v>
       </c>
       <c r="C90">
-        <v>0.4877</v>
+        <v>0.4875</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2140,10 +2140,10 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.4823</v>
+        <v>0.4821</v>
       </c>
       <c r="C91">
-        <v>0.4823</v>
+        <v>0.4821</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2151,10 +2151,10 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.5003</v>
+        <v>0.5</v>
       </c>
       <c r="C92">
-        <v>0.5003</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2162,10 +2162,10 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.4943</v>
+        <v>0.4941</v>
       </c>
       <c r="C93">
-        <v>0.4943</v>
+        <v>0.4941</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2173,10 +2173,10 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.477</v>
+        <v>0.4767</v>
       </c>
       <c r="C94">
-        <v>0.477</v>
+        <v>0.4767</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2184,10 +2184,10 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.4694</v>
+        <v>0.4691</v>
       </c>
       <c r="C95">
-        <v>0.4694</v>
+        <v>0.4691</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2195,10 +2195,10 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.4488</v>
+        <v>0.4485</v>
       </c>
       <c r="C96">
-        <v>0.4488</v>
+        <v>0.4485</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2206,10 +2206,10 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.4321</v>
+        <v>0.4319</v>
       </c>
       <c r="C97">
-        <v>0.4321</v>
+        <v>0.4319</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2217,10 +2217,10 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.423</v>
+        <v>0.4228</v>
       </c>
       <c r="C98">
-        <v>0.423</v>
+        <v>0.4228</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2228,10 +2228,10 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.4209</v>
+        <v>0.4207</v>
       </c>
       <c r="C99">
-        <v>0.4209</v>
+        <v>0.4207</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2239,10 +2239,10 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.4019</v>
+        <v>0.4017</v>
       </c>
       <c r="C100">
-        <v>0.4019</v>
+        <v>0.4017</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2250,10 +2250,10 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.3977</v>
+        <v>0.3975</v>
       </c>
       <c r="C101">
-        <v>0.3977</v>
+        <v>0.3975</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2261,10 +2261,10 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.3847</v>
+        <v>0.3846</v>
       </c>
       <c r="C102">
-        <v>0.3847</v>
+        <v>0.3846</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2272,10 +2272,10 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.3669</v>
+        <v>0.3668</v>
       </c>
       <c r="C103">
-        <v>0.3669</v>
+        <v>0.3668</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2283,10 +2283,10 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.3592</v>
+        <v>0.3591</v>
       </c>
       <c r="C104">
-        <v>0.3592</v>
+        <v>0.3591</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2294,10 +2294,10 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.3569</v>
+        <v>0.3568</v>
       </c>
       <c r="C105">
-        <v>0.3569</v>
+        <v>0.3568</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2305,10 +2305,10 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.3453</v>
+        <v>0.3452</v>
       </c>
       <c r="C106">
-        <v>0.3453</v>
+        <v>0.3452</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2316,10 +2316,10 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.3435</v>
+        <v>0.3434</v>
       </c>
       <c r="C107">
-        <v>0.3435</v>
+        <v>0.3434</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2327,10 +2327,10 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.3346</v>
+        <v>0.3345</v>
       </c>
       <c r="C108">
-        <v>0.3346</v>
+        <v>0.3345</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2382,10 +2382,10 @@
         <v>115</v>
       </c>
       <c r="B113">
-        <v>0.3113</v>
+        <v>0.3112</v>
       </c>
       <c r="C113">
-        <v>0.3113</v>
+        <v>0.3112</v>
       </c>
     </row>
     <row r="114" spans="1:3">
@@ -2404,10 +2404,10 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.3152</v>
+        <v>0.3153</v>
       </c>
       <c r="C115">
-        <v>0.3152</v>
+        <v>0.3153</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2448,10 +2448,10 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.34</v>
+        <v>0.3401</v>
       </c>
       <c r="C119">
-        <v>0.34</v>
+        <v>0.3401</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2536,10 +2536,10 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.3906</v>
+        <v>0.3905</v>
       </c>
       <c r="C127">
-        <v>0.3906</v>
+        <v>0.3905</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2558,10 +2558,10 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.4116</v>
+        <v>0.4115</v>
       </c>
       <c r="C129">
-        <v>0.4116</v>
+        <v>0.4115</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2569,10 +2569,10 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.4122</v>
+        <v>0.4121</v>
       </c>
       <c r="C130">
-        <v>0.4122</v>
+        <v>0.4121</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2580,10 +2580,10 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.4208</v>
+        <v>0.4207</v>
       </c>
       <c r="C131">
-        <v>0.4208</v>
+        <v>0.4207</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2591,10 +2591,10 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.4329</v>
+        <v>0.4328</v>
       </c>
       <c r="C132">
-        <v>0.4329</v>
+        <v>0.4328</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2602,10 +2602,10 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.4406</v>
+        <v>0.4404</v>
       </c>
       <c r="C133">
-        <v>0.4406</v>
+        <v>0.4404</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2613,10 +2613,10 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.446</v>
+        <v>0.4458</v>
       </c>
       <c r="C134">
-        <v>0.446</v>
+        <v>0.4458</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2624,10 +2624,10 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.4517</v>
+        <v>0.4514</v>
       </c>
       <c r="C135">
-        <v>0.4517</v>
+        <v>0.4514</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2635,10 +2635,10 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.446</v>
+        <v>0.4457</v>
       </c>
       <c r="C136">
-        <v>0.446</v>
+        <v>0.4457</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2646,10 +2646,10 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.454</v>
+        <v>0.4537</v>
       </c>
       <c r="C137">
-        <v>0.454</v>
+        <v>0.4537</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2657,10 +2657,10 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.4637</v>
+        <v>0.4634</v>
       </c>
       <c r="C138">
-        <v>0.4637</v>
+        <v>0.4634</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2668,10 +2668,10 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.4578</v>
+        <v>0.4575</v>
       </c>
       <c r="C139">
-        <v>0.4578</v>
+        <v>0.4575</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2679,10 +2679,10 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.4669</v>
+        <v>0.4666</v>
       </c>
       <c r="C140">
-        <v>0.4669</v>
+        <v>0.4666</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2690,10 +2690,10 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.45</v>
+        <v>0.4497</v>
       </c>
       <c r="C141">
-        <v>0.45</v>
+        <v>0.4497</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2701,10 +2701,10 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.4403</v>
+        <v>0.44</v>
       </c>
       <c r="C142">
-        <v>0.4403</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2712,10 +2712,10 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.4248</v>
+        <v>0.4246</v>
       </c>
       <c r="C143">
-        <v>0.4248</v>
+        <v>0.4246</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2723,10 +2723,10 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.4188</v>
+        <v>0.4185</v>
       </c>
       <c r="C144">
-        <v>0.4188</v>
+        <v>0.4185</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2734,10 +2734,10 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.4101</v>
+        <v>0.4098</v>
       </c>
       <c r="C145">
-        <v>0.4101</v>
+        <v>0.4098</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2745,10 +2745,10 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.3998</v>
+        <v>0.3995</v>
       </c>
       <c r="C146">
-        <v>0.3998</v>
+        <v>0.3995</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2756,10 +2756,10 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.386</v>
+        <v>0.3858</v>
       </c>
       <c r="C147">
-        <v>0.386</v>
+        <v>0.3858</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2767,10 +2767,10 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.3628</v>
+        <v>0.3625</v>
       </c>
       <c r="C148">
-        <v>0.3628</v>
+        <v>0.3625</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2778,10 +2778,10 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.3498</v>
+        <v>0.3496</v>
       </c>
       <c r="C149">
-        <v>0.3498</v>
+        <v>0.3496</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2789,10 +2789,10 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.3432</v>
+        <v>0.343</v>
       </c>
       <c r="C150">
-        <v>0.3432</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2800,10 +2800,10 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.3286</v>
+        <v>0.3284</v>
       </c>
       <c r="C151">
-        <v>0.3286</v>
+        <v>0.3284</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2811,10 +2811,10 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.3087</v>
+        <v>0.3086</v>
       </c>
       <c r="C152">
-        <v>0.3087</v>
+        <v>0.3086</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2822,10 +2822,10 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.2959</v>
+        <v>0.2958</v>
       </c>
       <c r="C153">
-        <v>0.2959</v>
+        <v>0.2958</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2833,10 +2833,10 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.2879</v>
+        <v>0.2877</v>
       </c>
       <c r="C154">
-        <v>0.2879</v>
+        <v>0.2877</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2844,10 +2844,10 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.2746</v>
+        <v>0.2745</v>
       </c>
       <c r="C155">
-        <v>0.2746</v>
+        <v>0.2745</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2855,10 +2855,10 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.2612</v>
+        <v>0.2611</v>
       </c>
       <c r="C156">
-        <v>0.2612</v>
+        <v>0.2611</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2866,10 +2866,10 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.2468</v>
+        <v>0.2467</v>
       </c>
       <c r="C157">
-        <v>0.2468</v>
+        <v>0.2467</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2877,10 +2877,10 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.231</v>
+        <v>0.2309</v>
       </c>
       <c r="C158">
-        <v>0.231</v>
+        <v>0.2309</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2888,10 +2888,10 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.2246</v>
+        <v>0.2245</v>
       </c>
       <c r="C159">
-        <v>0.2246</v>
+        <v>0.2245</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2899,13 +2899,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.6274999999999999</v>
+        <v>0.6291</v>
       </c>
       <c r="C160">
         <v>0.2046</v>
       </c>
       <c r="D160">
-        <v>0.4229</v>
+        <v>0.4245</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2913,13 +2913,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.6181</v>
+        <v>0.6198</v>
       </c>
       <c r="C161">
         <v>0.205</v>
       </c>
       <c r="D161">
-        <v>0.4131</v>
+        <v>0.4148</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2927,13 +2927,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.6114000000000001</v>
+        <v>0.6132</v>
       </c>
       <c r="C162">
         <v>0.2074</v>
       </c>
       <c r="D162">
-        <v>0.404</v>
+        <v>0.4058</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2941,13 +2941,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.6104000000000001</v>
+        <v>0.6122</v>
       </c>
       <c r="C163">
         <v>0.2137</v>
       </c>
       <c r="D163">
-        <v>0.3967</v>
+        <v>0.3985</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2955,13 +2955,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.6057</v>
+        <v>0.6075</v>
       </c>
       <c r="C164">
         <v>0.2157</v>
       </c>
       <c r="D164">
-        <v>0.3899</v>
+        <v>0.3918</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2969,13 +2969,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.5964</v>
+        <v>0.5982</v>
       </c>
       <c r="C165">
         <v>0.213</v>
       </c>
       <c r="D165">
-        <v>0.3834</v>
+        <v>0.3852</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2983,13 +2983,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.5925</v>
+        <v>0.5942</v>
       </c>
       <c r="C166">
         <v>0.2145</v>
       </c>
       <c r="D166">
-        <v>0.378</v>
+        <v>0.3797</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2997,13 +2997,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.5872000000000001</v>
+        <v>0.5889</v>
       </c>
       <c r="C167">
-        <v>0.2142</v>
+        <v>0.2141</v>
       </c>
       <c r="D167">
-        <v>0.3731</v>
+        <v>0.3748</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3011,13 +3011,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.5844</v>
+        <v>0.586</v>
       </c>
       <c r="C168">
-        <v>0.2155</v>
+        <v>0.2154</v>
       </c>
       <c r="D168">
-        <v>0.369</v>
+        <v>0.3706</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3025,13 +3025,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.5810999999999999</v>
+        <v>0.5826</v>
       </c>
       <c r="C169">
-        <v>0.2156</v>
+        <v>0.2155</v>
       </c>
       <c r="D169">
-        <v>0.3655</v>
+        <v>0.3671</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3039,13 +3039,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.5762</v>
+        <v>0.5776</v>
       </c>
       <c r="C170">
         <v>0.2136</v>
       </c>
       <c r="D170">
-        <v>0.3626</v>
+        <v>0.3641</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3053,13 +3053,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.5769</v>
+        <v>0.5783</v>
       </c>
       <c r="C171">
-        <v>0.2164</v>
+        <v>0.2163</v>
       </c>
       <c r="D171">
-        <v>0.3606</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3067,13 +3067,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.581</v>
+        <v>0.5822000000000001</v>
       </c>
       <c r="C172">
         <v>0.2203</v>
       </c>
       <c r="D172">
-        <v>0.3607</v>
+        <v>0.3619</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3081,13 +3081,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.5843</v>
+        <v>0.5854</v>
       </c>
       <c r="C173">
         <v>0.2244</v>
       </c>
       <c r="D173">
-        <v>0.3599</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3095,13 +3095,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.5913</v>
+        <v>0.5921999999999999</v>
       </c>
       <c r="C174">
-        <v>0.2298</v>
+        <v>0.2297</v>
       </c>
       <c r="D174">
-        <v>0.3615</v>
+        <v>0.3624</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3109,13 +3109,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.593</v>
+        <v>0.5938</v>
       </c>
       <c r="C175">
-        <v>0.2303</v>
+        <v>0.2302</v>
       </c>
       <c r="D175">
-        <v>0.3627</v>
+        <v>0.3636</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3123,13 +3123,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.5984</v>
+        <v>0.5991</v>
       </c>
       <c r="C176">
-        <v>0.2343</v>
+        <v>0.2342</v>
       </c>
       <c r="D176">
-        <v>0.3641</v>
+        <v>0.3649</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3137,13 +3137,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.607</v>
+        <v>0.6076</v>
       </c>
       <c r="C177">
-        <v>0.2408</v>
+        <v>0.2407</v>
       </c>
       <c r="D177">
-        <v>0.3662</v>
+        <v>0.3669</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3151,13 +3151,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.6169</v>
+        <v>0.6173999999999999</v>
       </c>
       <c r="C178">
         <v>0.2478</v>
       </c>
       <c r="D178">
-        <v>0.369</v>
+        <v>0.3696</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3165,13 +3165,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.6205000000000001</v>
+        <v>0.6209</v>
       </c>
       <c r="C179">
-        <v>0.2482</v>
+        <v>0.2481</v>
       </c>
       <c r="D179">
-        <v>0.3723</v>
+        <v>0.3728</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3179,13 +3179,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.6279</v>
+        <v>0.6282</v>
       </c>
       <c r="C180">
-        <v>0.2514</v>
+        <v>0.2513</v>
       </c>
       <c r="D180">
-        <v>0.3765</v>
+        <v>0.3769</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3193,13 +3193,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.6343</v>
+        <v>0.6345</v>
       </c>
       <c r="C181">
-        <v>0.2532</v>
+        <v>0.2531</v>
       </c>
       <c r="D181">
-        <v>0.3811</v>
+        <v>0.3814</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3210,10 +3210,10 @@
         <v>0.6413</v>
       </c>
       <c r="C182">
-        <v>0.2544</v>
+        <v>0.2543</v>
       </c>
       <c r="D182">
-        <v>0.3868</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3224,10 +3224,10 @@
         <v>0.6422</v>
       </c>
       <c r="C183">
-        <v>0.251</v>
+        <v>0.2509</v>
       </c>
       <c r="D183">
-        <v>0.3912</v>
+        <v>0.3913</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3235,10 +3235,10 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.6484</v>
+        <v>0.6483</v>
       </c>
       <c r="C184">
-        <v>0.2529</v>
+        <v>0.2528</v>
       </c>
       <c r="D184">
         <v>0.3955</v>
@@ -3249,10 +3249,10 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.6581</v>
+        <v>0.658</v>
       </c>
       <c r="C185">
-        <v>0.2584</v>
+        <v>0.2583</v>
       </c>
       <c r="D185">
         <v>0.3997</v>
@@ -3263,10 +3263,10 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.6651</v>
+        <v>0.665</v>
       </c>
       <c r="C186">
-        <v>0.2618</v>
+        <v>0.2617</v>
       </c>
       <c r="D186">
         <v>0.4033</v>
@@ -3277,10 +3277,10 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.6746</v>
+        <v>0.6745</v>
       </c>
       <c r="C187">
-        <v>0.2676</v>
+        <v>0.2675</v>
       </c>
       <c r="D187">
         <v>0.407</v>
@@ -3291,10 +3291,10 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.6823</v>
+        <v>0.6821</v>
       </c>
       <c r="C188">
-        <v>0.2713</v>
+        <v>0.2712</v>
       </c>
       <c r="D188">
         <v>0.4109</v>
@@ -3305,10 +3305,10 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.6944</v>
+        <v>0.6942</v>
       </c>
       <c r="C189">
-        <v>0.2795</v>
+        <v>0.2793</v>
       </c>
       <c r="D189">
         <v>0.4149</v>
@@ -3319,13 +3319,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.7112000000000001</v>
+        <v>0.711</v>
       </c>
       <c r="C190">
-        <v>0.2902</v>
+        <v>0.29</v>
       </c>
       <c r="D190">
-        <v>0.4211</v>
+        <v>0.4209</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3333,13 +3333,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.7241</v>
+        <v>0.7238</v>
       </c>
       <c r="C191">
-        <v>0.2975</v>
+        <v>0.2973</v>
       </c>
       <c r="D191">
-        <v>0.4267</v>
+        <v>0.4265</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3347,13 +3347,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.7376</v>
+        <v>0.7373</v>
       </c>
       <c r="C192">
-        <v>0.3071</v>
+        <v>0.3069</v>
       </c>
       <c r="D192">
-        <v>0.4305</v>
+        <v>0.4303</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3361,13 +3361,13 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.7474</v>
+        <v>0.7471</v>
       </c>
       <c r="C193">
-        <v>0.3135</v>
+        <v>0.3133</v>
       </c>
       <c r="D193">
-        <v>0.4339</v>
+        <v>0.4338</v>
       </c>
     </row>
     <row r="194" spans="1:4">
@@ -3375,13 +3375,13 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.7533</v>
+        <v>0.753</v>
       </c>
       <c r="C194">
-        <v>0.3176</v>
+        <v>0.3174</v>
       </c>
       <c r="D194">
-        <v>0.4357</v>
+        <v>0.4356</v>
       </c>
     </row>
     <row r="195" spans="1:4">
@@ -3389,10 +3389,10 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.7705</v>
+        <v>0.7703</v>
       </c>
       <c r="C195">
-        <v>0.3335</v>
+        <v>0.3333</v>
       </c>
       <c r="D195">
         <v>0.437</v>
@@ -3403,10 +3403,10 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.7838000000000001</v>
+        <v>0.7836</v>
       </c>
       <c r="C196">
-        <v>0.344</v>
+        <v>0.3438</v>
       </c>
       <c r="D196">
         <v>0.4398</v>
@@ -3417,10 +3417,10 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.7912</v>
+        <v>0.7911</v>
       </c>
       <c r="C197">
-        <v>0.3491</v>
+        <v>0.349</v>
       </c>
       <c r="D197">
         <v>0.4421</v>
@@ -3431,10 +3431,10 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.8031</v>
+        <v>0.8028999999999999</v>
       </c>
       <c r="C198">
-        <v>0.3586</v>
+        <v>0.3584</v>
       </c>
       <c r="D198">
         <v>0.4445</v>
@@ -3445,10 +3445,10 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.8186</v>
+        <v>0.8184</v>
       </c>
       <c r="C199">
-        <v>0.3727</v>
+        <v>0.3725</v>
       </c>
       <c r="D199">
         <v>0.4459</v>
@@ -3459,13 +3459,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.8329</v>
+        <v>0.8328</v>
       </c>
       <c r="C200">
-        <v>0.3857</v>
+        <v>0.3855</v>
       </c>
       <c r="D200">
-        <v>0.4472</v>
+        <v>0.4473</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3473,13 +3473,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.8462</v>
+        <v>0.8461</v>
       </c>
       <c r="C201">
-        <v>0.3983</v>
+        <v>0.3981</v>
       </c>
       <c r="D201">
-        <v>0.4478</v>
+        <v>0.448</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3490,10 +3490,10 @@
         <v>0.853</v>
       </c>
       <c r="C202">
-        <v>0.4061</v>
+        <v>0.4059</v>
       </c>
       <c r="D202">
-        <v>0.4469</v>
+        <v>0.4471</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3501,13 +3501,13 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.8608</v>
+        <v>0.8609</v>
       </c>
       <c r="C203">
-        <v>0.4144</v>
+        <v>0.4141</v>
       </c>
       <c r="D203">
-        <v>0.4465</v>
+        <v>0.4468</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3515,13 +3515,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.8676</v>
+        <v>0.8678</v>
       </c>
       <c r="C204">
-        <v>0.4216</v>
+        <v>0.4214</v>
       </c>
       <c r="D204">
-        <v>0.446</v>
+        <v>0.4464</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3529,13 +3529,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.8794999999999999</v>
+        <v>0.8797</v>
       </c>
       <c r="C205">
-        <v>0.4337</v>
+        <v>0.4335</v>
       </c>
       <c r="D205">
-        <v>0.4458</v>
+        <v>0.4462</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3543,13 +3543,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.8884</v>
+        <v>0.8885999999999999</v>
       </c>
       <c r="C206">
-        <v>0.4432</v>
+        <v>0.443</v>
       </c>
       <c r="D206">
-        <v>0.4451</v>
+        <v>0.4456</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3557,13 +3557,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.8948</v>
+        <v>0.895</v>
       </c>
       <c r="C207">
-        <v>0.45</v>
+        <v>0.4497</v>
       </c>
       <c r="D207">
-        <v>0.4448</v>
+        <v>0.4452</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3571,13 +3571,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.9022</v>
+        <v>0.9024</v>
       </c>
       <c r="C208">
-        <v>0.457</v>
+        <v>0.4568</v>
       </c>
       <c r="D208">
-        <v>0.4451</v>
+        <v>0.4456</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3585,13 +3585,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.9054</v>
+        <v>0.9056</v>
       </c>
       <c r="C209">
-        <v>0.4606</v>
+        <v>0.4603</v>
       </c>
       <c r="D209">
-        <v>0.4448</v>
+        <v>0.4453</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3599,13 +3599,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.9011</v>
+        <v>0.9014</v>
       </c>
       <c r="C210">
-        <v>0.4587</v>
+        <v>0.4584</v>
       </c>
       <c r="D210">
-        <v>0.4425</v>
+        <v>0.443</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3613,13 +3613,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.9009</v>
+        <v>0.9012</v>
       </c>
       <c r="C211">
-        <v>0.4607</v>
+        <v>0.4604</v>
       </c>
       <c r="D211">
-        <v>0.4402</v>
+        <v>0.4408</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3627,13 +3627,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.8997000000000001</v>
+        <v>0.9001</v>
       </c>
       <c r="C212">
-        <v>0.4617</v>
+        <v>0.4614</v>
       </c>
       <c r="D212">
-        <v>0.438</v>
+        <v>0.4387</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3641,13 +3641,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.8972</v>
+        <v>0.8976</v>
       </c>
       <c r="C213">
-        <v>0.4613</v>
+        <v>0.461</v>
       </c>
       <c r="D213">
-        <v>0.4359</v>
+        <v>0.4366</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3655,13 +3655,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.8935999999999999</v>
+        <v>0.894</v>
       </c>
       <c r="C214">
-        <v>0.4601</v>
+        <v>0.4598</v>
       </c>
       <c r="D214">
-        <v>0.4334</v>
+        <v>0.4342</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3669,13 +3669,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.8832</v>
+        <v>0.8836000000000001</v>
       </c>
       <c r="C215">
-        <v>0.4523</v>
+        <v>0.452</v>
       </c>
       <c r="D215">
-        <v>0.4308</v>
+        <v>0.4316</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3683,13 +3683,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.8738</v>
+        <v>0.8743</v>
       </c>
       <c r="C216">
-        <v>0.4471</v>
+        <v>0.4468</v>
       </c>
       <c r="D216">
-        <v>0.4266</v>
+        <v>0.4275</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3697,13 +3697,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.8667</v>
+        <v>0.8673</v>
       </c>
       <c r="C217">
-        <v>0.4441</v>
+        <v>0.4438</v>
       </c>
       <c r="D217">
-        <v>0.4226</v>
+        <v>0.4235</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3711,13 +3711,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.8526</v>
+        <v>0.8532999999999999</v>
       </c>
       <c r="C218">
-        <v>0.4346</v>
+        <v>0.4343</v>
       </c>
       <c r="D218">
-        <v>0.4181</v>
+        <v>0.4191</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3725,13 +3725,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.8472</v>
+        <v>0.8479</v>
       </c>
       <c r="C219">
-        <v>0.4327</v>
+        <v>0.4324</v>
       </c>
       <c r="D219">
-        <v>0.4145</v>
+        <v>0.4155</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3739,13 +3739,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.836</v>
+        <v>0.8367</v>
       </c>
       <c r="C220">
-        <v>0.4254</v>
+        <v>0.425</v>
       </c>
       <c r="D220">
-        <v>0.4106</v>
+        <v>0.4117</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3753,13 +3753,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.8253</v>
+        <v>0.826</v>
       </c>
       <c r="C221">
-        <v>0.4175</v>
+        <v>0.4172</v>
       </c>
       <c r="D221">
-        <v>0.4078</v>
+        <v>0.4088</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3767,13 +3767,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.8183</v>
+        <v>0.8189</v>
       </c>
       <c r="C222">
-        <v>0.4106</v>
+        <v>0.4103</v>
       </c>
       <c r="D222">
-        <v>0.4076</v>
+        <v>0.4086</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3781,13 +3781,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.8174</v>
+        <v>0.8179</v>
       </c>
       <c r="C223">
-        <v>0.4097</v>
+        <v>0.4094</v>
       </c>
       <c r="D223">
-        <v>0.4077</v>
+        <v>0.4085</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3795,13 +3795,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.8095</v>
+        <v>0.8099</v>
       </c>
       <c r="C224">
-        <v>0.4023</v>
+        <v>0.4019</v>
       </c>
       <c r="D224">
-        <v>0.4072</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3809,13 +3809,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.8028</v>
+        <v>0.8031</v>
       </c>
       <c r="C225">
-        <v>0.3957</v>
+        <v>0.3954</v>
       </c>
       <c r="D225">
-        <v>0.4071</v>
+        <v>0.4078</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3823,13 +3823,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.7917</v>
+        <v>0.792</v>
       </c>
       <c r="C226">
-        <v>0.3845</v>
+        <v>0.3842</v>
       </c>
       <c r="D226">
-        <v>0.4072</v>
+        <v>0.4078</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3837,13 +3837,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.7871</v>
+        <v>0.7874</v>
       </c>
       <c r="C227">
-        <v>0.3801</v>
+        <v>0.3798</v>
       </c>
       <c r="D227">
-        <v>0.407</v>
+        <v>0.4076</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3851,13 +3851,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.7805</v>
+        <v>0.7806999999999999</v>
       </c>
       <c r="C228">
-        <v>0.3749</v>
+        <v>0.3746</v>
       </c>
       <c r="D228">
-        <v>0.4056</v>
+        <v>0.4062</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3865,13 +3865,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.7723</v>
+        <v>0.7726</v>
       </c>
       <c r="C229">
-        <v>0.3678</v>
+        <v>0.3675</v>
       </c>
       <c r="D229">
-        <v>0.4045</v>
+        <v>0.4051</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3879,13 +3879,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.7697000000000001</v>
+        <v>0.77</v>
       </c>
       <c r="C230">
-        <v>0.3666</v>
+        <v>0.3663</v>
       </c>
       <c r="D230">
-        <v>0.4031</v>
+        <v>0.4037</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3893,13 +3893,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.762</v>
+        <v>0.7623</v>
       </c>
       <c r="C231">
-        <v>0.3605</v>
+        <v>0.3602</v>
       </c>
       <c r="D231">
-        <v>0.4015</v>
+        <v>0.4021</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3907,13 +3907,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.7546</v>
+        <v>0.7549</v>
       </c>
       <c r="C232">
-        <v>0.3544</v>
+        <v>0.3541</v>
       </c>
       <c r="D232">
-        <v>0.4002</v>
+        <v>0.4007</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3921,13 +3921,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.7489</v>
+        <v>0.7492</v>
       </c>
       <c r="C233">
-        <v>0.3502</v>
+        <v>0.3499</v>
       </c>
       <c r="D233">
-        <v>0.3987</v>
+        <v>0.3993</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3935,13 +3935,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.7451</v>
+        <v>0.7454</v>
       </c>
       <c r="C234">
-        <v>0.3478</v>
+        <v>0.3475</v>
       </c>
       <c r="D234">
-        <v>0.3974</v>
+        <v>0.3979</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3949,13 +3949,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.7398</v>
+        <v>0.7401</v>
       </c>
       <c r="C235">
-        <v>0.3438</v>
+        <v>0.3435</v>
       </c>
       <c r="D235">
-        <v>0.396</v>
+        <v>0.3966</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3963,13 +3963,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.7374000000000001</v>
+        <v>0.7376</v>
       </c>
       <c r="C236">
-        <v>0.3424</v>
+        <v>0.3421</v>
       </c>
       <c r="D236">
-        <v>0.395</v>
+        <v>0.3955</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3977,13 +3977,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.7351</v>
+        <v>0.7352</v>
       </c>
       <c r="C237">
-        <v>0.3407</v>
+        <v>0.3405</v>
       </c>
       <c r="D237">
-        <v>0.3943</v>
+        <v>0.3948</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3991,13 +3991,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.7333</v>
+        <v>0.7334000000000001</v>
       </c>
       <c r="C238">
-        <v>0.3397</v>
+        <v>0.3394</v>
       </c>
       <c r="D238">
-        <v>0.3937</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4008,10 +4008,10 @@
         <v>0.7241</v>
       </c>
       <c r="C239">
-        <v>0.3313</v>
+        <v>0.3311</v>
       </c>
       <c r="D239">
-        <v>0.3927</v>
+        <v>0.3931</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4022,10 +4022,10 @@
         <v>0.721</v>
       </c>
       <c r="C240">
-        <v>0.3291</v>
+        <v>0.3288</v>
       </c>
       <c r="D240">
-        <v>0.392</v>
+        <v>0.3922</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4036,10 +4036,10 @@
         <v>0.7181999999999999</v>
       </c>
       <c r="C241">
-        <v>0.3278</v>
+        <v>0.3276</v>
       </c>
       <c r="D241">
-        <v>0.3904</v>
+        <v>0.3906</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4050,10 +4050,10 @@
         <v>0.7159</v>
       </c>
       <c r="C242">
-        <v>0.3291</v>
+        <v>0.3289</v>
       </c>
       <c r="D242">
-        <v>0.3867</v>
+        <v>0.387</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4064,10 +4064,10 @@
         <v>0.7083</v>
       </c>
       <c r="C243">
-        <v>0.3239</v>
+        <v>0.3236</v>
       </c>
       <c r="D243">
-        <v>0.3845</v>
+        <v>0.3847</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4078,10 +4078,10 @@
         <v>0.7043</v>
       </c>
       <c r="C244">
-        <v>0.3202</v>
+        <v>0.3199</v>
       </c>
       <c r="D244">
-        <v>0.3842</v>
+        <v>0.3844</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4089,13 +4089,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.6938</v>
+        <v>0.6937</v>
       </c>
       <c r="C245">
-        <v>0.3107</v>
+        <v>0.3105</v>
       </c>
       <c r="D245">
-        <v>0.3831</v>
+        <v>0.3832</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4103,13 +4103,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.6895</v>
+        <v>0.6893</v>
       </c>
       <c r="C246">
-        <v>0.3073</v>
+        <v>0.307</v>
       </c>
       <c r="D246">
-        <v>0.3822</v>
+        <v>0.3823</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4117,10 +4117,10 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.6825</v>
+        <v>0.6823</v>
       </c>
       <c r="C247">
-        <v>0.3006</v>
+        <v>0.3004</v>
       </c>
       <c r="D247">
         <v>0.3819</v>
@@ -4131,13 +4131,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.6754</v>
+        <v>0.6751</v>
       </c>
       <c r="C248">
-        <v>0.2938</v>
+        <v>0.2936</v>
       </c>
       <c r="D248">
-        <v>0.3816</v>
+        <v>0.3815</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4145,13 +4145,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.6684</v>
+        <v>0.6681</v>
       </c>
       <c r="C249">
-        <v>0.2872</v>
+        <v>0.287</v>
       </c>
       <c r="D249">
-        <v>0.3812</v>
+        <v>0.3811</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4159,13 +4159,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.661</v>
+        <v>0.6607</v>
       </c>
       <c r="C250">
-        <v>0.2803</v>
+        <v>0.2801</v>
       </c>
       <c r="D250">
-        <v>0.3807</v>
+        <v>0.3806</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4173,13 +4173,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.6536999999999999</v>
+        <v>0.6533</v>
       </c>
       <c r="C251">
-        <v>0.2731</v>
+        <v>0.2729</v>
       </c>
       <c r="D251">
-        <v>0.3806</v>
+        <v>0.3804</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4187,13 +4187,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>0.6459</v>
+        <v>0.6455</v>
       </c>
       <c r="C252">
-        <v>0.265</v>
+        <v>0.2648</v>
       </c>
       <c r="D252">
-        <v>0.3809</v>
+        <v>0.3807</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2008 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2008 - Diaria.xlsx
@@ -1161,10 +1161,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.2901</v>
+        <v>0.2899</v>
       </c>
       <c r="C2">
-        <v>0.2901</v>
+        <v>0.2899</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1172,10 +1172,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.2906</v>
+        <v>0.2904</v>
       </c>
       <c r="C3">
-        <v>0.2906</v>
+        <v>0.2904</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1183,10 +1183,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.2791</v>
+        <v>0.2789</v>
       </c>
       <c r="C4">
-        <v>0.2791</v>
+        <v>0.2789</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1194,10 +1194,10 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2777</v>
+        <v>0.2775</v>
       </c>
       <c r="C5">
-        <v>0.2777</v>
+        <v>0.2775</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1205,10 +1205,10 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.2721</v>
+        <v>0.2719</v>
       </c>
       <c r="C6">
-        <v>0.2721</v>
+        <v>0.2719</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1216,10 +1216,10 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.2713</v>
+        <v>0.271</v>
       </c>
       <c r="C7">
-        <v>0.2713</v>
+        <v>0.271</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1227,10 +1227,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.2684</v>
+        <v>0.2682</v>
       </c>
       <c r="C8">
-        <v>0.2684</v>
+        <v>0.2682</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1238,10 +1238,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.2671</v>
+        <v>0.2668</v>
       </c>
       <c r="C9">
-        <v>0.2671</v>
+        <v>0.2668</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1249,10 +1249,10 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.2596</v>
+        <v>0.2594</v>
       </c>
       <c r="C10">
-        <v>0.2596</v>
+        <v>0.2594</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1260,10 +1260,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.2645</v>
+        <v>0.2642</v>
       </c>
       <c r="C11">
-        <v>0.2645</v>
+        <v>0.2642</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1271,10 +1271,10 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.2667</v>
+        <v>0.2664</v>
       </c>
       <c r="C12">
-        <v>0.2667</v>
+        <v>0.2664</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1282,10 +1282,10 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.2701</v>
+        <v>0.2697</v>
       </c>
       <c r="C13">
-        <v>0.2701</v>
+        <v>0.2697</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1293,10 +1293,10 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.2637</v>
+        <v>0.2633</v>
       </c>
       <c r="C14">
-        <v>0.2637</v>
+        <v>0.2633</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1304,10 +1304,10 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.2637</v>
+        <v>0.2634</v>
       </c>
       <c r="C15">
-        <v>0.2637</v>
+        <v>0.2634</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1315,10 +1315,10 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.2671</v>
+        <v>0.2667</v>
       </c>
       <c r="C16">
-        <v>0.2671</v>
+        <v>0.2667</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1326,10 +1326,10 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.2686</v>
+        <v>0.2682</v>
       </c>
       <c r="C17">
-        <v>0.2686</v>
+        <v>0.2682</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1337,10 +1337,10 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.2642</v>
+        <v>0.2639</v>
       </c>
       <c r="C18">
-        <v>0.2642</v>
+        <v>0.2639</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1348,10 +1348,10 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.2672</v>
+        <v>0.2668</v>
       </c>
       <c r="C19">
-        <v>0.2672</v>
+        <v>0.2668</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1359,10 +1359,10 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.2816</v>
+        <v>0.2812</v>
       </c>
       <c r="C20">
-        <v>0.2816</v>
+        <v>0.2812</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1370,10 +1370,10 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.2836</v>
+        <v>0.2832</v>
       </c>
       <c r="C21">
-        <v>0.2836</v>
+        <v>0.2832</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1381,10 +1381,10 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.2821</v>
+        <v>0.2817</v>
       </c>
       <c r="C22">
-        <v>0.2821</v>
+        <v>0.2817</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1392,10 +1392,10 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.2783</v>
+        <v>0.2779</v>
       </c>
       <c r="C23">
-        <v>0.2783</v>
+        <v>0.2779</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1403,10 +1403,10 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.2798</v>
+        <v>0.2794</v>
       </c>
       <c r="C24">
-        <v>0.2798</v>
+        <v>0.2794</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1414,10 +1414,10 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.2812</v>
+        <v>0.2808</v>
       </c>
       <c r="C25">
-        <v>0.2812</v>
+        <v>0.2808</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1425,10 +1425,10 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.293</v>
+        <v>0.2926</v>
       </c>
       <c r="C26">
-        <v>0.293</v>
+        <v>0.2926</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1436,10 +1436,10 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.2911</v>
+        <v>0.2907</v>
       </c>
       <c r="C27">
-        <v>0.2911</v>
+        <v>0.2907</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1447,10 +1447,10 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.2909</v>
+        <v>0.2905</v>
       </c>
       <c r="C28">
-        <v>0.2909</v>
+        <v>0.2905</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1458,10 +1458,10 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.2905</v>
+        <v>0.2902</v>
       </c>
       <c r="C29">
-        <v>0.2905</v>
+        <v>0.2902</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1469,10 +1469,10 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.2965</v>
+        <v>0.2962</v>
       </c>
       <c r="C30">
-        <v>0.2965</v>
+        <v>0.2962</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1480,10 +1480,10 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.2909</v>
+        <v>0.2906</v>
       </c>
       <c r="C31">
-        <v>0.2909</v>
+        <v>0.2906</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1491,10 +1491,10 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.2946</v>
+        <v>0.2943</v>
       </c>
       <c r="C32">
-        <v>0.2946</v>
+        <v>0.2943</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1502,10 +1502,10 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.298</v>
+        <v>0.2977</v>
       </c>
       <c r="C33">
-        <v>0.298</v>
+        <v>0.2977</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1513,10 +1513,10 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.3015</v>
+        <v>0.3012</v>
       </c>
       <c r="C34">
-        <v>0.3015</v>
+        <v>0.3012</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1524,10 +1524,10 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.296</v>
+        <v>0.2958</v>
       </c>
       <c r="C35">
-        <v>0.296</v>
+        <v>0.2958</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1535,10 +1535,10 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.2971</v>
+        <v>0.2969</v>
       </c>
       <c r="C36">
-        <v>0.2971</v>
+        <v>0.2969</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1546,10 +1546,10 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.2917</v>
+        <v>0.2915</v>
       </c>
       <c r="C37">
-        <v>0.2917</v>
+        <v>0.2915</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1557,10 +1557,10 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.3009</v>
+        <v>0.3007</v>
       </c>
       <c r="C38">
-        <v>0.3009</v>
+        <v>0.3007</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1568,10 +1568,10 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.2921</v>
+        <v>0.2919</v>
       </c>
       <c r="C39">
-        <v>0.2921</v>
+        <v>0.2919</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1579,10 +1579,10 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.2762</v>
+        <v>0.2761</v>
       </c>
       <c r="C40">
-        <v>0.2762</v>
+        <v>0.2761</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1590,10 +1590,10 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.2735</v>
+        <v>0.2733</v>
       </c>
       <c r="C41">
-        <v>0.2735</v>
+        <v>0.2733</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1601,10 +1601,10 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.2692</v>
+        <v>0.2691</v>
       </c>
       <c r="C42">
-        <v>0.2692</v>
+        <v>0.2691</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1612,10 +1612,10 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.2654</v>
+        <v>0.2653</v>
       </c>
       <c r="C43">
-        <v>0.2654</v>
+        <v>0.2653</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1623,10 +1623,10 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.2602</v>
+        <v>0.26</v>
       </c>
       <c r="C44">
-        <v>0.2602</v>
+        <v>0.26</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1634,10 +1634,10 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.2594</v>
+        <v>0.2593</v>
       </c>
       <c r="C45">
-        <v>0.2594</v>
+        <v>0.2593</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1645,10 +1645,10 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.2454</v>
+        <v>0.2453</v>
       </c>
       <c r="C46">
-        <v>0.2454</v>
+        <v>0.2453</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1656,10 +1656,10 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.2435</v>
+        <v>0.2433</v>
       </c>
       <c r="C47">
-        <v>0.2435</v>
+        <v>0.2433</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1667,10 +1667,10 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.2396</v>
+        <v>0.2394</v>
       </c>
       <c r="C48">
-        <v>0.2396</v>
+        <v>0.2394</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1678,10 +1678,10 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.2506</v>
+        <v>0.2504</v>
       </c>
       <c r="C49">
-        <v>0.2506</v>
+        <v>0.2504</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1689,10 +1689,10 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.2474</v>
+        <v>0.2472</v>
       </c>
       <c r="C50">
-        <v>0.2474</v>
+        <v>0.2472</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1700,10 +1700,10 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.2509</v>
+        <v>0.2507</v>
       </c>
       <c r="C51">
-        <v>0.2509</v>
+        <v>0.2507</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1711,10 +1711,10 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.2501</v>
+        <v>0.2499</v>
       </c>
       <c r="C52">
-        <v>0.2501</v>
+        <v>0.2499</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1722,10 +1722,10 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.2494</v>
+        <v>0.2492</v>
       </c>
       <c r="C53">
-        <v>0.2494</v>
+        <v>0.2492</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1733,10 +1733,10 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.2505</v>
+        <v>0.2503</v>
       </c>
       <c r="C54">
-        <v>0.2505</v>
+        <v>0.2503</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1744,10 +1744,10 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.2637</v>
+        <v>0.2635</v>
       </c>
       <c r="C55">
-        <v>0.2637</v>
+        <v>0.2635</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1755,10 +1755,10 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.262</v>
+        <v>0.2618</v>
       </c>
       <c r="C56">
-        <v>0.262</v>
+        <v>0.2618</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1766,10 +1766,10 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.2675</v>
+        <v>0.2672</v>
       </c>
       <c r="C57">
-        <v>0.2675</v>
+        <v>0.2672</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1777,10 +1777,10 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.2663</v>
+        <v>0.2661</v>
       </c>
       <c r="C58">
-        <v>0.2663</v>
+        <v>0.2661</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1788,10 +1788,10 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.2775</v>
+        <v>0.2772</v>
       </c>
       <c r="C59">
-        <v>0.2775</v>
+        <v>0.2772</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1799,10 +1799,10 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.2867</v>
+        <v>0.2865</v>
       </c>
       <c r="C60">
-        <v>0.2867</v>
+        <v>0.2865</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1810,10 +1810,10 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.2958</v>
+        <v>0.2956</v>
       </c>
       <c r="C61">
-        <v>0.2958</v>
+        <v>0.2956</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1821,10 +1821,10 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.3096</v>
+        <v>0.3093</v>
       </c>
       <c r="C62">
-        <v>0.3096</v>
+        <v>0.3093</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1832,10 +1832,10 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3396</v>
+        <v>0.3394</v>
       </c>
       <c r="C63">
-        <v>0.3396</v>
+        <v>0.3394</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1843,10 +1843,10 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.3603</v>
+        <v>0.36</v>
       </c>
       <c r="C64">
-        <v>0.3603</v>
+        <v>0.36</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1854,10 +1854,10 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.3856</v>
+        <v>0.3853</v>
       </c>
       <c r="C65">
-        <v>0.3856</v>
+        <v>0.3853</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1865,10 +1865,10 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.4054</v>
+        <v>0.4052</v>
       </c>
       <c r="C66">
-        <v>0.4054</v>
+        <v>0.4052</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1876,10 +1876,10 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.42</v>
+        <v>0.4198</v>
       </c>
       <c r="C67">
-        <v>0.42</v>
+        <v>0.4198</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1887,10 +1887,10 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.4429</v>
+        <v>0.4427</v>
       </c>
       <c r="C68">
-        <v>0.4429</v>
+        <v>0.4427</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1898,10 +1898,10 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.4489</v>
+        <v>0.4488</v>
       </c>
       <c r="C69">
-        <v>0.4489</v>
+        <v>0.4488</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1909,10 +1909,10 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.4584</v>
+        <v>0.4582</v>
       </c>
       <c r="C70">
-        <v>0.4584</v>
+        <v>0.4582</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1920,10 +1920,10 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.4668</v>
+        <v>0.4667</v>
       </c>
       <c r="C71">
-        <v>0.4668</v>
+        <v>0.4667</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1931,10 +1931,10 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.4687</v>
+        <v>0.4686</v>
       </c>
       <c r="C72">
-        <v>0.4687</v>
+        <v>0.4686</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1942,10 +1942,10 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.4769</v>
+        <v>0.4768</v>
       </c>
       <c r="C73">
-        <v>0.4769</v>
+        <v>0.4768</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -2019,10 +2019,10 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.5417</v>
+        <v>0.5417999999999999</v>
       </c>
       <c r="C80">
-        <v>0.5417</v>
+        <v>0.5417999999999999</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2041,10 +2041,10 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.553</v>
+        <v>0.5531</v>
       </c>
       <c r="C82">
-        <v>0.553</v>
+        <v>0.5531</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2052,10 +2052,10 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.5446</v>
+        <v>0.5447</v>
       </c>
       <c r="C83">
-        <v>0.5446</v>
+        <v>0.5447</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2063,10 +2063,10 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.5374</v>
+        <v>0.5375</v>
       </c>
       <c r="C84">
-        <v>0.5374</v>
+        <v>0.5375</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2074,10 +2074,10 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.516</v>
+        <v>0.5161</v>
       </c>
       <c r="C85">
-        <v>0.516</v>
+        <v>0.5161</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2085,10 +2085,10 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.5133</v>
+        <v>0.5134</v>
       </c>
       <c r="C86">
-        <v>0.5133</v>
+        <v>0.5134</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2096,10 +2096,10 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.5054</v>
+        <v>0.5054999999999999</v>
       </c>
       <c r="C87">
-        <v>0.5054</v>
+        <v>0.5054999999999999</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2107,10 +2107,10 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.4992</v>
+        <v>0.4993</v>
       </c>
       <c r="C88">
-        <v>0.4992</v>
+        <v>0.4993</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2118,10 +2118,10 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.4923</v>
+        <v>0.4924</v>
       </c>
       <c r="C89">
-        <v>0.4923</v>
+        <v>0.4924</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2129,10 +2129,10 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.4875</v>
+        <v>0.4876</v>
       </c>
       <c r="C90">
-        <v>0.4875</v>
+        <v>0.4876</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2140,10 +2140,10 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.4821</v>
+        <v>0.4822</v>
       </c>
       <c r="C91">
-        <v>0.4821</v>
+        <v>0.4822</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2151,10 +2151,10 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.5</v>
+        <v>0.5001</v>
       </c>
       <c r="C92">
-        <v>0.5</v>
+        <v>0.5001</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2162,10 +2162,10 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.4941</v>
+        <v>0.4942</v>
       </c>
       <c r="C93">
-        <v>0.4941</v>
+        <v>0.4942</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2173,10 +2173,10 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.4767</v>
+        <v>0.4768</v>
       </c>
       <c r="C94">
-        <v>0.4767</v>
+        <v>0.4768</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2184,10 +2184,10 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.4691</v>
+        <v>0.4693</v>
       </c>
       <c r="C95">
-        <v>0.4691</v>
+        <v>0.4693</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2195,10 +2195,10 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.4485</v>
+        <v>0.4487</v>
       </c>
       <c r="C96">
-        <v>0.4485</v>
+        <v>0.4487</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2206,10 +2206,10 @@
         <v>99</v>
       </c>
       <c r="B97">
-        <v>0.4319</v>
+        <v>0.432</v>
       </c>
       <c r="C97">
-        <v>0.4319</v>
+        <v>0.432</v>
       </c>
     </row>
     <row r="98" spans="1:3">
@@ -2217,10 +2217,10 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.4228</v>
+        <v>0.423</v>
       </c>
       <c r="C98">
-        <v>0.4228</v>
+        <v>0.423</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2228,10 +2228,10 @@
         <v>101</v>
       </c>
       <c r="B99">
-        <v>0.4207</v>
+        <v>0.4209</v>
       </c>
       <c r="C99">
-        <v>0.4207</v>
+        <v>0.4209</v>
       </c>
     </row>
     <row r="100" spans="1:3">
@@ -2239,10 +2239,10 @@
         <v>102</v>
       </c>
       <c r="B100">
-        <v>0.4017</v>
+        <v>0.4019</v>
       </c>
       <c r="C100">
-        <v>0.4017</v>
+        <v>0.4019</v>
       </c>
     </row>
     <row r="101" spans="1:3">
@@ -2250,10 +2250,10 @@
         <v>103</v>
       </c>
       <c r="B101">
-        <v>0.3975</v>
+        <v>0.3977</v>
       </c>
       <c r="C101">
-        <v>0.3975</v>
+        <v>0.3977</v>
       </c>
     </row>
     <row r="102" spans="1:3">
@@ -2261,10 +2261,10 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.3846</v>
+        <v>0.3847</v>
       </c>
       <c r="C102">
-        <v>0.3846</v>
+        <v>0.3847</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2272,10 +2272,10 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.3668</v>
+        <v>0.3669</v>
       </c>
       <c r="C103">
-        <v>0.3668</v>
+        <v>0.3669</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2283,10 +2283,10 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.3591</v>
+        <v>0.3592</v>
       </c>
       <c r="C104">
-        <v>0.3591</v>
+        <v>0.3592</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2294,10 +2294,10 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.3568</v>
+        <v>0.3569</v>
       </c>
       <c r="C105">
-        <v>0.3568</v>
+        <v>0.3569</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2305,10 +2305,10 @@
         <v>108</v>
       </c>
       <c r="B106">
-        <v>0.3452</v>
+        <v>0.3453</v>
       </c>
       <c r="C106">
-        <v>0.3452</v>
+        <v>0.3453</v>
       </c>
     </row>
     <row r="107" spans="1:3">
@@ -2316,10 +2316,10 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.3434</v>
+        <v>0.3435</v>
       </c>
       <c r="C107">
-        <v>0.3434</v>
+        <v>0.3435</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2327,10 +2327,10 @@
         <v>110</v>
       </c>
       <c r="B108">
-        <v>0.3345</v>
+        <v>0.3346</v>
       </c>
       <c r="C108">
-        <v>0.3345</v>
+        <v>0.3346</v>
       </c>
     </row>
     <row r="109" spans="1:3">
@@ -2349,10 +2349,10 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.3342</v>
+        <v>0.3343</v>
       </c>
       <c r="C110">
-        <v>0.3342</v>
+        <v>0.3343</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2404,10 +2404,10 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.3153</v>
+        <v>0.3152</v>
       </c>
       <c r="C115">
-        <v>0.3153</v>
+        <v>0.3152</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2415,10 +2415,10 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.3311</v>
+        <v>0.331</v>
       </c>
       <c r="C116">
-        <v>0.3311</v>
+        <v>0.331</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2426,10 +2426,10 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.331</v>
+        <v>0.3309</v>
       </c>
       <c r="C117">
-        <v>0.331</v>
+        <v>0.3309</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2437,10 +2437,10 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.3322</v>
+        <v>0.3321</v>
       </c>
       <c r="C118">
-        <v>0.3322</v>
+        <v>0.3321</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2448,10 +2448,10 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.3401</v>
+        <v>0.3399</v>
       </c>
       <c r="C119">
-        <v>0.3401</v>
+        <v>0.3399</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2459,10 +2459,10 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.3449</v>
+        <v>0.3448</v>
       </c>
       <c r="C120">
-        <v>0.3449</v>
+        <v>0.3448</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2470,10 +2470,10 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.349</v>
+        <v>0.3489</v>
       </c>
       <c r="C121">
-        <v>0.349</v>
+        <v>0.3489</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2481,10 +2481,10 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.3535</v>
+        <v>0.3533</v>
       </c>
       <c r="C122">
-        <v>0.3535</v>
+        <v>0.3533</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2492,10 +2492,10 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.366</v>
+        <v>0.3658</v>
       </c>
       <c r="C123">
-        <v>0.366</v>
+        <v>0.3658</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2503,10 +2503,10 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.3685</v>
+        <v>0.3683</v>
       </c>
       <c r="C124">
-        <v>0.3685</v>
+        <v>0.3683</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2514,10 +2514,10 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.374</v>
+        <v>0.3738</v>
       </c>
       <c r="C125">
-        <v>0.374</v>
+        <v>0.3738</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2525,10 +2525,10 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.3813</v>
+        <v>0.3811</v>
       </c>
       <c r="C126">
-        <v>0.3813</v>
+        <v>0.3811</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2536,10 +2536,10 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.3905</v>
+        <v>0.3903</v>
       </c>
       <c r="C127">
-        <v>0.3905</v>
+        <v>0.3903</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2547,10 +2547,10 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.4082</v>
+        <v>0.408</v>
       </c>
       <c r="C128">
-        <v>0.4082</v>
+        <v>0.408</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2558,10 +2558,10 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.4115</v>
+        <v>0.4113</v>
       </c>
       <c r="C129">
-        <v>0.4115</v>
+        <v>0.4113</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2569,10 +2569,10 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.4121</v>
+        <v>0.4119</v>
       </c>
       <c r="C130">
-        <v>0.4121</v>
+        <v>0.4119</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2580,10 +2580,10 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.4207</v>
+        <v>0.4205</v>
       </c>
       <c r="C131">
-        <v>0.4207</v>
+        <v>0.4205</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2591,10 +2591,10 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.4328</v>
+        <v>0.4326</v>
       </c>
       <c r="C132">
-        <v>0.4328</v>
+        <v>0.4326</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2602,10 +2602,10 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.4404</v>
+        <v>0.4402</v>
       </c>
       <c r="C133">
-        <v>0.4404</v>
+        <v>0.4402</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2613,10 +2613,10 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.4458</v>
+        <v>0.4456</v>
       </c>
       <c r="C134">
-        <v>0.4458</v>
+        <v>0.4456</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2624,10 +2624,10 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.4514</v>
+        <v>0.4513</v>
       </c>
       <c r="C135">
-        <v>0.4514</v>
+        <v>0.4513</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2635,10 +2635,10 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.4457</v>
+        <v>0.4456</v>
       </c>
       <c r="C136">
-        <v>0.4457</v>
+        <v>0.4456</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2767,10 +2767,10 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.3625</v>
+        <v>0.3626</v>
       </c>
       <c r="C148">
-        <v>0.3625</v>
+        <v>0.3626</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2789,10 +2789,10 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.343</v>
+        <v>0.3431</v>
       </c>
       <c r="C150">
-        <v>0.343</v>
+        <v>0.3431</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2833,10 +2833,10 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.2877</v>
+        <v>0.2878</v>
       </c>
       <c r="C154">
-        <v>0.2877</v>
+        <v>0.2878</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2899,13 +2899,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.6291</v>
+        <v>0.6289</v>
       </c>
       <c r="C160">
-        <v>0.2046</v>
+        <v>0.2045</v>
       </c>
       <c r="D160">
-        <v>0.4245</v>
+        <v>0.4244</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2913,13 +2913,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.6198</v>
+        <v>0.6196</v>
       </c>
       <c r="C161">
         <v>0.205</v>
       </c>
       <c r="D161">
-        <v>0.4148</v>
+        <v>0.4147</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2927,13 +2927,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.6132</v>
+        <v>0.613</v>
       </c>
       <c r="C162">
         <v>0.2074</v>
       </c>
       <c r="D162">
-        <v>0.4058</v>
+        <v>0.4056</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2941,13 +2941,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.6122</v>
+        <v>0.612</v>
       </c>
       <c r="C163">
         <v>0.2137</v>
       </c>
       <c r="D163">
-        <v>0.3985</v>
+        <v>0.3983</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2955,13 +2955,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.6075</v>
+        <v>0.6072</v>
       </c>
       <c r="C164">
         <v>0.2157</v>
       </c>
       <c r="D164">
-        <v>0.3918</v>
+        <v>0.3916</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2969,13 +2969,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.5982</v>
+        <v>0.598</v>
       </c>
       <c r="C165">
-        <v>0.213</v>
+        <v>0.2129</v>
       </c>
       <c r="D165">
-        <v>0.3852</v>
+        <v>0.385</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2983,13 +2983,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.5942</v>
+        <v>0.594</v>
       </c>
       <c r="C166">
-        <v>0.2145</v>
+        <v>0.2144</v>
       </c>
       <c r="D166">
-        <v>0.3797</v>
+        <v>0.3795</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2997,13 +2997,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.5889</v>
+        <v>0.5887</v>
       </c>
       <c r="C167">
         <v>0.2141</v>
       </c>
       <c r="D167">
-        <v>0.3748</v>
+        <v>0.3746</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3011,13 +3011,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.586</v>
+        <v>0.5858</v>
       </c>
       <c r="C168">
         <v>0.2154</v>
       </c>
       <c r="D168">
-        <v>0.3706</v>
+        <v>0.3705</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3025,13 +3025,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.5826</v>
+        <v>0.5824</v>
       </c>
       <c r="C169">
         <v>0.2155</v>
       </c>
       <c r="D169">
-        <v>0.3671</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3039,13 +3039,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.5776</v>
+        <v>0.5774</v>
       </c>
       <c r="C170">
-        <v>0.2136</v>
+        <v>0.2135</v>
       </c>
       <c r="D170">
-        <v>0.3641</v>
+        <v>0.3639</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3053,13 +3053,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.5783</v>
+        <v>0.5780999999999999</v>
       </c>
       <c r="C171">
         <v>0.2163</v>
       </c>
       <c r="D171">
-        <v>0.362</v>
+        <v>0.3618</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3067,13 +3067,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.5822000000000001</v>
+        <v>0.582</v>
       </c>
       <c r="C172">
         <v>0.2203</v>
       </c>
       <c r="D172">
-        <v>0.3619</v>
+        <v>0.3618</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3081,13 +3081,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.5854</v>
+        <v>0.5853</v>
       </c>
       <c r="C173">
-        <v>0.2244</v>
+        <v>0.2243</v>
       </c>
       <c r="D173">
-        <v>0.361</v>
+        <v>0.3609</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3095,7 +3095,7 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.5921999999999999</v>
+        <v>0.5921</v>
       </c>
       <c r="C174">
         <v>0.2297</v>
@@ -3109,13 +3109,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.5938</v>
+        <v>0.5937</v>
       </c>
       <c r="C175">
         <v>0.2302</v>
       </c>
       <c r="D175">
-        <v>0.3636</v>
+        <v>0.3635</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3123,13 +3123,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.5991</v>
+        <v>0.599</v>
       </c>
       <c r="C176">
         <v>0.2342</v>
       </c>
       <c r="D176">
-        <v>0.3649</v>
+        <v>0.3648</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3137,13 +3137,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.6076</v>
+        <v>0.6075</v>
       </c>
       <c r="C177">
         <v>0.2407</v>
       </c>
       <c r="D177">
-        <v>0.3669</v>
+        <v>0.3668</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3151,10 +3151,10 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.6173999999999999</v>
+        <v>0.6173</v>
       </c>
       <c r="C178">
-        <v>0.2478</v>
+        <v>0.2477</v>
       </c>
       <c r="D178">
         <v>0.3696</v>
@@ -3165,10 +3165,10 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.6209</v>
+        <v>0.6208</v>
       </c>
       <c r="C179">
-        <v>0.2481</v>
+        <v>0.248</v>
       </c>
       <c r="D179">
         <v>0.3728</v>
@@ -3179,7 +3179,7 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.6282</v>
+        <v>0.6281</v>
       </c>
       <c r="C180">
         <v>0.2513</v>
@@ -3221,10 +3221,10 @@
         <v>185</v>
       </c>
       <c r="B183">
-        <v>0.6422</v>
+        <v>0.6421</v>
       </c>
       <c r="C183">
-        <v>0.2509</v>
+        <v>0.2508</v>
       </c>
       <c r="D183">
         <v>0.3913</v>
@@ -3235,10 +3235,10 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.6483</v>
+        <v>0.6482</v>
       </c>
       <c r="C184">
-        <v>0.2528</v>
+        <v>0.2527</v>
       </c>
       <c r="D184">
         <v>0.3955</v>
@@ -3249,10 +3249,10 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.658</v>
+        <v>0.6579</v>
       </c>
       <c r="C185">
-        <v>0.2583</v>
+        <v>0.2582</v>
       </c>
       <c r="D185">
         <v>0.3997</v>
@@ -3263,10 +3263,10 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.665</v>
+        <v>0.6649</v>
       </c>
       <c r="C186">
-        <v>0.2617</v>
+        <v>0.2616</v>
       </c>
       <c r="D186">
         <v>0.4033</v>
@@ -3277,10 +3277,10 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.6745</v>
+        <v>0.6744</v>
       </c>
       <c r="C187">
-        <v>0.2675</v>
+        <v>0.2673</v>
       </c>
       <c r="D187">
         <v>0.407</v>
@@ -3291,10 +3291,10 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.6821</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="C188">
-        <v>0.2712</v>
+        <v>0.2711</v>
       </c>
       <c r="D188">
         <v>0.4109</v>
@@ -3305,10 +3305,10 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.6942</v>
+        <v>0.6941000000000001</v>
       </c>
       <c r="C189">
-        <v>0.2793</v>
+        <v>0.2792</v>
       </c>
       <c r="D189">
         <v>0.4149</v>
@@ -3319,13 +3319,13 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.711</v>
+        <v>0.7109</v>
       </c>
       <c r="C190">
-        <v>0.29</v>
+        <v>0.2899</v>
       </c>
       <c r="D190">
-        <v>0.4209</v>
+        <v>0.421</v>
       </c>
     </row>
     <row r="191" spans="1:4">
@@ -3333,10 +3333,10 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.7238</v>
+        <v>0.7237</v>
       </c>
       <c r="C191">
-        <v>0.2973</v>
+        <v>0.2972</v>
       </c>
       <c r="D191">
         <v>0.4265</v>
@@ -3347,13 +3347,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.7373</v>
+        <v>0.7372</v>
       </c>
       <c r="C192">
-        <v>0.3069</v>
+        <v>0.3068</v>
       </c>
       <c r="D192">
-        <v>0.4303</v>
+        <v>0.4304</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3361,10 +3361,10 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.7471</v>
+        <v>0.747</v>
       </c>
       <c r="C193">
-        <v>0.3133</v>
+        <v>0.3132</v>
       </c>
       <c r="D193">
         <v>0.4338</v>
@@ -3375,10 +3375,10 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.753</v>
+        <v>0.7529</v>
       </c>
       <c r="C194">
-        <v>0.3174</v>
+        <v>0.3173</v>
       </c>
       <c r="D194">
         <v>0.4356</v>
@@ -3389,10 +3389,10 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.7703</v>
+        <v>0.7702</v>
       </c>
       <c r="C195">
-        <v>0.3333</v>
+        <v>0.3332</v>
       </c>
       <c r="D195">
         <v>0.437</v>
@@ -3403,10 +3403,10 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.7836</v>
+        <v>0.7835</v>
       </c>
       <c r="C196">
-        <v>0.3438</v>
+        <v>0.3437</v>
       </c>
       <c r="D196">
         <v>0.4398</v>
@@ -3417,10 +3417,10 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.7911</v>
+        <v>0.791</v>
       </c>
       <c r="C197">
-        <v>0.349</v>
+        <v>0.3488</v>
       </c>
       <c r="D197">
         <v>0.4421</v>
@@ -3431,10 +3431,10 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.8028999999999999</v>
+        <v>0.8028</v>
       </c>
       <c r="C198">
-        <v>0.3584</v>
+        <v>0.3583</v>
       </c>
       <c r="D198">
         <v>0.4445</v>
@@ -3445,13 +3445,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.8184</v>
+        <v>0.8183</v>
       </c>
       <c r="C199">
-        <v>0.3725</v>
+        <v>0.3723</v>
       </c>
       <c r="D199">
-        <v>0.4459</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3459,10 +3459,10 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.8328</v>
+        <v>0.8327</v>
       </c>
       <c r="C200">
-        <v>0.3855</v>
+        <v>0.3854</v>
       </c>
       <c r="D200">
         <v>0.4473</v>
@@ -3473,10 +3473,10 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.8461</v>
+        <v>0.846</v>
       </c>
       <c r="C201">
-        <v>0.3981</v>
+        <v>0.398</v>
       </c>
       <c r="D201">
         <v>0.448</v>
@@ -3487,13 +3487,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.853</v>
+        <v>0.8529</v>
       </c>
       <c r="C202">
-        <v>0.4059</v>
+        <v>0.4058</v>
       </c>
       <c r="D202">
-        <v>0.4471</v>
+        <v>0.4472</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3501,10 +3501,10 @@
         <v>205</v>
       </c>
       <c r="B203">
-        <v>0.8609</v>
+        <v>0.8608</v>
       </c>
       <c r="C203">
-        <v>0.4141</v>
+        <v>0.414</v>
       </c>
       <c r="D203">
         <v>0.4468</v>
@@ -3515,10 +3515,10 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.8678</v>
+        <v>0.8677</v>
       </c>
       <c r="C204">
-        <v>0.4214</v>
+        <v>0.4213</v>
       </c>
       <c r="D204">
         <v>0.4464</v>
@@ -3532,7 +3532,7 @@
         <v>0.8797</v>
       </c>
       <c r="C205">
-        <v>0.4335</v>
+        <v>0.4334</v>
       </c>
       <c r="D205">
         <v>0.4462</v>
@@ -3563,7 +3563,7 @@
         <v>0.4497</v>
       </c>
       <c r="D207">
-        <v>0.4452</v>
+        <v>0.4453</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3588,7 +3588,7 @@
         <v>0.9056</v>
       </c>
       <c r="C209">
-        <v>0.4603</v>
+        <v>0.4604</v>
       </c>
       <c r="D209">
         <v>0.4453</v>
@@ -3599,10 +3599,10 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.9014</v>
+        <v>0.9015</v>
       </c>
       <c r="C210">
-        <v>0.4584</v>
+        <v>0.4585</v>
       </c>
       <c r="D210">
         <v>0.443</v>
@@ -3613,10 +3613,10 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.9012</v>
+        <v>0.9013</v>
       </c>
       <c r="C211">
-        <v>0.4604</v>
+        <v>0.4605</v>
       </c>
       <c r="D211">
         <v>0.4408</v>
@@ -3627,13 +3627,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.9001</v>
+        <v>0.9002</v>
       </c>
       <c r="C212">
-        <v>0.4614</v>
+        <v>0.4616</v>
       </c>
       <c r="D212">
-        <v>0.4387</v>
+        <v>0.4386</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3641,10 +3641,10 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.8976</v>
+        <v>0.8978</v>
       </c>
       <c r="C213">
-        <v>0.461</v>
+        <v>0.4612</v>
       </c>
       <c r="D213">
         <v>0.4366</v>
@@ -3655,13 +3655,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.894</v>
+        <v>0.8942</v>
       </c>
       <c r="C214">
-        <v>0.4598</v>
+        <v>0.46</v>
       </c>
       <c r="D214">
-        <v>0.4342</v>
+        <v>0.4341</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3669,10 +3669,10 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.8836000000000001</v>
+        <v>0.8838</v>
       </c>
       <c r="C215">
-        <v>0.452</v>
+        <v>0.4522</v>
       </c>
       <c r="D215">
         <v>0.4316</v>
@@ -3683,13 +3683,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.8743</v>
+        <v>0.8745000000000001</v>
       </c>
       <c r="C216">
-        <v>0.4468</v>
+        <v>0.4471</v>
       </c>
       <c r="D216">
-        <v>0.4275</v>
+        <v>0.4274</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3697,10 +3697,10 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.8673</v>
+        <v>0.8676</v>
       </c>
       <c r="C217">
-        <v>0.4438</v>
+        <v>0.4441</v>
       </c>
       <c r="D217">
         <v>0.4235</v>
@@ -3711,13 +3711,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.8532999999999999</v>
+        <v>0.8536</v>
       </c>
       <c r="C218">
-        <v>0.4343</v>
+        <v>0.4346</v>
       </c>
       <c r="D218">
-        <v>0.4191</v>
+        <v>0.419</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3725,10 +3725,10 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.8479</v>
+        <v>0.8482</v>
       </c>
       <c r="C219">
-        <v>0.4324</v>
+        <v>0.4328</v>
       </c>
       <c r="D219">
         <v>0.4155</v>
@@ -3739,13 +3739,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.8367</v>
+        <v>0.837</v>
       </c>
       <c r="C220">
-        <v>0.425</v>
+        <v>0.4254</v>
       </c>
       <c r="D220">
-        <v>0.4117</v>
+        <v>0.4116</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3753,10 +3753,10 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.826</v>
+        <v>0.8263</v>
       </c>
       <c r="C221">
-        <v>0.4172</v>
+        <v>0.4176</v>
       </c>
       <c r="D221">
         <v>0.4088</v>
@@ -3767,13 +3767,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.8189</v>
+        <v>0.8193</v>
       </c>
       <c r="C222">
-        <v>0.4103</v>
+        <v>0.4108</v>
       </c>
       <c r="D222">
-        <v>0.4086</v>
+        <v>0.4085</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3781,10 +3781,10 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.8179</v>
+        <v>0.8183</v>
       </c>
       <c r="C223">
-        <v>0.4094</v>
+        <v>0.4099</v>
       </c>
       <c r="D223">
         <v>0.4085</v>
@@ -3795,13 +3795,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.8099</v>
+        <v>0.8103</v>
       </c>
       <c r="C224">
-        <v>0.4019</v>
+        <v>0.4024</v>
       </c>
       <c r="D224">
-        <v>0.408</v>
+        <v>0.4079</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3809,13 +3809,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.8031</v>
+        <v>0.8036</v>
       </c>
       <c r="C225">
-        <v>0.3954</v>
+        <v>0.3959</v>
       </c>
       <c r="D225">
-        <v>0.4078</v>
+        <v>0.4077</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3823,10 +3823,10 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.792</v>
+        <v>0.7925</v>
       </c>
       <c r="C226">
-        <v>0.3842</v>
+        <v>0.3847</v>
       </c>
       <c r="D226">
         <v>0.4078</v>
@@ -3837,13 +3837,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.7874</v>
+        <v>0.7877999999999999</v>
       </c>
       <c r="C227">
-        <v>0.3798</v>
+        <v>0.3803</v>
       </c>
       <c r="D227">
-        <v>0.4076</v>
+        <v>0.4075</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3851,13 +3851,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.7806999999999999</v>
+        <v>0.7812</v>
       </c>
       <c r="C228">
-        <v>0.3746</v>
+        <v>0.3751</v>
       </c>
       <c r="D228">
-        <v>0.4062</v>
+        <v>0.4061</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3865,10 +3865,10 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.7726</v>
+        <v>0.7731</v>
       </c>
       <c r="C229">
-        <v>0.3675</v>
+        <v>0.368</v>
       </c>
       <c r="D229">
         <v>0.4051</v>
@@ -3879,13 +3879,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.77</v>
+        <v>0.7704</v>
       </c>
       <c r="C230">
-        <v>0.3663</v>
+        <v>0.3668</v>
       </c>
       <c r="D230">
-        <v>0.4037</v>
+        <v>0.4036</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3893,10 +3893,10 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.7623</v>
+        <v>0.7628</v>
       </c>
       <c r="C231">
-        <v>0.3602</v>
+        <v>0.3607</v>
       </c>
       <c r="D231">
         <v>0.4021</v>
@@ -3907,10 +3907,10 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.7549</v>
+        <v>0.7553</v>
       </c>
       <c r="C232">
-        <v>0.3541</v>
+        <v>0.3546</v>
       </c>
       <c r="D232">
         <v>0.4007</v>
@@ -3921,10 +3921,10 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.7492</v>
+        <v>0.7496</v>
       </c>
       <c r="C233">
-        <v>0.3499</v>
+        <v>0.3504</v>
       </c>
       <c r="D233">
         <v>0.3993</v>
@@ -3935,10 +3935,10 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.7454</v>
+        <v>0.7458</v>
       </c>
       <c r="C234">
-        <v>0.3475</v>
+        <v>0.348</v>
       </c>
       <c r="D234">
         <v>0.3979</v>
@@ -3949,13 +3949,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.7401</v>
+        <v>0.7405</v>
       </c>
       <c r="C235">
-        <v>0.3435</v>
+        <v>0.344</v>
       </c>
       <c r="D235">
-        <v>0.3966</v>
+        <v>0.3965</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3963,13 +3963,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.7376</v>
+        <v>0.738</v>
       </c>
       <c r="C236">
-        <v>0.3421</v>
+        <v>0.3426</v>
       </c>
       <c r="D236">
-        <v>0.3955</v>
+        <v>0.3954</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3977,13 +3977,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.7352</v>
+        <v>0.7356</v>
       </c>
       <c r="C237">
-        <v>0.3405</v>
+        <v>0.3409</v>
       </c>
       <c r="D237">
-        <v>0.3948</v>
+        <v>0.3947</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3991,10 +3991,10 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.7334000000000001</v>
+        <v>0.7338</v>
       </c>
       <c r="C238">
-        <v>0.3394</v>
+        <v>0.3398</v>
       </c>
       <c r="D238">
         <v>0.394</v>
@@ -4005,13 +4005,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.7241</v>
+        <v>0.7245</v>
       </c>
       <c r="C239">
-        <v>0.3311</v>
+        <v>0.3315</v>
       </c>
       <c r="D239">
-        <v>0.3931</v>
+        <v>0.393</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4019,10 +4019,10 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.721</v>
+        <v>0.7215</v>
       </c>
       <c r="C240">
-        <v>0.3288</v>
+        <v>0.3293</v>
       </c>
       <c r="D240">
         <v>0.3922</v>
@@ -4033,10 +4033,10 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.7181999999999999</v>
+        <v>0.7186</v>
       </c>
       <c r="C241">
-        <v>0.3276</v>
+        <v>0.328</v>
       </c>
       <c r="D241">
         <v>0.3906</v>
@@ -4047,10 +4047,10 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.7159</v>
+        <v>0.7163</v>
       </c>
       <c r="C242">
-        <v>0.3289</v>
+        <v>0.3293</v>
       </c>
       <c r="D242">
         <v>0.387</v>
@@ -4061,10 +4061,10 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.7083</v>
+        <v>0.7087</v>
       </c>
       <c r="C243">
-        <v>0.3236</v>
+        <v>0.324</v>
       </c>
       <c r="D243">
         <v>0.3847</v>
@@ -4075,10 +4075,10 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.7043</v>
+        <v>0.7047</v>
       </c>
       <c r="C244">
-        <v>0.3199</v>
+        <v>0.3203</v>
       </c>
       <c r="D244">
         <v>0.3844</v>
@@ -4089,10 +4089,10 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.6937</v>
+        <v>0.6941000000000001</v>
       </c>
       <c r="C245">
-        <v>0.3105</v>
+        <v>0.3109</v>
       </c>
       <c r="D245">
         <v>0.3832</v>
@@ -4103,10 +4103,10 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.6893</v>
+        <v>0.6898</v>
       </c>
       <c r="C246">
-        <v>0.307</v>
+        <v>0.3074</v>
       </c>
       <c r="D246">
         <v>0.3823</v>
@@ -4117,13 +4117,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.6823</v>
+        <v>0.6827</v>
       </c>
       <c r="C247">
-        <v>0.3004</v>
+        <v>0.3008</v>
       </c>
       <c r="D247">
-        <v>0.3819</v>
+        <v>0.382</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4131,13 +4131,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.6751</v>
+        <v>0.6756</v>
       </c>
       <c r="C248">
-        <v>0.2936</v>
+        <v>0.294</v>
       </c>
       <c r="D248">
-        <v>0.3815</v>
+        <v>0.3816</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4145,10 +4145,10 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.6681</v>
+        <v>0.6685</v>
       </c>
       <c r="C249">
-        <v>0.287</v>
+        <v>0.2874</v>
       </c>
       <c r="D249">
         <v>0.3811</v>
@@ -4159,13 +4159,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.6607</v>
+        <v>0.6611</v>
       </c>
       <c r="C250">
-        <v>0.2801</v>
+        <v>0.2804</v>
       </c>
       <c r="D250">
-        <v>0.3806</v>
+        <v>0.3807</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4173,13 +4173,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.6533</v>
+        <v>0.6538</v>
       </c>
       <c r="C251">
-        <v>0.2729</v>
+        <v>0.2733</v>
       </c>
       <c r="D251">
-        <v>0.3804</v>
+        <v>0.3805</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4187,13 +4187,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>0.6455</v>
+        <v>0.646</v>
       </c>
       <c r="C252">
-        <v>0.2648</v>
+        <v>0.2652</v>
       </c>
       <c r="D252">
-        <v>0.3807</v>
+        <v>0.3808</v>
       </c>
     </row>
   </sheetData>

--- a/5/9/Índice de stress local 2008 - Diaria.xlsx
+++ b/5/9/Índice de stress local 2008 - Diaria.xlsx
@@ -1161,10 +1161,10 @@
         <v>4</v>
       </c>
       <c r="B2">
-        <v>0.2899</v>
+        <v>0.287</v>
       </c>
       <c r="C2">
-        <v>0.2899</v>
+        <v>0.287</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -1172,10 +1172,10 @@
         <v>5</v>
       </c>
       <c r="B3">
-        <v>0.2904</v>
+        <v>0.2878</v>
       </c>
       <c r="C3">
-        <v>0.2904</v>
+        <v>0.2878</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -1183,10 +1183,10 @@
         <v>6</v>
       </c>
       <c r="B4">
-        <v>0.2789</v>
+        <v>0.2765</v>
       </c>
       <c r="C4">
-        <v>0.2789</v>
+        <v>0.2765</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -1194,10 +1194,10 @@
         <v>7</v>
       </c>
       <c r="B5">
-        <v>0.2775</v>
+        <v>0.2753</v>
       </c>
       <c r="C5">
-        <v>0.2775</v>
+        <v>0.2753</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -1205,10 +1205,10 @@
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.2719</v>
+        <v>0.2698</v>
       </c>
       <c r="C6">
-        <v>0.2719</v>
+        <v>0.2698</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -1216,10 +1216,10 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.271</v>
+        <v>0.2691</v>
       </c>
       <c r="C7">
-        <v>0.271</v>
+        <v>0.2691</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -1227,10 +1227,10 @@
         <v>10</v>
       </c>
       <c r="B8">
-        <v>0.2682</v>
+        <v>0.2664</v>
       </c>
       <c r="C8">
-        <v>0.2682</v>
+        <v>0.2664</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -1238,10 +1238,10 @@
         <v>11</v>
       </c>
       <c r="B9">
-        <v>0.2668</v>
+        <v>0.2651</v>
       </c>
       <c r="C9">
-        <v>0.2668</v>
+        <v>0.2651</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -1249,10 +1249,10 @@
         <v>12</v>
       </c>
       <c r="B10">
-        <v>0.2594</v>
+        <v>0.2578</v>
       </c>
       <c r="C10">
-        <v>0.2594</v>
+        <v>0.2578</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -1260,10 +1260,10 @@
         <v>13</v>
       </c>
       <c r="B11">
-        <v>0.2642</v>
+        <v>0.2627</v>
       </c>
       <c r="C11">
-        <v>0.2642</v>
+        <v>0.2627</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -1271,10 +1271,10 @@
         <v>14</v>
       </c>
       <c r="B12">
-        <v>0.2664</v>
+        <v>0.265</v>
       </c>
       <c r="C12">
-        <v>0.2664</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -1282,10 +1282,10 @@
         <v>15</v>
       </c>
       <c r="B13">
-        <v>0.2697</v>
+        <v>0.2684</v>
       </c>
       <c r="C13">
-        <v>0.2697</v>
+        <v>0.2684</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -1293,10 +1293,10 @@
         <v>16</v>
       </c>
       <c r="B14">
-        <v>0.2633</v>
+        <v>0.262</v>
       </c>
       <c r="C14">
-        <v>0.2633</v>
+        <v>0.262</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -1304,10 +1304,10 @@
         <v>17</v>
       </c>
       <c r="B15">
-        <v>0.2634</v>
+        <v>0.2621</v>
       </c>
       <c r="C15">
-        <v>0.2634</v>
+        <v>0.2621</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -1315,10 +1315,10 @@
         <v>18</v>
       </c>
       <c r="B16">
-        <v>0.2667</v>
+        <v>0.2655</v>
       </c>
       <c r="C16">
-        <v>0.2667</v>
+        <v>0.2655</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1326,10 +1326,10 @@
         <v>19</v>
       </c>
       <c r="B17">
-        <v>0.2682</v>
+        <v>0.267</v>
       </c>
       <c r="C17">
-        <v>0.2682</v>
+        <v>0.267</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1337,10 +1337,10 @@
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0.2639</v>
+        <v>0.2627</v>
       </c>
       <c r="C18">
-        <v>0.2639</v>
+        <v>0.2627</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1348,10 +1348,10 @@
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0.2668</v>
+        <v>0.2657</v>
       </c>
       <c r="C19">
-        <v>0.2668</v>
+        <v>0.2657</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1359,10 +1359,10 @@
         <v>22</v>
       </c>
       <c r="B20">
-        <v>0.2812</v>
+        <v>0.2801</v>
       </c>
       <c r="C20">
-        <v>0.2812</v>
+        <v>0.2801</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1370,10 +1370,10 @@
         <v>23</v>
       </c>
       <c r="B21">
-        <v>0.2832</v>
+        <v>0.2822</v>
       </c>
       <c r="C21">
-        <v>0.2832</v>
+        <v>0.2822</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1381,10 +1381,10 @@
         <v>24</v>
       </c>
       <c r="B22">
-        <v>0.2817</v>
+        <v>0.2807</v>
       </c>
       <c r="C22">
-        <v>0.2817</v>
+        <v>0.2807</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1392,10 +1392,10 @@
         <v>25</v>
       </c>
       <c r="B23">
-        <v>0.2779</v>
+        <v>0.2769</v>
       </c>
       <c r="C23">
-        <v>0.2779</v>
+        <v>0.2769</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1403,10 +1403,10 @@
         <v>26</v>
       </c>
       <c r="B24">
-        <v>0.2794</v>
+        <v>0.2784</v>
       </c>
       <c r="C24">
-        <v>0.2794</v>
+        <v>0.2784</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1414,10 +1414,10 @@
         <v>27</v>
       </c>
       <c r="B25">
-        <v>0.2808</v>
+        <v>0.2799</v>
       </c>
       <c r="C25">
-        <v>0.2808</v>
+        <v>0.2799</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1425,10 +1425,10 @@
         <v>28</v>
       </c>
       <c r="B26">
-        <v>0.2926</v>
+        <v>0.2918</v>
       </c>
       <c r="C26">
-        <v>0.2926</v>
+        <v>0.2918</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1436,10 +1436,10 @@
         <v>29</v>
       </c>
       <c r="B27">
-        <v>0.2907</v>
+        <v>0.2899</v>
       </c>
       <c r="C27">
-        <v>0.2907</v>
+        <v>0.2899</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1447,10 +1447,10 @@
         <v>30</v>
       </c>
       <c r="B28">
-        <v>0.2905</v>
+        <v>0.2897</v>
       </c>
       <c r="C28">
-        <v>0.2905</v>
+        <v>0.2897</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1458,10 +1458,10 @@
         <v>31</v>
       </c>
       <c r="B29">
-        <v>0.2902</v>
+        <v>0.2894</v>
       </c>
       <c r="C29">
-        <v>0.2902</v>
+        <v>0.2894</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1469,10 +1469,10 @@
         <v>32</v>
       </c>
       <c r="B30">
-        <v>0.2962</v>
+        <v>0.2955</v>
       </c>
       <c r="C30">
-        <v>0.2962</v>
+        <v>0.2955</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1480,10 +1480,10 @@
         <v>33</v>
       </c>
       <c r="B31">
-        <v>0.2906</v>
+        <v>0.2899</v>
       </c>
       <c r="C31">
-        <v>0.2906</v>
+        <v>0.2899</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1491,10 +1491,10 @@
         <v>34</v>
       </c>
       <c r="B32">
-        <v>0.2943</v>
+        <v>0.2937</v>
       </c>
       <c r="C32">
-        <v>0.2943</v>
+        <v>0.2937</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1502,10 +1502,10 @@
         <v>35</v>
       </c>
       <c r="B33">
-        <v>0.2977</v>
+        <v>0.2971</v>
       </c>
       <c r="C33">
-        <v>0.2977</v>
+        <v>0.2971</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1513,10 +1513,10 @@
         <v>36</v>
       </c>
       <c r="B34">
-        <v>0.3012</v>
+        <v>0.3006</v>
       </c>
       <c r="C34">
-        <v>0.3012</v>
+        <v>0.3006</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1524,10 +1524,10 @@
         <v>37</v>
       </c>
       <c r="B35">
-        <v>0.2958</v>
+        <v>0.2953</v>
       </c>
       <c r="C35">
-        <v>0.2958</v>
+        <v>0.2953</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1535,10 +1535,10 @@
         <v>38</v>
       </c>
       <c r="B36">
-        <v>0.2969</v>
+        <v>0.2964</v>
       </c>
       <c r="C36">
-        <v>0.2969</v>
+        <v>0.2964</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1546,10 +1546,10 @@
         <v>39</v>
       </c>
       <c r="B37">
-        <v>0.2915</v>
+        <v>0.291</v>
       </c>
       <c r="C37">
-        <v>0.2915</v>
+        <v>0.291</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1557,10 +1557,10 @@
         <v>40</v>
       </c>
       <c r="B38">
-        <v>0.3007</v>
+        <v>0.3003</v>
       </c>
       <c r="C38">
-        <v>0.3007</v>
+        <v>0.3003</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1568,10 +1568,10 @@
         <v>41</v>
       </c>
       <c r="B39">
-        <v>0.2919</v>
+        <v>0.2915</v>
       </c>
       <c r="C39">
-        <v>0.2919</v>
+        <v>0.2915</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1579,10 +1579,10 @@
         <v>42</v>
       </c>
       <c r="B40">
-        <v>0.2761</v>
+        <v>0.2757</v>
       </c>
       <c r="C40">
-        <v>0.2761</v>
+        <v>0.2757</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -1590,10 +1590,10 @@
         <v>43</v>
       </c>
       <c r="B41">
-        <v>0.2733</v>
+        <v>0.273</v>
       </c>
       <c r="C41">
-        <v>0.2733</v>
+        <v>0.273</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -1601,10 +1601,10 @@
         <v>44</v>
       </c>
       <c r="B42">
-        <v>0.2691</v>
+        <v>0.2688</v>
       </c>
       <c r="C42">
-        <v>0.2691</v>
+        <v>0.2688</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1612,10 +1612,10 @@
         <v>45</v>
       </c>
       <c r="B43">
-        <v>0.2653</v>
+        <v>0.265</v>
       </c>
       <c r="C43">
-        <v>0.2653</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1623,10 +1623,10 @@
         <v>46</v>
       </c>
       <c r="B44">
-        <v>0.26</v>
+        <v>0.2597</v>
       </c>
       <c r="C44">
-        <v>0.26</v>
+        <v>0.2597</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1634,10 +1634,10 @@
         <v>47</v>
       </c>
       <c r="B45">
-        <v>0.2593</v>
+        <v>0.259</v>
       </c>
       <c r="C45">
-        <v>0.2593</v>
+        <v>0.259</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1645,10 +1645,10 @@
         <v>48</v>
       </c>
       <c r="B46">
-        <v>0.2453</v>
+        <v>0.245</v>
       </c>
       <c r="C46">
-        <v>0.2453</v>
+        <v>0.245</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1656,10 +1656,10 @@
         <v>49</v>
       </c>
       <c r="B47">
-        <v>0.2433</v>
+        <v>0.243</v>
       </c>
       <c r="C47">
-        <v>0.2433</v>
+        <v>0.243</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1667,10 +1667,10 @@
         <v>50</v>
       </c>
       <c r="B48">
-        <v>0.2394</v>
+        <v>0.2391</v>
       </c>
       <c r="C48">
-        <v>0.2394</v>
+        <v>0.2391</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1678,10 +1678,10 @@
         <v>51</v>
       </c>
       <c r="B49">
-        <v>0.2504</v>
+        <v>0.2501</v>
       </c>
       <c r="C49">
-        <v>0.2504</v>
+        <v>0.2501</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1689,10 +1689,10 @@
         <v>52</v>
       </c>
       <c r="B50">
-        <v>0.2472</v>
+        <v>0.2469</v>
       </c>
       <c r="C50">
-        <v>0.2472</v>
+        <v>0.2469</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1700,10 +1700,10 @@
         <v>53</v>
       </c>
       <c r="B51">
-        <v>0.2507</v>
+        <v>0.2504</v>
       </c>
       <c r="C51">
-        <v>0.2507</v>
+        <v>0.2504</v>
       </c>
     </row>
     <row r="52" spans="1:3">
@@ -1711,10 +1711,10 @@
         <v>54</v>
       </c>
       <c r="B52">
-        <v>0.2499</v>
+        <v>0.2495</v>
       </c>
       <c r="C52">
-        <v>0.2499</v>
+        <v>0.2495</v>
       </c>
     </row>
     <row r="53" spans="1:3">
@@ -1722,10 +1722,10 @@
         <v>55</v>
       </c>
       <c r="B53">
-        <v>0.2492</v>
+        <v>0.2488</v>
       </c>
       <c r="C53">
-        <v>0.2492</v>
+        <v>0.2488</v>
       </c>
     </row>
     <row r="54" spans="1:3">
@@ -1733,10 +1733,10 @@
         <v>56</v>
       </c>
       <c r="B54">
-        <v>0.2503</v>
+        <v>0.2499</v>
       </c>
       <c r="C54">
-        <v>0.2503</v>
+        <v>0.2499</v>
       </c>
     </row>
     <row r="55" spans="1:3">
@@ -1744,10 +1744,10 @@
         <v>57</v>
       </c>
       <c r="B55">
-        <v>0.2635</v>
+        <v>0.263</v>
       </c>
       <c r="C55">
-        <v>0.2635</v>
+        <v>0.263</v>
       </c>
     </row>
     <row r="56" spans="1:3">
@@ -1755,10 +1755,10 @@
         <v>58</v>
       </c>
       <c r="B56">
-        <v>0.2618</v>
+        <v>0.2613</v>
       </c>
       <c r="C56">
-        <v>0.2618</v>
+        <v>0.2613</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -1766,10 +1766,10 @@
         <v>59</v>
       </c>
       <c r="B57">
-        <v>0.2672</v>
+        <v>0.2668</v>
       </c>
       <c r="C57">
-        <v>0.2672</v>
+        <v>0.2668</v>
       </c>
     </row>
     <row r="58" spans="1:3">
@@ -1777,10 +1777,10 @@
         <v>60</v>
       </c>
       <c r="B58">
-        <v>0.2661</v>
+        <v>0.2656</v>
       </c>
       <c r="C58">
-        <v>0.2661</v>
+        <v>0.2656</v>
       </c>
     </row>
     <row r="59" spans="1:3">
@@ -1788,10 +1788,10 @@
         <v>61</v>
       </c>
       <c r="B59">
-        <v>0.2772</v>
+        <v>0.2767</v>
       </c>
       <c r="C59">
-        <v>0.2772</v>
+        <v>0.2767</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -1799,10 +1799,10 @@
         <v>62</v>
       </c>
       <c r="B60">
-        <v>0.2865</v>
+        <v>0.2859</v>
       </c>
       <c r="C60">
-        <v>0.2865</v>
+        <v>0.2859</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -1810,10 +1810,10 @@
         <v>63</v>
       </c>
       <c r="B61">
-        <v>0.2956</v>
+        <v>0.295</v>
       </c>
       <c r="C61">
-        <v>0.2956</v>
+        <v>0.295</v>
       </c>
     </row>
     <row r="62" spans="1:3">
@@ -1821,10 +1821,10 @@
         <v>64</v>
       </c>
       <c r="B62">
-        <v>0.3093</v>
+        <v>0.3087</v>
       </c>
       <c r="C62">
-        <v>0.3093</v>
+        <v>0.3087</v>
       </c>
     </row>
     <row r="63" spans="1:3">
@@ -1832,10 +1832,10 @@
         <v>65</v>
       </c>
       <c r="B63">
-        <v>0.3394</v>
+        <v>0.3388</v>
       </c>
       <c r="C63">
-        <v>0.3394</v>
+        <v>0.3388</v>
       </c>
     </row>
     <row r="64" spans="1:3">
@@ -1843,10 +1843,10 @@
         <v>66</v>
       </c>
       <c r="B64">
-        <v>0.36</v>
+        <v>0.3594</v>
       </c>
       <c r="C64">
-        <v>0.36</v>
+        <v>0.3594</v>
       </c>
     </row>
     <row r="65" spans="1:3">
@@ -1854,10 +1854,10 @@
         <v>67</v>
       </c>
       <c r="B65">
-        <v>0.3853</v>
+        <v>0.3847</v>
       </c>
       <c r="C65">
-        <v>0.3853</v>
+        <v>0.3847</v>
       </c>
     </row>
     <row r="66" spans="1:3">
@@ -1865,10 +1865,10 @@
         <v>68</v>
       </c>
       <c r="B66">
-        <v>0.4052</v>
+        <v>0.4045</v>
       </c>
       <c r="C66">
-        <v>0.4052</v>
+        <v>0.4045</v>
       </c>
     </row>
     <row r="67" spans="1:3">
@@ -1876,10 +1876,10 @@
         <v>69</v>
       </c>
       <c r="B67">
-        <v>0.4198</v>
+        <v>0.4191</v>
       </c>
       <c r="C67">
-        <v>0.4198</v>
+        <v>0.4191</v>
       </c>
     </row>
     <row r="68" spans="1:3">
@@ -1887,10 +1887,10 @@
         <v>70</v>
       </c>
       <c r="B68">
-        <v>0.4427</v>
+        <v>0.4421</v>
       </c>
       <c r="C68">
-        <v>0.4427</v>
+        <v>0.4421</v>
       </c>
     </row>
     <row r="69" spans="1:3">
@@ -1898,10 +1898,10 @@
         <v>71</v>
       </c>
       <c r="B69">
-        <v>0.4488</v>
+        <v>0.4482</v>
       </c>
       <c r="C69">
-        <v>0.4488</v>
+        <v>0.4482</v>
       </c>
     </row>
     <row r="70" spans="1:3">
@@ -1909,10 +1909,10 @@
         <v>72</v>
       </c>
       <c r="B70">
-        <v>0.4582</v>
+        <v>0.4576</v>
       </c>
       <c r="C70">
-        <v>0.4582</v>
+        <v>0.4576</v>
       </c>
     </row>
     <row r="71" spans="1:3">
@@ -1920,10 +1920,10 @@
         <v>73</v>
       </c>
       <c r="B71">
-        <v>0.4667</v>
+        <v>0.4661</v>
       </c>
       <c r="C71">
-        <v>0.4667</v>
+        <v>0.4661</v>
       </c>
     </row>
     <row r="72" spans="1:3">
@@ -1931,10 +1931,10 @@
         <v>74</v>
       </c>
       <c r="B72">
-        <v>0.4686</v>
+        <v>0.4681</v>
       </c>
       <c r="C72">
-        <v>0.4686</v>
+        <v>0.4681</v>
       </c>
     </row>
     <row r="73" spans="1:3">
@@ -1942,10 +1942,10 @@
         <v>75</v>
       </c>
       <c r="B73">
-        <v>0.4768</v>
+        <v>0.4763</v>
       </c>
       <c r="C73">
-        <v>0.4768</v>
+        <v>0.4763</v>
       </c>
     </row>
     <row r="74" spans="1:3">
@@ -1953,10 +1953,10 @@
         <v>76</v>
       </c>
       <c r="B74">
-        <v>0.4938</v>
+        <v>0.4933</v>
       </c>
       <c r="C74">
-        <v>0.4938</v>
+        <v>0.4933</v>
       </c>
     </row>
     <row r="75" spans="1:3">
@@ -1964,10 +1964,10 @@
         <v>77</v>
       </c>
       <c r="B75">
-        <v>0.4916</v>
+        <v>0.4911</v>
       </c>
       <c r="C75">
-        <v>0.4916</v>
+        <v>0.4911</v>
       </c>
     </row>
     <row r="76" spans="1:3">
@@ -1975,10 +1975,10 @@
         <v>78</v>
       </c>
       <c r="B76">
-        <v>0.5093</v>
+        <v>0.5088</v>
       </c>
       <c r="C76">
-        <v>0.5093</v>
+        <v>0.5088</v>
       </c>
     </row>
     <row r="77" spans="1:3">
@@ -1986,10 +1986,10 @@
         <v>79</v>
       </c>
       <c r="B77">
-        <v>0.5264</v>
+        <v>0.5259</v>
       </c>
       <c r="C77">
-        <v>0.5264</v>
+        <v>0.5259</v>
       </c>
     </row>
     <row r="78" spans="1:3">
@@ -1997,10 +1997,10 @@
         <v>80</v>
       </c>
       <c r="B78">
-        <v>0.528</v>
+        <v>0.5275</v>
       </c>
       <c r="C78">
-        <v>0.528</v>
+        <v>0.5275</v>
       </c>
     </row>
     <row r="79" spans="1:3">
@@ -2008,10 +2008,10 @@
         <v>81</v>
       </c>
       <c r="B79">
-        <v>0.5272</v>
+        <v>0.5268</v>
       </c>
       <c r="C79">
-        <v>0.5272</v>
+        <v>0.5268</v>
       </c>
     </row>
     <row r="80" spans="1:3">
@@ -2019,10 +2019,10 @@
         <v>82</v>
       </c>
       <c r="B80">
-        <v>0.5417999999999999</v>
+        <v>0.5414</v>
       </c>
       <c r="C80">
-        <v>0.5417999999999999</v>
+        <v>0.5414</v>
       </c>
     </row>
     <row r="81" spans="1:3">
@@ -2030,10 +2030,10 @@
         <v>83</v>
       </c>
       <c r="B81">
-        <v>0.5482</v>
+        <v>0.5479000000000001</v>
       </c>
       <c r="C81">
-        <v>0.5482</v>
+        <v>0.5479000000000001</v>
       </c>
     </row>
     <row r="82" spans="1:3">
@@ -2041,10 +2041,10 @@
         <v>84</v>
       </c>
       <c r="B82">
-        <v>0.5531</v>
+        <v>0.5528</v>
       </c>
       <c r="C82">
-        <v>0.5531</v>
+        <v>0.5528</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2052,10 +2052,10 @@
         <v>85</v>
       </c>
       <c r="B83">
-        <v>0.5447</v>
+        <v>0.5444</v>
       </c>
       <c r="C83">
-        <v>0.5447</v>
+        <v>0.5444</v>
       </c>
     </row>
     <row r="84" spans="1:3">
@@ -2063,10 +2063,10 @@
         <v>86</v>
       </c>
       <c r="B84">
-        <v>0.5375</v>
+        <v>0.5372</v>
       </c>
       <c r="C84">
-        <v>0.5375</v>
+        <v>0.5372</v>
       </c>
     </row>
     <row r="85" spans="1:3">
@@ -2074,10 +2074,10 @@
         <v>87</v>
       </c>
       <c r="B85">
-        <v>0.5161</v>
+        <v>0.5158</v>
       </c>
       <c r="C85">
-        <v>0.5161</v>
+        <v>0.5158</v>
       </c>
     </row>
     <row r="86" spans="1:3">
@@ -2085,10 +2085,10 @@
         <v>88</v>
       </c>
       <c r="B86">
-        <v>0.5134</v>
+        <v>0.5132</v>
       </c>
       <c r="C86">
-        <v>0.5134</v>
+        <v>0.5132</v>
       </c>
     </row>
     <row r="87" spans="1:3">
@@ -2096,10 +2096,10 @@
         <v>89</v>
       </c>
       <c r="B87">
-        <v>0.5054999999999999</v>
+        <v>0.5053</v>
       </c>
       <c r="C87">
-        <v>0.5054999999999999</v>
+        <v>0.5053</v>
       </c>
     </row>
     <row r="88" spans="1:3">
@@ -2107,10 +2107,10 @@
         <v>90</v>
       </c>
       <c r="B88">
-        <v>0.4993</v>
+        <v>0.4991</v>
       </c>
       <c r="C88">
-        <v>0.4993</v>
+        <v>0.4991</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2118,10 +2118,10 @@
         <v>91</v>
       </c>
       <c r="B89">
-        <v>0.4924</v>
+        <v>0.4922</v>
       </c>
       <c r="C89">
-        <v>0.4924</v>
+        <v>0.4922</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2129,10 +2129,10 @@
         <v>92</v>
       </c>
       <c r="B90">
-        <v>0.4876</v>
+        <v>0.4874</v>
       </c>
       <c r="C90">
-        <v>0.4876</v>
+        <v>0.4874</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2140,10 +2140,10 @@
         <v>93</v>
       </c>
       <c r="B91">
-        <v>0.4822</v>
+        <v>0.482</v>
       </c>
       <c r="C91">
-        <v>0.4822</v>
+        <v>0.482</v>
       </c>
     </row>
     <row r="92" spans="1:3">
@@ -2151,10 +2151,10 @@
         <v>94</v>
       </c>
       <c r="B92">
-        <v>0.5001</v>
+        <v>0.4999</v>
       </c>
       <c r="C92">
-        <v>0.5001</v>
+        <v>0.4999</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2162,10 +2162,10 @@
         <v>95</v>
       </c>
       <c r="B93">
-        <v>0.4942</v>
+        <v>0.494</v>
       </c>
       <c r="C93">
-        <v>0.4942</v>
+        <v>0.494</v>
       </c>
     </row>
     <row r="94" spans="1:3">
@@ -2173,10 +2173,10 @@
         <v>96</v>
       </c>
       <c r="B94">
-        <v>0.4768</v>
+        <v>0.4767</v>
       </c>
       <c r="C94">
-        <v>0.4768</v>
+        <v>0.4767</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2184,10 +2184,10 @@
         <v>97</v>
       </c>
       <c r="B95">
-        <v>0.4693</v>
+        <v>0.4691</v>
       </c>
       <c r="C95">
-        <v>0.4693</v>
+        <v>0.4691</v>
       </c>
     </row>
     <row r="96" spans="1:3">
@@ -2195,10 +2195,10 @@
         <v>98</v>
       </c>
       <c r="B96">
-        <v>0.4487</v>
+        <v>0.4486</v>
       </c>
       <c r="C96">
-        <v>0.4487</v>
+        <v>0.4486</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2217,10 +2217,10 @@
         <v>100</v>
       </c>
       <c r="B98">
-        <v>0.423</v>
+        <v>0.4229</v>
       </c>
       <c r="C98">
-        <v>0.423</v>
+        <v>0.4229</v>
       </c>
     </row>
     <row r="99" spans="1:3">
@@ -2261,10 +2261,10 @@
         <v>104</v>
       </c>
       <c r="B102">
-        <v>0.3847</v>
+        <v>0.3848</v>
       </c>
       <c r="C102">
-        <v>0.3847</v>
+        <v>0.3848</v>
       </c>
     </row>
     <row r="103" spans="1:3">
@@ -2272,10 +2272,10 @@
         <v>105</v>
       </c>
       <c r="B103">
-        <v>0.3669</v>
+        <v>0.367</v>
       </c>
       <c r="C103">
-        <v>0.3669</v>
+        <v>0.367</v>
       </c>
     </row>
     <row r="104" spans="1:3">
@@ -2283,10 +2283,10 @@
         <v>106</v>
       </c>
       <c r="B104">
-        <v>0.3592</v>
+        <v>0.3593</v>
       </c>
       <c r="C104">
-        <v>0.3592</v>
+        <v>0.3593</v>
       </c>
     </row>
     <row r="105" spans="1:3">
@@ -2294,10 +2294,10 @@
         <v>107</v>
       </c>
       <c r="B105">
-        <v>0.3569</v>
+        <v>0.357</v>
       </c>
       <c r="C105">
-        <v>0.3569</v>
+        <v>0.357</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -2316,10 +2316,10 @@
         <v>109</v>
       </c>
       <c r="B107">
-        <v>0.3435</v>
+        <v>0.3436</v>
       </c>
       <c r="C107">
-        <v>0.3435</v>
+        <v>0.3436</v>
       </c>
     </row>
     <row r="108" spans="1:3">
@@ -2349,10 +2349,10 @@
         <v>112</v>
       </c>
       <c r="B110">
-        <v>0.3343</v>
+        <v>0.3342</v>
       </c>
       <c r="C110">
-        <v>0.3343</v>
+        <v>0.3342</v>
       </c>
     </row>
     <row r="111" spans="1:3">
@@ -2393,10 +2393,10 @@
         <v>116</v>
       </c>
       <c r="B114">
-        <v>0.3128</v>
+        <v>0.3127</v>
       </c>
       <c r="C114">
-        <v>0.3128</v>
+        <v>0.3127</v>
       </c>
     </row>
     <row r="115" spans="1:3">
@@ -2404,10 +2404,10 @@
         <v>117</v>
       </c>
       <c r="B115">
-        <v>0.3152</v>
+        <v>0.3151</v>
       </c>
       <c r="C115">
-        <v>0.3152</v>
+        <v>0.3151</v>
       </c>
     </row>
     <row r="116" spans="1:3">
@@ -2415,10 +2415,10 @@
         <v>118</v>
       </c>
       <c r="B116">
-        <v>0.331</v>
+        <v>0.3308</v>
       </c>
       <c r="C116">
-        <v>0.331</v>
+        <v>0.3308</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -2426,10 +2426,10 @@
         <v>119</v>
       </c>
       <c r="B117">
-        <v>0.3309</v>
+        <v>0.3306</v>
       </c>
       <c r="C117">
-        <v>0.3309</v>
+        <v>0.3306</v>
       </c>
     </row>
     <row r="118" spans="1:3">
@@ -2437,10 +2437,10 @@
         <v>120</v>
       </c>
       <c r="B118">
-        <v>0.3321</v>
+        <v>0.3318</v>
       </c>
       <c r="C118">
-        <v>0.3321</v>
+        <v>0.3318</v>
       </c>
     </row>
     <row r="119" spans="1:3">
@@ -2448,10 +2448,10 @@
         <v>121</v>
       </c>
       <c r="B119">
-        <v>0.3399</v>
+        <v>0.3396</v>
       </c>
       <c r="C119">
-        <v>0.3399</v>
+        <v>0.3396</v>
       </c>
     </row>
     <row r="120" spans="1:3">
@@ -2459,10 +2459,10 @@
         <v>122</v>
       </c>
       <c r="B120">
-        <v>0.3448</v>
+        <v>0.3444</v>
       </c>
       <c r="C120">
-        <v>0.3448</v>
+        <v>0.3444</v>
       </c>
     </row>
     <row r="121" spans="1:3">
@@ -2470,10 +2470,10 @@
         <v>123</v>
       </c>
       <c r="B121">
-        <v>0.3489</v>
+        <v>0.3485</v>
       </c>
       <c r="C121">
-        <v>0.3489</v>
+        <v>0.3485</v>
       </c>
     </row>
     <row r="122" spans="1:3">
@@ -2481,10 +2481,10 @@
         <v>124</v>
       </c>
       <c r="B122">
-        <v>0.3533</v>
+        <v>0.3529</v>
       </c>
       <c r="C122">
-        <v>0.3533</v>
+        <v>0.3529</v>
       </c>
     </row>
     <row r="123" spans="1:3">
@@ -2492,10 +2492,10 @@
         <v>125</v>
       </c>
       <c r="B123">
-        <v>0.3658</v>
+        <v>0.3654</v>
       </c>
       <c r="C123">
-        <v>0.3658</v>
+        <v>0.3654</v>
       </c>
     </row>
     <row r="124" spans="1:3">
@@ -2503,10 +2503,10 @@
         <v>126</v>
       </c>
       <c r="B124">
-        <v>0.3683</v>
+        <v>0.3679</v>
       </c>
       <c r="C124">
-        <v>0.3683</v>
+        <v>0.3679</v>
       </c>
     </row>
     <row r="125" spans="1:3">
@@ -2514,10 +2514,10 @@
         <v>127</v>
       </c>
       <c r="B125">
-        <v>0.3738</v>
+        <v>0.3734</v>
       </c>
       <c r="C125">
-        <v>0.3738</v>
+        <v>0.3734</v>
       </c>
     </row>
     <row r="126" spans="1:3">
@@ -2525,10 +2525,10 @@
         <v>128</v>
       </c>
       <c r="B126">
-        <v>0.3811</v>
+        <v>0.3807</v>
       </c>
       <c r="C126">
-        <v>0.3811</v>
+        <v>0.3807</v>
       </c>
     </row>
     <row r="127" spans="1:3">
@@ -2536,10 +2536,10 @@
         <v>129</v>
       </c>
       <c r="B127">
-        <v>0.3903</v>
+        <v>0.3899</v>
       </c>
       <c r="C127">
-        <v>0.3903</v>
+        <v>0.3899</v>
       </c>
     </row>
     <row r="128" spans="1:3">
@@ -2547,10 +2547,10 @@
         <v>130</v>
       </c>
       <c r="B128">
-        <v>0.408</v>
+        <v>0.4075</v>
       </c>
       <c r="C128">
-        <v>0.408</v>
+        <v>0.4075</v>
       </c>
     </row>
     <row r="129" spans="1:3">
@@ -2558,10 +2558,10 @@
         <v>131</v>
       </c>
       <c r="B129">
-        <v>0.4113</v>
+        <v>0.4108</v>
       </c>
       <c r="C129">
-        <v>0.4113</v>
+        <v>0.4108</v>
       </c>
     </row>
     <row r="130" spans="1:3">
@@ -2569,10 +2569,10 @@
         <v>132</v>
       </c>
       <c r="B130">
-        <v>0.4119</v>
+        <v>0.4114</v>
       </c>
       <c r="C130">
-        <v>0.4119</v>
+        <v>0.4114</v>
       </c>
     </row>
     <row r="131" spans="1:3">
@@ -2580,10 +2580,10 @@
         <v>133</v>
       </c>
       <c r="B131">
-        <v>0.4205</v>
+        <v>0.42</v>
       </c>
       <c r="C131">
-        <v>0.4205</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="132" spans="1:3">
@@ -2591,10 +2591,10 @@
         <v>134</v>
       </c>
       <c r="B132">
-        <v>0.4326</v>
+        <v>0.4321</v>
       </c>
       <c r="C132">
-        <v>0.4326</v>
+        <v>0.4321</v>
       </c>
     </row>
     <row r="133" spans="1:3">
@@ -2602,10 +2602,10 @@
         <v>135</v>
       </c>
       <c r="B133">
-        <v>0.4402</v>
+        <v>0.4397</v>
       </c>
       <c r="C133">
-        <v>0.4402</v>
+        <v>0.4397</v>
       </c>
     </row>
     <row r="134" spans="1:3">
@@ -2613,10 +2613,10 @@
         <v>136</v>
       </c>
       <c r="B134">
-        <v>0.4456</v>
+        <v>0.4451</v>
       </c>
       <c r="C134">
-        <v>0.4456</v>
+        <v>0.4451</v>
       </c>
     </row>
     <row r="135" spans="1:3">
@@ -2624,10 +2624,10 @@
         <v>137</v>
       </c>
       <c r="B135">
-        <v>0.4513</v>
+        <v>0.4508</v>
       </c>
       <c r="C135">
-        <v>0.4513</v>
+        <v>0.4508</v>
       </c>
     </row>
     <row r="136" spans="1:3">
@@ -2635,10 +2635,10 @@
         <v>138</v>
       </c>
       <c r="B136">
-        <v>0.4456</v>
+        <v>0.4452</v>
       </c>
       <c r="C136">
-        <v>0.4456</v>
+        <v>0.4452</v>
       </c>
     </row>
     <row r="137" spans="1:3">
@@ -2646,10 +2646,10 @@
         <v>139</v>
       </c>
       <c r="B137">
-        <v>0.4537</v>
+        <v>0.4532</v>
       </c>
       <c r="C137">
-        <v>0.4537</v>
+        <v>0.4532</v>
       </c>
     </row>
     <row r="138" spans="1:3">
@@ -2657,10 +2657,10 @@
         <v>140</v>
       </c>
       <c r="B138">
-        <v>0.4634</v>
+        <v>0.4629</v>
       </c>
       <c r="C138">
-        <v>0.4634</v>
+        <v>0.4629</v>
       </c>
     </row>
     <row r="139" spans="1:3">
@@ -2668,10 +2668,10 @@
         <v>141</v>
       </c>
       <c r="B139">
-        <v>0.4575</v>
+        <v>0.4571</v>
       </c>
       <c r="C139">
-        <v>0.4575</v>
+        <v>0.4571</v>
       </c>
     </row>
     <row r="140" spans="1:3">
@@ -2679,10 +2679,10 @@
         <v>142</v>
       </c>
       <c r="B140">
-        <v>0.4666</v>
+        <v>0.4662</v>
       </c>
       <c r="C140">
-        <v>0.4666</v>
+        <v>0.4662</v>
       </c>
     </row>
     <row r="141" spans="1:3">
@@ -2690,10 +2690,10 @@
         <v>143</v>
       </c>
       <c r="B141">
-        <v>0.4497</v>
+        <v>0.4493</v>
       </c>
       <c r="C141">
-        <v>0.4497</v>
+        <v>0.4493</v>
       </c>
     </row>
     <row r="142" spans="1:3">
@@ -2701,10 +2701,10 @@
         <v>144</v>
       </c>
       <c r="B142">
-        <v>0.44</v>
+        <v>0.4396</v>
       </c>
       <c r="C142">
-        <v>0.44</v>
+        <v>0.4396</v>
       </c>
     </row>
     <row r="143" spans="1:3">
@@ -2712,10 +2712,10 @@
         <v>145</v>
       </c>
       <c r="B143">
-        <v>0.4246</v>
+        <v>0.4242</v>
       </c>
       <c r="C143">
-        <v>0.4246</v>
+        <v>0.4242</v>
       </c>
     </row>
     <row r="144" spans="1:3">
@@ -2723,10 +2723,10 @@
         <v>146</v>
       </c>
       <c r="B144">
-        <v>0.4185</v>
+        <v>0.4182</v>
       </c>
       <c r="C144">
-        <v>0.4185</v>
+        <v>0.4182</v>
       </c>
     </row>
     <row r="145" spans="1:4">
@@ -2734,10 +2734,10 @@
         <v>147</v>
       </c>
       <c r="B145">
-        <v>0.4098</v>
+        <v>0.4095</v>
       </c>
       <c r="C145">
-        <v>0.4098</v>
+        <v>0.4095</v>
       </c>
     </row>
     <row r="146" spans="1:4">
@@ -2745,10 +2745,10 @@
         <v>148</v>
       </c>
       <c r="B146">
-        <v>0.3995</v>
+        <v>0.3992</v>
       </c>
       <c r="C146">
-        <v>0.3995</v>
+        <v>0.3992</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -2756,10 +2756,10 @@
         <v>149</v>
       </c>
       <c r="B147">
-        <v>0.3858</v>
+        <v>0.3855</v>
       </c>
       <c r="C147">
-        <v>0.3858</v>
+        <v>0.3855</v>
       </c>
     </row>
     <row r="148" spans="1:4">
@@ -2767,10 +2767,10 @@
         <v>150</v>
       </c>
       <c r="B148">
-        <v>0.3626</v>
+        <v>0.3623</v>
       </c>
       <c r="C148">
-        <v>0.3626</v>
+        <v>0.3623</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -2778,10 +2778,10 @@
         <v>151</v>
       </c>
       <c r="B149">
-        <v>0.3496</v>
+        <v>0.3493</v>
       </c>
       <c r="C149">
-        <v>0.3496</v>
+        <v>0.3493</v>
       </c>
     </row>
     <row r="150" spans="1:4">
@@ -2789,10 +2789,10 @@
         <v>152</v>
       </c>
       <c r="B150">
-        <v>0.3431</v>
+        <v>0.3428</v>
       </c>
       <c r="C150">
-        <v>0.3431</v>
+        <v>0.3428</v>
       </c>
     </row>
     <row r="151" spans="1:4">
@@ -2800,10 +2800,10 @@
         <v>153</v>
       </c>
       <c r="B151">
-        <v>0.3284</v>
+        <v>0.3282</v>
       </c>
       <c r="C151">
-        <v>0.3284</v>
+        <v>0.3282</v>
       </c>
     </row>
     <row r="152" spans="1:4">
@@ -2811,10 +2811,10 @@
         <v>154</v>
       </c>
       <c r="B152">
-        <v>0.3086</v>
+        <v>0.3084</v>
       </c>
       <c r="C152">
-        <v>0.3086</v>
+        <v>0.3084</v>
       </c>
     </row>
     <row r="153" spans="1:4">
@@ -2822,10 +2822,10 @@
         <v>155</v>
       </c>
       <c r="B153">
-        <v>0.2958</v>
+        <v>0.2956</v>
       </c>
       <c r="C153">
-        <v>0.2958</v>
+        <v>0.2956</v>
       </c>
     </row>
     <row r="154" spans="1:4">
@@ -2833,10 +2833,10 @@
         <v>156</v>
       </c>
       <c r="B154">
-        <v>0.2878</v>
+        <v>0.2876</v>
       </c>
       <c r="C154">
-        <v>0.2878</v>
+        <v>0.2876</v>
       </c>
     </row>
     <row r="155" spans="1:4">
@@ -2844,10 +2844,10 @@
         <v>157</v>
       </c>
       <c r="B155">
-        <v>0.2745</v>
+        <v>0.2743</v>
       </c>
       <c r="C155">
-        <v>0.2745</v>
+        <v>0.2743</v>
       </c>
     </row>
     <row r="156" spans="1:4">
@@ -2855,10 +2855,10 @@
         <v>158</v>
       </c>
       <c r="B156">
-        <v>0.2611</v>
+        <v>0.2609</v>
       </c>
       <c r="C156">
-        <v>0.2611</v>
+        <v>0.2609</v>
       </c>
     </row>
     <row r="157" spans="1:4">
@@ -2866,10 +2866,10 @@
         <v>159</v>
       </c>
       <c r="B157">
-        <v>0.2467</v>
+        <v>0.2465</v>
       </c>
       <c r="C157">
-        <v>0.2467</v>
+        <v>0.2465</v>
       </c>
     </row>
     <row r="158" spans="1:4">
@@ -2877,10 +2877,10 @@
         <v>160</v>
       </c>
       <c r="B158">
-        <v>0.2309</v>
+        <v>0.2308</v>
       </c>
       <c r="C158">
-        <v>0.2309</v>
+        <v>0.2308</v>
       </c>
     </row>
     <row r="159" spans="1:4">
@@ -2888,10 +2888,10 @@
         <v>161</v>
       </c>
       <c r="B159">
-        <v>0.2245</v>
+        <v>0.2243</v>
       </c>
       <c r="C159">
-        <v>0.2245</v>
+        <v>0.2243</v>
       </c>
     </row>
     <row r="160" spans="1:4">
@@ -2899,13 +2899,13 @@
         <v>162</v>
       </c>
       <c r="B160">
-        <v>0.6289</v>
+        <v>0.6302</v>
       </c>
       <c r="C160">
-        <v>0.2045</v>
+        <v>0.2044</v>
       </c>
       <c r="D160">
-        <v>0.4244</v>
+        <v>0.4259</v>
       </c>
     </row>
     <row r="161" spans="1:4">
@@ -2913,13 +2913,13 @@
         <v>163</v>
       </c>
       <c r="B161">
-        <v>0.6196</v>
+        <v>0.621</v>
       </c>
       <c r="C161">
-        <v>0.205</v>
+        <v>0.2048</v>
       </c>
       <c r="D161">
-        <v>0.4147</v>
+        <v>0.4162</v>
       </c>
     </row>
     <row r="162" spans="1:4">
@@ -2927,13 +2927,13 @@
         <v>164</v>
       </c>
       <c r="B162">
-        <v>0.613</v>
+        <v>0.6145</v>
       </c>
       <c r="C162">
-        <v>0.2074</v>
+        <v>0.2072</v>
       </c>
       <c r="D162">
-        <v>0.4056</v>
+        <v>0.4073</v>
       </c>
     </row>
     <row r="163" spans="1:4">
@@ -2941,13 +2941,13 @@
         <v>165</v>
       </c>
       <c r="B163">
-        <v>0.612</v>
+        <v>0.6135</v>
       </c>
       <c r="C163">
-        <v>0.2137</v>
+        <v>0.2135</v>
       </c>
       <c r="D163">
-        <v>0.3983</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="164" spans="1:4">
@@ -2955,13 +2955,13 @@
         <v>166</v>
       </c>
       <c r="B164">
-        <v>0.6072</v>
+        <v>0.6088</v>
       </c>
       <c r="C164">
-        <v>0.2157</v>
+        <v>0.2155</v>
       </c>
       <c r="D164">
-        <v>0.3916</v>
+        <v>0.3933</v>
       </c>
     </row>
     <row r="165" spans="1:4">
@@ -2969,13 +2969,13 @@
         <v>167</v>
       </c>
       <c r="B165">
-        <v>0.598</v>
+        <v>0.5995</v>
       </c>
       <c r="C165">
-        <v>0.2129</v>
+        <v>0.2128</v>
       </c>
       <c r="D165">
-        <v>0.385</v>
+        <v>0.3867</v>
       </c>
     </row>
     <row r="166" spans="1:4">
@@ -2983,13 +2983,13 @@
         <v>168</v>
       </c>
       <c r="B166">
-        <v>0.594</v>
+        <v>0.5955</v>
       </c>
       <c r="C166">
-        <v>0.2144</v>
+        <v>0.2143</v>
       </c>
       <c r="D166">
-        <v>0.3795</v>
+        <v>0.3812</v>
       </c>
     </row>
     <row r="167" spans="1:4">
@@ -2997,13 +2997,13 @@
         <v>169</v>
       </c>
       <c r="B167">
-        <v>0.5887</v>
+        <v>0.5901999999999999</v>
       </c>
       <c r="C167">
-        <v>0.2141</v>
+        <v>0.2139</v>
       </c>
       <c r="D167">
-        <v>0.3746</v>
+        <v>0.3762</v>
       </c>
     </row>
     <row r="168" spans="1:4">
@@ -3011,13 +3011,13 @@
         <v>170</v>
       </c>
       <c r="B168">
-        <v>0.5858</v>
+        <v>0.5872000000000001</v>
       </c>
       <c r="C168">
-        <v>0.2154</v>
+        <v>0.2152</v>
       </c>
       <c r="D168">
-        <v>0.3705</v>
+        <v>0.372</v>
       </c>
     </row>
     <row r="169" spans="1:4">
@@ -3025,13 +3025,13 @@
         <v>171</v>
       </c>
       <c r="B169">
-        <v>0.5824</v>
+        <v>0.5838</v>
       </c>
       <c r="C169">
-        <v>0.2155</v>
+        <v>0.2153</v>
       </c>
       <c r="D169">
-        <v>0.367</v>
+        <v>0.3685</v>
       </c>
     </row>
     <row r="170" spans="1:4">
@@ -3039,13 +3039,13 @@
         <v>172</v>
       </c>
       <c r="B170">
-        <v>0.5774</v>
+        <v>0.5787</v>
       </c>
       <c r="C170">
-        <v>0.2135</v>
+        <v>0.2134</v>
       </c>
       <c r="D170">
-        <v>0.3639</v>
+        <v>0.3653</v>
       </c>
     </row>
     <row r="171" spans="1:4">
@@ -3053,13 +3053,13 @@
         <v>173</v>
       </c>
       <c r="B171">
-        <v>0.5780999999999999</v>
+        <v>0.5793</v>
       </c>
       <c r="C171">
-        <v>0.2163</v>
+        <v>0.2161</v>
       </c>
       <c r="D171">
-        <v>0.3618</v>
+        <v>0.3632</v>
       </c>
     </row>
     <row r="172" spans="1:4">
@@ -3067,13 +3067,13 @@
         <v>174</v>
       </c>
       <c r="B172">
-        <v>0.582</v>
+        <v>0.5831</v>
       </c>
       <c r="C172">
-        <v>0.2203</v>
+        <v>0.2201</v>
       </c>
       <c r="D172">
-        <v>0.3618</v>
+        <v>0.363</v>
       </c>
     </row>
     <row r="173" spans="1:4">
@@ -3081,13 +3081,13 @@
         <v>175</v>
       </c>
       <c r="B173">
-        <v>0.5853</v>
+        <v>0.5863</v>
       </c>
       <c r="C173">
-        <v>0.2243</v>
+        <v>0.2242</v>
       </c>
       <c r="D173">
-        <v>0.3609</v>
+        <v>0.3621</v>
       </c>
     </row>
     <row r="174" spans="1:4">
@@ -3095,13 +3095,13 @@
         <v>176</v>
       </c>
       <c r="B174">
-        <v>0.5921</v>
+        <v>0.5929</v>
       </c>
       <c r="C174">
-        <v>0.2297</v>
+        <v>0.2295</v>
       </c>
       <c r="D174">
-        <v>0.3624</v>
+        <v>0.3634</v>
       </c>
     </row>
     <row r="175" spans="1:4">
@@ -3109,13 +3109,13 @@
         <v>177</v>
       </c>
       <c r="B175">
-        <v>0.5937</v>
+        <v>0.5945</v>
       </c>
       <c r="C175">
-        <v>0.2302</v>
+        <v>0.23</v>
       </c>
       <c r="D175">
-        <v>0.3635</v>
+        <v>0.3645</v>
       </c>
     </row>
     <row r="176" spans="1:4">
@@ -3123,13 +3123,13 @@
         <v>178</v>
       </c>
       <c r="B176">
-        <v>0.599</v>
+        <v>0.5997</v>
       </c>
       <c r="C176">
-        <v>0.2342</v>
+        <v>0.234</v>
       </c>
       <c r="D176">
-        <v>0.3648</v>
+        <v>0.3657</v>
       </c>
     </row>
     <row r="177" spans="1:4">
@@ -3137,13 +3137,13 @@
         <v>179</v>
       </c>
       <c r="B177">
-        <v>0.6075</v>
+        <v>0.6081</v>
       </c>
       <c r="C177">
-        <v>0.2407</v>
+        <v>0.2405</v>
       </c>
       <c r="D177">
-        <v>0.3668</v>
+        <v>0.3676</v>
       </c>
     </row>
     <row r="178" spans="1:4">
@@ -3151,13 +3151,13 @@
         <v>180</v>
       </c>
       <c r="B178">
-        <v>0.6173</v>
+        <v>0.6178</v>
       </c>
       <c r="C178">
-        <v>0.2477</v>
+        <v>0.2475</v>
       </c>
       <c r="D178">
-        <v>0.3696</v>
+        <v>0.3703</v>
       </c>
     </row>
     <row r="179" spans="1:4">
@@ -3165,13 +3165,13 @@
         <v>181</v>
       </c>
       <c r="B179">
-        <v>0.6208</v>
+        <v>0.6212</v>
       </c>
       <c r="C179">
-        <v>0.248</v>
+        <v>0.2478</v>
       </c>
       <c r="D179">
-        <v>0.3728</v>
+        <v>0.3734</v>
       </c>
     </row>
     <row r="180" spans="1:4">
@@ -3179,13 +3179,13 @@
         <v>182</v>
       </c>
       <c r="B180">
-        <v>0.6281</v>
+        <v>0.6284</v>
       </c>
       <c r="C180">
-        <v>0.2513</v>
+        <v>0.2511</v>
       </c>
       <c r="D180">
-        <v>0.3769</v>
+        <v>0.3774</v>
       </c>
     </row>
     <row r="181" spans="1:4">
@@ -3193,13 +3193,13 @@
         <v>183</v>
       </c>
       <c r="B181">
-        <v>0.6345</v>
+        <v>0.6347</v>
       </c>
       <c r="C181">
-        <v>0.2531</v>
+        <v>0.2529</v>
       </c>
       <c r="D181">
-        <v>0.3814</v>
+        <v>0.3818</v>
       </c>
     </row>
     <row r="182" spans="1:4">
@@ -3210,10 +3210,10 @@
         <v>0.6413</v>
       </c>
       <c r="C182">
-        <v>0.2543</v>
+        <v>0.254</v>
       </c>
       <c r="D182">
-        <v>0.387</v>
+        <v>0.3873</v>
       </c>
     </row>
     <row r="183" spans="1:4">
@@ -3224,10 +3224,10 @@
         <v>0.6421</v>
       </c>
       <c r="C183">
-        <v>0.2508</v>
+        <v>0.2505</v>
       </c>
       <c r="D183">
-        <v>0.3913</v>
+        <v>0.3915</v>
       </c>
     </row>
     <row r="184" spans="1:4">
@@ -3235,13 +3235,13 @@
         <v>186</v>
       </c>
       <c r="B184">
-        <v>0.6482</v>
+        <v>0.6481</v>
       </c>
       <c r="C184">
-        <v>0.2527</v>
+        <v>0.2524</v>
       </c>
       <c r="D184">
-        <v>0.3955</v>
+        <v>0.3957</v>
       </c>
     </row>
     <row r="185" spans="1:4">
@@ -3249,13 +3249,13 @@
         <v>187</v>
       </c>
       <c r="B185">
-        <v>0.6579</v>
+        <v>0.6577</v>
       </c>
       <c r="C185">
-        <v>0.2582</v>
+        <v>0.2579</v>
       </c>
       <c r="D185">
-        <v>0.3997</v>
+        <v>0.3998</v>
       </c>
     </row>
     <row r="186" spans="1:4">
@@ -3263,13 +3263,13 @@
         <v>188</v>
       </c>
       <c r="B186">
-        <v>0.6649</v>
+        <v>0.6647</v>
       </c>
       <c r="C186">
-        <v>0.2616</v>
+        <v>0.2613</v>
       </c>
       <c r="D186">
-        <v>0.4033</v>
+        <v>0.4034</v>
       </c>
     </row>
     <row r="187" spans="1:4">
@@ -3277,13 +3277,13 @@
         <v>189</v>
       </c>
       <c r="B187">
-        <v>0.6744</v>
+        <v>0.6741</v>
       </c>
       <c r="C187">
-        <v>0.2673</v>
+        <v>0.267</v>
       </c>
       <c r="D187">
-        <v>0.407</v>
+        <v>0.4071</v>
       </c>
     </row>
     <row r="188" spans="1:4">
@@ -3291,13 +3291,13 @@
         <v>190</v>
       </c>
       <c r="B188">
-        <v>0.6820000000000001</v>
+        <v>0.6817</v>
       </c>
       <c r="C188">
-        <v>0.2711</v>
+        <v>0.2707</v>
       </c>
       <c r="D188">
-        <v>0.4109</v>
+        <v>0.411</v>
       </c>
     </row>
     <row r="189" spans="1:4">
@@ -3305,10 +3305,10 @@
         <v>191</v>
       </c>
       <c r="B189">
-        <v>0.6941000000000001</v>
+        <v>0.6938</v>
       </c>
       <c r="C189">
-        <v>0.2792</v>
+        <v>0.2788</v>
       </c>
       <c r="D189">
         <v>0.4149</v>
@@ -3319,10 +3319,10 @@
         <v>192</v>
       </c>
       <c r="B190">
-        <v>0.7109</v>
+        <v>0.7104</v>
       </c>
       <c r="C190">
-        <v>0.2899</v>
+        <v>0.2895</v>
       </c>
       <c r="D190">
         <v>0.421</v>
@@ -3333,13 +3333,13 @@
         <v>193</v>
       </c>
       <c r="B191">
-        <v>0.7237</v>
+        <v>0.7232</v>
       </c>
       <c r="C191">
-        <v>0.2972</v>
+        <v>0.2968</v>
       </c>
       <c r="D191">
-        <v>0.4265</v>
+        <v>0.4264</v>
       </c>
     </row>
     <row r="192" spans="1:4">
@@ -3347,13 +3347,13 @@
         <v>194</v>
       </c>
       <c r="B192">
-        <v>0.7372</v>
+        <v>0.7367</v>
       </c>
       <c r="C192">
-        <v>0.3068</v>
+        <v>0.3064</v>
       </c>
       <c r="D192">
-        <v>0.4304</v>
+        <v>0.4303</v>
       </c>
     </row>
     <row r="193" spans="1:4">
@@ -3361,10 +3361,10 @@
         <v>195</v>
       </c>
       <c r="B193">
-        <v>0.747</v>
+        <v>0.7465000000000001</v>
       </c>
       <c r="C193">
-        <v>0.3132</v>
+        <v>0.3127</v>
       </c>
       <c r="D193">
         <v>0.4338</v>
@@ -3375,10 +3375,10 @@
         <v>196</v>
       </c>
       <c r="B194">
-        <v>0.7529</v>
+        <v>0.7524</v>
       </c>
       <c r="C194">
-        <v>0.3173</v>
+        <v>0.3168</v>
       </c>
       <c r="D194">
         <v>0.4356</v>
@@ -3389,10 +3389,10 @@
         <v>197</v>
       </c>
       <c r="B195">
-        <v>0.7702</v>
+        <v>0.7698</v>
       </c>
       <c r="C195">
-        <v>0.3332</v>
+        <v>0.3327</v>
       </c>
       <c r="D195">
         <v>0.437</v>
@@ -3403,13 +3403,13 @@
         <v>198</v>
       </c>
       <c r="B196">
-        <v>0.7835</v>
+        <v>0.7831</v>
       </c>
       <c r="C196">
-        <v>0.3437</v>
+        <v>0.3432</v>
       </c>
       <c r="D196">
-        <v>0.4398</v>
+        <v>0.4399</v>
       </c>
     </row>
     <row r="197" spans="1:4">
@@ -3417,13 +3417,13 @@
         <v>199</v>
       </c>
       <c r="B197">
-        <v>0.791</v>
+        <v>0.7906</v>
       </c>
       <c r="C197">
-        <v>0.3488</v>
+        <v>0.3484</v>
       </c>
       <c r="D197">
-        <v>0.4421</v>
+        <v>0.4422</v>
       </c>
     </row>
     <row r="198" spans="1:4">
@@ -3431,13 +3431,13 @@
         <v>200</v>
       </c>
       <c r="B198">
-        <v>0.8028</v>
+        <v>0.8024</v>
       </c>
       <c r="C198">
-        <v>0.3583</v>
+        <v>0.3578</v>
       </c>
       <c r="D198">
-        <v>0.4445</v>
+        <v>0.4446</v>
       </c>
     </row>
     <row r="199" spans="1:4">
@@ -3445,13 +3445,13 @@
         <v>201</v>
       </c>
       <c r="B199">
-        <v>0.8183</v>
+        <v>0.8179999999999999</v>
       </c>
       <c r="C199">
-        <v>0.3723</v>
+        <v>0.3718</v>
       </c>
       <c r="D199">
-        <v>0.446</v>
+        <v>0.4461</v>
       </c>
     </row>
     <row r="200" spans="1:4">
@@ -3459,13 +3459,13 @@
         <v>202</v>
       </c>
       <c r="B200">
-        <v>0.8327</v>
+        <v>0.8324</v>
       </c>
       <c r="C200">
-        <v>0.3854</v>
+        <v>0.3849</v>
       </c>
       <c r="D200">
-        <v>0.4473</v>
+        <v>0.4475</v>
       </c>
     </row>
     <row r="201" spans="1:4">
@@ -3473,13 +3473,13 @@
         <v>203</v>
       </c>
       <c r="B201">
-        <v>0.846</v>
+        <v>0.8457</v>
       </c>
       <c r="C201">
-        <v>0.398</v>
+        <v>0.3975</v>
       </c>
       <c r="D201">
-        <v>0.448</v>
+        <v>0.4483</v>
       </c>
     </row>
     <row r="202" spans="1:4">
@@ -3487,13 +3487,13 @@
         <v>204</v>
       </c>
       <c r="B202">
-        <v>0.8529</v>
+        <v>0.8528</v>
       </c>
       <c r="C202">
-        <v>0.4058</v>
+        <v>0.4053</v>
       </c>
       <c r="D202">
-        <v>0.4472</v>
+        <v>0.4475</v>
       </c>
     </row>
     <row r="203" spans="1:4">
@@ -3504,10 +3504,10 @@
         <v>0.8608</v>
       </c>
       <c r="C203">
-        <v>0.414</v>
+        <v>0.4135</v>
       </c>
       <c r="D203">
-        <v>0.4468</v>
+        <v>0.4472</v>
       </c>
     </row>
     <row r="204" spans="1:4">
@@ -3515,13 +3515,13 @@
         <v>206</v>
       </c>
       <c r="B204">
-        <v>0.8677</v>
+        <v>0.8678</v>
       </c>
       <c r="C204">
-        <v>0.4213</v>
+        <v>0.4209</v>
       </c>
       <c r="D204">
-        <v>0.4464</v>
+        <v>0.4469</v>
       </c>
     </row>
     <row r="205" spans="1:4">
@@ -3529,13 +3529,13 @@
         <v>207</v>
       </c>
       <c r="B205">
-        <v>0.8797</v>
+        <v>0.8798</v>
       </c>
       <c r="C205">
-        <v>0.4334</v>
+        <v>0.433</v>
       </c>
       <c r="D205">
-        <v>0.4462</v>
+        <v>0.4468</v>
       </c>
     </row>
     <row r="206" spans="1:4">
@@ -3543,13 +3543,13 @@
         <v>208</v>
       </c>
       <c r="B206">
-        <v>0.8885999999999999</v>
+        <v>0.8888</v>
       </c>
       <c r="C206">
-        <v>0.443</v>
+        <v>0.4426</v>
       </c>
       <c r="D206">
-        <v>0.4456</v>
+        <v>0.4462</v>
       </c>
     </row>
     <row r="207" spans="1:4">
@@ -3557,13 +3557,13 @@
         <v>209</v>
       </c>
       <c r="B207">
-        <v>0.895</v>
+        <v>0.8952</v>
       </c>
       <c r="C207">
-        <v>0.4497</v>
+        <v>0.4494</v>
       </c>
       <c r="D207">
-        <v>0.4453</v>
+        <v>0.4459</v>
       </c>
     </row>
     <row r="208" spans="1:4">
@@ -3571,13 +3571,13 @@
         <v>210</v>
       </c>
       <c r="B208">
-        <v>0.9024</v>
+        <v>0.9026</v>
       </c>
       <c r="C208">
-        <v>0.4568</v>
+        <v>0.4564</v>
       </c>
       <c r="D208">
-        <v>0.4456</v>
+        <v>0.4462</v>
       </c>
     </row>
     <row r="209" spans="1:4">
@@ -3585,13 +3585,13 @@
         <v>211</v>
       </c>
       <c r="B209">
-        <v>0.9056</v>
+        <v>0.9059</v>
       </c>
       <c r="C209">
-        <v>0.4604</v>
+        <v>0.46</v>
       </c>
       <c r="D209">
-        <v>0.4453</v>
+        <v>0.4459</v>
       </c>
     </row>
     <row r="210" spans="1:4">
@@ -3599,13 +3599,13 @@
         <v>212</v>
       </c>
       <c r="B210">
-        <v>0.9015</v>
+        <v>0.9019</v>
       </c>
       <c r="C210">
-        <v>0.4585</v>
+        <v>0.4582</v>
       </c>
       <c r="D210">
-        <v>0.443</v>
+        <v>0.4437</v>
       </c>
     </row>
     <row r="211" spans="1:4">
@@ -3613,13 +3613,13 @@
         <v>213</v>
       </c>
       <c r="B211">
-        <v>0.9013</v>
+        <v>0.9018</v>
       </c>
       <c r="C211">
-        <v>0.4605</v>
+        <v>0.4602</v>
       </c>
       <c r="D211">
-        <v>0.4408</v>
+        <v>0.4415</v>
       </c>
     </row>
     <row r="212" spans="1:4">
@@ -3627,13 +3627,13 @@
         <v>214</v>
       </c>
       <c r="B212">
-        <v>0.9002</v>
+        <v>0.9008</v>
       </c>
       <c r="C212">
-        <v>0.4616</v>
+        <v>0.4614</v>
       </c>
       <c r="D212">
-        <v>0.4386</v>
+        <v>0.4394</v>
       </c>
     </row>
     <row r="213" spans="1:4">
@@ -3641,13 +3641,13 @@
         <v>215</v>
       </c>
       <c r="B213">
-        <v>0.8978</v>
+        <v>0.8984</v>
       </c>
       <c r="C213">
-        <v>0.4612</v>
+        <v>0.461</v>
       </c>
       <c r="D213">
-        <v>0.4366</v>
+        <v>0.4373</v>
       </c>
     </row>
     <row r="214" spans="1:4">
@@ -3655,13 +3655,13 @@
         <v>216</v>
       </c>
       <c r="B214">
-        <v>0.8942</v>
+        <v>0.8949</v>
       </c>
       <c r="C214">
-        <v>0.46</v>
+        <v>0.4599</v>
       </c>
       <c r="D214">
-        <v>0.4341</v>
+        <v>0.4349</v>
       </c>
     </row>
     <row r="215" spans="1:4">
@@ -3669,13 +3669,13 @@
         <v>217</v>
       </c>
       <c r="B215">
-        <v>0.8838</v>
+        <v>0.8846000000000001</v>
       </c>
       <c r="C215">
         <v>0.4522</v>
       </c>
       <c r="D215">
-        <v>0.4316</v>
+        <v>0.4324</v>
       </c>
     </row>
     <row r="216" spans="1:4">
@@ -3683,13 +3683,13 @@
         <v>218</v>
       </c>
       <c r="B216">
-        <v>0.8745000000000001</v>
+        <v>0.8754</v>
       </c>
       <c r="C216">
         <v>0.4471</v>
       </c>
       <c r="D216">
-        <v>0.4274</v>
+        <v>0.4283</v>
       </c>
     </row>
     <row r="217" spans="1:4">
@@ -3697,13 +3697,13 @@
         <v>219</v>
       </c>
       <c r="B217">
-        <v>0.8676</v>
+        <v>0.8686</v>
       </c>
       <c r="C217">
         <v>0.4441</v>
       </c>
       <c r="D217">
-        <v>0.4235</v>
+        <v>0.4244</v>
       </c>
     </row>
     <row r="218" spans="1:4">
@@ -3711,13 +3711,13 @@
         <v>220</v>
       </c>
       <c r="B218">
-        <v>0.8536</v>
+        <v>0.8547</v>
       </c>
       <c r="C218">
-        <v>0.4346</v>
+        <v>0.4347</v>
       </c>
       <c r="D218">
-        <v>0.419</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="219" spans="1:4">
@@ -3725,13 +3725,13 @@
         <v>221</v>
       </c>
       <c r="B219">
-        <v>0.8482</v>
+        <v>0.8494</v>
       </c>
       <c r="C219">
-        <v>0.4328</v>
+        <v>0.4329</v>
       </c>
       <c r="D219">
-        <v>0.4155</v>
+        <v>0.4165</v>
       </c>
     </row>
     <row r="220" spans="1:4">
@@ -3739,13 +3739,13 @@
         <v>222</v>
       </c>
       <c r="B220">
-        <v>0.837</v>
+        <v>0.8383</v>
       </c>
       <c r="C220">
-        <v>0.4254</v>
+        <v>0.4257</v>
       </c>
       <c r="D220">
-        <v>0.4116</v>
+        <v>0.4126</v>
       </c>
     </row>
     <row r="221" spans="1:4">
@@ -3753,13 +3753,13 @@
         <v>223</v>
       </c>
       <c r="B221">
-        <v>0.8263</v>
+        <v>0.8277</v>
       </c>
       <c r="C221">
-        <v>0.4176</v>
+        <v>0.4179</v>
       </c>
       <c r="D221">
-        <v>0.4088</v>
+        <v>0.4098</v>
       </c>
     </row>
     <row r="222" spans="1:4">
@@ -3767,13 +3767,13 @@
         <v>224</v>
       </c>
       <c r="B222">
-        <v>0.8193</v>
+        <v>0.8206</v>
       </c>
       <c r="C222">
-        <v>0.4108</v>
+        <v>0.4111</v>
       </c>
       <c r="D222">
-        <v>0.4085</v>
+        <v>0.4095</v>
       </c>
     </row>
     <row r="223" spans="1:4">
@@ -3781,13 +3781,13 @@
         <v>225</v>
       </c>
       <c r="B223">
-        <v>0.8183</v>
+        <v>0.8196</v>
       </c>
       <c r="C223">
-        <v>0.4099</v>
+        <v>0.4102</v>
       </c>
       <c r="D223">
-        <v>0.4085</v>
+        <v>0.4094</v>
       </c>
     </row>
     <row r="224" spans="1:4">
@@ -3795,13 +3795,13 @@
         <v>226</v>
       </c>
       <c r="B224">
-        <v>0.8103</v>
+        <v>0.8116</v>
       </c>
       <c r="C224">
-        <v>0.4024</v>
+        <v>0.4028</v>
       </c>
       <c r="D224">
-        <v>0.4079</v>
+        <v>0.4088</v>
       </c>
     </row>
     <row r="225" spans="1:4">
@@ -3809,13 +3809,13 @@
         <v>227</v>
       </c>
       <c r="B225">
-        <v>0.8036</v>
+        <v>0.8048</v>
       </c>
       <c r="C225">
-        <v>0.3959</v>
+        <v>0.3963</v>
       </c>
       <c r="D225">
-        <v>0.4077</v>
+        <v>0.4085</v>
       </c>
     </row>
     <row r="226" spans="1:4">
@@ -3823,13 +3823,13 @@
         <v>228</v>
       </c>
       <c r="B226">
-        <v>0.7925</v>
+        <v>0.7936</v>
       </c>
       <c r="C226">
-        <v>0.3847</v>
+        <v>0.3851</v>
       </c>
       <c r="D226">
-        <v>0.4078</v>
+        <v>0.4085</v>
       </c>
     </row>
     <row r="227" spans="1:4">
@@ -3837,13 +3837,13 @@
         <v>229</v>
       </c>
       <c r="B227">
-        <v>0.7877999999999999</v>
+        <v>0.7889</v>
       </c>
       <c r="C227">
-        <v>0.3803</v>
+        <v>0.3807</v>
       </c>
       <c r="D227">
-        <v>0.4075</v>
+        <v>0.4082</v>
       </c>
     </row>
     <row r="228" spans="1:4">
@@ -3851,13 +3851,13 @@
         <v>230</v>
       </c>
       <c r="B228">
-        <v>0.7812</v>
+        <v>0.7823</v>
       </c>
       <c r="C228">
-        <v>0.3751</v>
+        <v>0.3755</v>
       </c>
       <c r="D228">
-        <v>0.4061</v>
+        <v>0.4068</v>
       </c>
     </row>
     <row r="229" spans="1:4">
@@ -3865,13 +3865,13 @@
         <v>231</v>
       </c>
       <c r="B229">
-        <v>0.7731</v>
+        <v>0.7742</v>
       </c>
       <c r="C229">
-        <v>0.368</v>
+        <v>0.3685</v>
       </c>
       <c r="D229">
-        <v>0.4051</v>
+        <v>0.4057</v>
       </c>
     </row>
     <row r="230" spans="1:4">
@@ -3879,13 +3879,13 @@
         <v>232</v>
       </c>
       <c r="B230">
-        <v>0.7704</v>
+        <v>0.7715</v>
       </c>
       <c r="C230">
-        <v>0.3668</v>
+        <v>0.3672</v>
       </c>
       <c r="D230">
-        <v>0.4036</v>
+        <v>0.4043</v>
       </c>
     </row>
     <row r="231" spans="1:4">
@@ -3893,13 +3893,13 @@
         <v>233</v>
       </c>
       <c r="B231">
-        <v>0.7628</v>
+        <v>0.7639</v>
       </c>
       <c r="C231">
-        <v>0.3607</v>
+        <v>0.3611</v>
       </c>
       <c r="D231">
-        <v>0.4021</v>
+        <v>0.4027</v>
       </c>
     </row>
     <row r="232" spans="1:4">
@@ -3907,13 +3907,13 @@
         <v>234</v>
       </c>
       <c r="B232">
-        <v>0.7553</v>
+        <v>0.7564</v>
       </c>
       <c r="C232">
-        <v>0.3546</v>
+        <v>0.355</v>
       </c>
       <c r="D232">
-        <v>0.4007</v>
+        <v>0.4014</v>
       </c>
     </row>
     <row r="233" spans="1:4">
@@ -3921,13 +3921,13 @@
         <v>235</v>
       </c>
       <c r="B233">
-        <v>0.7496</v>
+        <v>0.7507</v>
       </c>
       <c r="C233">
-        <v>0.3504</v>
+        <v>0.3508</v>
       </c>
       <c r="D233">
-        <v>0.3993</v>
+        <v>0.3999</v>
       </c>
     </row>
     <row r="234" spans="1:4">
@@ -3935,13 +3935,13 @@
         <v>236</v>
       </c>
       <c r="B234">
-        <v>0.7458</v>
+        <v>0.7469</v>
       </c>
       <c r="C234">
-        <v>0.348</v>
+        <v>0.3484</v>
       </c>
       <c r="D234">
-        <v>0.3979</v>
+        <v>0.3985</v>
       </c>
     </row>
     <row r="235" spans="1:4">
@@ -3949,13 +3949,13 @@
         <v>237</v>
       </c>
       <c r="B235">
-        <v>0.7405</v>
+        <v>0.7415</v>
       </c>
       <c r="C235">
-        <v>0.344</v>
+        <v>0.3444</v>
       </c>
       <c r="D235">
-        <v>0.3965</v>
+        <v>0.3972</v>
       </c>
     </row>
     <row r="236" spans="1:4">
@@ -3963,13 +3963,13 @@
         <v>238</v>
       </c>
       <c r="B236">
-        <v>0.738</v>
+        <v>0.739</v>
       </c>
       <c r="C236">
-        <v>0.3426</v>
+        <v>0.343</v>
       </c>
       <c r="D236">
-        <v>0.3954</v>
+        <v>0.396</v>
       </c>
     </row>
     <row r="237" spans="1:4">
@@ -3977,13 +3977,13 @@
         <v>239</v>
       </c>
       <c r="B237">
-        <v>0.7356</v>
+        <v>0.7365</v>
       </c>
       <c r="C237">
-        <v>0.3409</v>
+        <v>0.3413</v>
       </c>
       <c r="D237">
-        <v>0.3947</v>
+        <v>0.3953</v>
       </c>
     </row>
     <row r="238" spans="1:4">
@@ -3991,13 +3991,13 @@
         <v>240</v>
       </c>
       <c r="B238">
-        <v>0.7338</v>
+        <v>0.7347</v>
       </c>
       <c r="C238">
-        <v>0.3398</v>
+        <v>0.3402</v>
       </c>
       <c r="D238">
-        <v>0.394</v>
+        <v>0.3945</v>
       </c>
     </row>
     <row r="239" spans="1:4">
@@ -4005,13 +4005,13 @@
         <v>241</v>
       </c>
       <c r="B239">
-        <v>0.7245</v>
+        <v>0.7254</v>
       </c>
       <c r="C239">
-        <v>0.3315</v>
+        <v>0.3319</v>
       </c>
       <c r="D239">
-        <v>0.393</v>
+        <v>0.3935</v>
       </c>
     </row>
     <row r="240" spans="1:4">
@@ -4019,13 +4019,13 @@
         <v>242</v>
       </c>
       <c r="B240">
-        <v>0.7215</v>
+        <v>0.7222</v>
       </c>
       <c r="C240">
-        <v>0.3293</v>
+        <v>0.3296</v>
       </c>
       <c r="D240">
-        <v>0.3922</v>
+        <v>0.3926</v>
       </c>
     </row>
     <row r="241" spans="1:4">
@@ -4033,13 +4033,13 @@
         <v>243</v>
       </c>
       <c r="B241">
-        <v>0.7186</v>
+        <v>0.7194</v>
       </c>
       <c r="C241">
-        <v>0.328</v>
+        <v>0.3284</v>
       </c>
       <c r="D241">
-        <v>0.3906</v>
+        <v>0.391</v>
       </c>
     </row>
     <row r="242" spans="1:4">
@@ -4047,13 +4047,13 @@
         <v>244</v>
       </c>
       <c r="B242">
-        <v>0.7163</v>
+        <v>0.7171</v>
       </c>
       <c r="C242">
-        <v>0.3293</v>
+        <v>0.3297</v>
       </c>
       <c r="D242">
-        <v>0.387</v>
+        <v>0.3874</v>
       </c>
     </row>
     <row r="243" spans="1:4">
@@ -4061,13 +4061,13 @@
         <v>245</v>
       </c>
       <c r="B243">
-        <v>0.7087</v>
+        <v>0.7095</v>
       </c>
       <c r="C243">
-        <v>0.324</v>
+        <v>0.3244</v>
       </c>
       <c r="D243">
-        <v>0.3847</v>
+        <v>0.3851</v>
       </c>
     </row>
     <row r="244" spans="1:4">
@@ -4075,13 +4075,13 @@
         <v>246</v>
       </c>
       <c r="B244">
-        <v>0.7047</v>
+        <v>0.7054</v>
       </c>
       <c r="C244">
-        <v>0.3203</v>
+        <v>0.3206</v>
       </c>
       <c r="D244">
-        <v>0.3844</v>
+        <v>0.3848</v>
       </c>
     </row>
     <row r="245" spans="1:4">
@@ -4089,13 +4089,13 @@
         <v>247</v>
       </c>
       <c r="B245">
-        <v>0.6941000000000001</v>
+        <v>0.6948</v>
       </c>
       <c r="C245">
-        <v>0.3109</v>
+        <v>0.3112</v>
       </c>
       <c r="D245">
-        <v>0.3832</v>
+        <v>0.3836</v>
       </c>
     </row>
     <row r="246" spans="1:4">
@@ -4103,13 +4103,13 @@
         <v>248</v>
       </c>
       <c r="B246">
-        <v>0.6898</v>
+        <v>0.6904</v>
       </c>
       <c r="C246">
-        <v>0.3074</v>
+        <v>0.3077</v>
       </c>
       <c r="D246">
-        <v>0.3823</v>
+        <v>0.3826</v>
       </c>
     </row>
     <row r="247" spans="1:4">
@@ -4117,13 +4117,13 @@
         <v>249</v>
       </c>
       <c r="B247">
-        <v>0.6827</v>
+        <v>0.6833</v>
       </c>
       <c r="C247">
-        <v>0.3008</v>
+        <v>0.3011</v>
       </c>
       <c r="D247">
-        <v>0.382</v>
+        <v>0.3822</v>
       </c>
     </row>
     <row r="248" spans="1:4">
@@ -4131,13 +4131,13 @@
         <v>250</v>
       </c>
       <c r="B248">
-        <v>0.6756</v>
+        <v>0.6761</v>
       </c>
       <c r="C248">
-        <v>0.294</v>
+        <v>0.2943</v>
       </c>
       <c r="D248">
-        <v>0.3816</v>
+        <v>0.3818</v>
       </c>
     </row>
     <row r="249" spans="1:4">
@@ -4145,13 +4145,13 @@
         <v>251</v>
       </c>
       <c r="B249">
-        <v>0.6685</v>
+        <v>0.669</v>
       </c>
       <c r="C249">
-        <v>0.2874</v>
+        <v>0.2877</v>
       </c>
       <c r="D249">
-        <v>0.3811</v>
+        <v>0.3813</v>
       </c>
     </row>
     <row r="250" spans="1:4">
@@ -4159,13 +4159,13 @@
         <v>252</v>
       </c>
       <c r="B250">
-        <v>0.6611</v>
+        <v>0.6616</v>
       </c>
       <c r="C250">
-        <v>0.2804</v>
+        <v>0.2808</v>
       </c>
       <c r="D250">
-        <v>0.3807</v>
+        <v>0.3808</v>
       </c>
     </row>
     <row r="251" spans="1:4">
@@ -4173,13 +4173,13 @@
         <v>253</v>
       </c>
       <c r="B251">
-        <v>0.6538</v>
+        <v>0.6542</v>
       </c>
       <c r="C251">
-        <v>0.2733</v>
+        <v>0.2736</v>
       </c>
       <c r="D251">
-        <v>0.3805</v>
+        <v>0.3806</v>
       </c>
     </row>
     <row r="252" spans="1:4">
@@ -4187,13 +4187,13 @@
         <v>254</v>
       </c>
       <c r="B252">
-        <v>0.646</v>
+        <v>0.6463</v>
       </c>
       <c r="C252">
-        <v>0.2652</v>
+        <v>0.2655</v>
       </c>
       <c r="D252">
-        <v>0.3808</v>
+        <v>0.3809</v>
       </c>
     </row>
   </sheetData>
